--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I295"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,22 +487,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0135692097246646</v>
+        <v>0.005167385097593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004416523734107</v>
+        <v>5.346902617020532e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>1.487292289733887</v>
+        <v>0.5646190047264099</v>
       </c>
       <c r="E2" t="n">
-        <v>7.372611045837402</v>
+        <v>0.7287358641624451</v>
       </c>
       <c r="F2" t="n">
-        <v>1.487292289733887</v>
+        <v>2.38866400718689</v>
       </c>
       <c r="G2" t="n">
-        <v>7.372611045837402</v>
+        <v>12.07084560394287</v>
       </c>
       <c r="H2" t="n">
         <v>16000</v>
@@ -518,22 +518,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0161113590002059</v>
+        <v>0.0063749128021299</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006176856113597</v>
+        <v>7.63101561460644e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>1.859387755393982</v>
+        <v>0.6909910440444946</v>
       </c>
       <c r="E3" t="n">
-        <v>11.19872856140137</v>
+        <v>1.055927872657776</v>
       </c>
       <c r="F3" t="n">
-        <v>1.859387755393982</v>
+        <v>2.919724702835083</v>
       </c>
       <c r="G3" t="n">
-        <v>11.19872856140137</v>
+        <v>17.28877258300781</v>
       </c>
       <c r="H3" t="n">
         <v>44894</v>
@@ -549,22 +549,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013627441599965</v>
+        <v>0.0052642822265625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004463530203793</v>
+        <v>5.524065636564046e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>1.431222915649414</v>
+        <v>0.5602282285690308</v>
       </c>
       <c r="E4" t="n">
-        <v>6.614596843719482</v>
+        <v>0.7037795186042786</v>
       </c>
       <c r="F4" t="n">
-        <v>1.431222915649414</v>
+        <v>2.321700572967529</v>
       </c>
       <c r="G4" t="n">
-        <v>6.614597320556641</v>
+        <v>11.1952657699585</v>
       </c>
       <c r="H4" t="n">
         <v>2000</v>
@@ -580,22 +580,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0208280514925718</v>
+        <v>0.00423482991755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007368761580437</v>
+        <v>4.015435843029991e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>2.156061172485352</v>
+        <v>0.4642412662506103</v>
       </c>
       <c r="E5" t="n">
-        <v>9.30732536315918</v>
+        <v>0.5905245542526245</v>
       </c>
       <c r="F5" t="n">
-        <v>2.156061172485352</v>
+        <v>2.299593210220337</v>
       </c>
       <c r="G5" t="n">
-        <v>9.30732536315918</v>
+        <v>11.45608139038086</v>
       </c>
       <c r="H5" t="n">
         <v>16000</v>
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0246705785393714</v>
+        <v>0.0052768946625292</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0010147202992811</v>
+        <v>5.735526428907178e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>2.601938486099243</v>
+        <v>0.5911934971809387</v>
       </c>
       <c r="E6" t="n">
-        <v>13.59548854827881</v>
+        <v>0.8957459330558777</v>
       </c>
       <c r="F6" t="n">
-        <v>2.601938724517822</v>
+        <v>2.778552055358887</v>
       </c>
       <c r="G6" t="n">
-        <v>13.59549045562744</v>
+        <v>16.35951805114746</v>
       </c>
       <c r="H6" t="n">
         <v>44894</v>
@@ -642,22 +642,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0210174582898616</v>
+        <v>0.0043719517998397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007478216430172</v>
+        <v>4.226234887028113e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>2.14211893081665</v>
+        <v>0.4659496545791626</v>
       </c>
       <c r="E7" t="n">
-        <v>8.998844146728516</v>
+        <v>0.5836671590805054</v>
       </c>
       <c r="F7" t="n">
-        <v>2.142119169235229</v>
+        <v>2.234740972518921</v>
       </c>
       <c r="G7" t="n">
-        <v>8.998844146728516</v>
+        <v>10.5991096496582</v>
       </c>
       <c r="H7" t="n">
         <v>2000</v>
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0173948928713798</v>
+        <v>0.0051006926223635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005798519705422</v>
+        <v>5.108780533191748e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>1.817572355270386</v>
+        <v>0.5547013282775879</v>
       </c>
       <c r="E8" t="n">
-        <v>8.213462829589844</v>
+        <v>0.7998557090759277</v>
       </c>
       <c r="F8" t="n">
-        <v>1.817572474479676</v>
+        <v>2.496439456939697</v>
       </c>
       <c r="G8" t="n">
-        <v>8.213462829589844</v>
+        <v>13.00279140472412</v>
       </c>
       <c r="H8" t="n">
         <v>16000</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0204559452831745</v>
+        <v>0.0062524345703423</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007936035399325</v>
+        <v>7.277965050889179e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>2.216259479522705</v>
+        <v>0.6934904456138611</v>
       </c>
       <c r="E9" t="n">
-        <v>12.155517578125</v>
+        <v>1.187880635261536</v>
       </c>
       <c r="F9" t="n">
-        <v>2.216259479522705</v>
+        <v>3.007939100265503</v>
       </c>
       <c r="G9" t="n">
-        <v>12.155517578125</v>
+        <v>18.44669342041016</v>
       </c>
       <c r="H9" t="n">
         <v>44894</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0173717699944973</v>
+        <v>0.0051737339235842</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005827604327350001</v>
+        <v>5.206474452279508e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>1.759644985198975</v>
+        <v>0.5462508201599121</v>
       </c>
       <c r="E10" t="n">
-        <v>7.512700080871582</v>
+        <v>0.7469672560691833</v>
       </c>
       <c r="F10" t="n">
-        <v>1.759644985198975</v>
+        <v>2.41535210609436</v>
       </c>
       <c r="G10" t="n">
-        <v>7.512699127197266</v>
+        <v>11.91173267364502</v>
       </c>
       <c r="H10" t="n">
         <v>2000</v>
@@ -766,22 +766,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0189570877701044</v>
+        <v>0.0043710526078939</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0007351887179538</v>
+        <v>4.316805279813707e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>1.960315704345703</v>
+        <v>0.4962063729763031</v>
       </c>
       <c r="E11" t="n">
-        <v>9.519529342651367</v>
+        <v>0.723385751247406</v>
       </c>
       <c r="F11" t="n">
-        <v>1.960315704345703</v>
+        <v>2.382505416870117</v>
       </c>
       <c r="G11" t="n">
-        <v>9.519529342651367</v>
+        <v>12.47787666320801</v>
       </c>
       <c r="H11" t="n">
         <v>16000</v>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.023919990286231</v>
+        <v>0.0054727834649384</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001050132443197</v>
+        <v>6.19211423327215e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>2.499799728393555</v>
+        <v>0.628574550151825</v>
       </c>
       <c r="E12" t="n">
-        <v>14.32405471801758</v>
+        <v>1.087709188461304</v>
       </c>
       <c r="F12" t="n">
-        <v>2.499799728393555</v>
+        <v>2.898634910583496</v>
       </c>
       <c r="G12" t="n">
-        <v>14.32405471801758</v>
+        <v>17.84390640258789</v>
       </c>
       <c r="H12" t="n">
         <v>44894</v>
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0193246081471443</v>
+        <v>0.0044881636276841</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007624683203175</v>
+        <v>4.466213431442157e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>1.937421917915344</v>
+        <v>0.4916007816791534</v>
       </c>
       <c r="E13" t="n">
-        <v>8.975773811340332</v>
+        <v>0.6763543486595154</v>
       </c>
       <c r="F13" t="n">
-        <v>1.937422037124634</v>
+        <v>2.30210542678833</v>
       </c>
       <c r="G13" t="n">
-        <v>8.975772857666016</v>
+        <v>11.40481758117676</v>
       </c>
       <c r="H13" t="n">
         <v>2000</v>
@@ -859,22 +859,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0242692269384861</v>
+        <v>0.0059083034284412</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0009829056216403001</v>
+        <v>6.833892985014245e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>2.364086866378784</v>
+        <v>0.586932361125946</v>
       </c>
       <c r="E14" t="n">
-        <v>10.79101657867432</v>
+        <v>0.709818959236145</v>
       </c>
       <c r="F14" t="n">
-        <v>2.364086866378784</v>
+        <v>2.047873735427856</v>
       </c>
       <c r="G14" t="n">
-        <v>10.791015625</v>
+        <v>10.43209552764893</v>
       </c>
       <c r="H14" t="n">
         <v>16000</v>
@@ -890,22 +890,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0289635956287384</v>
+        <v>0.0061531802639365</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0013230190379545</v>
+        <v>7.3296541813761e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>2.917106866836548</v>
+        <v>0.6476612687110901</v>
       </c>
       <c r="E15" t="n">
-        <v>15.75541019439697</v>
+        <v>0.945406138896942</v>
       </c>
       <c r="F15" t="n">
-        <v>2.917106866836548</v>
+        <v>2.551954507827759</v>
       </c>
       <c r="G15" t="n">
-        <v>15.75540828704834</v>
+        <v>15.15272521972656</v>
       </c>
       <c r="H15" t="n">
         <v>44894</v>
@@ -921,22 +921,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0243853125721216</v>
+        <v>0.0059360214509069</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009973392589017001</v>
+        <v>6.847424810985103e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>2.31855297088623</v>
+        <v>0.5844924449920654</v>
       </c>
       <c r="E16" t="n">
-        <v>10.1180248260498</v>
+        <v>0.7090516686439514</v>
       </c>
       <c r="F16" t="n">
-        <v>2.318552732467652</v>
+        <v>2.001349925994873</v>
       </c>
       <c r="G16" t="n">
-        <v>10.1180248260498</v>
+        <v>9.731546401977541</v>
       </c>
       <c r="H16" t="n">
         <v>2000</v>
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0146468598395586</v>
+        <v>0.0047979922965168</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004927545087412</v>
+        <v>4.788043588632718e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>1.612915754318237</v>
+        <v>0.5303621888160706</v>
       </c>
       <c r="E17" t="n">
-        <v>8.686437606811523</v>
+        <v>0.7754785418510437</v>
       </c>
       <c r="F17" t="n">
-        <v>1.612915754318237</v>
+        <v>2.473544359207153</v>
       </c>
       <c r="G17" t="n">
-        <v>8.686437606811523</v>
+        <v>12.89788055419922</v>
       </c>
       <c r="H17" t="n">
         <v>16000</v>
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0163964927196502</v>
+        <v>0.0059227044694125</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0006319615058600001</v>
+        <v>6.934352131793275e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>1.926417469978332</v>
+        <v>0.664238452911377</v>
       </c>
       <c r="E18" t="n">
-        <v>12.94834899902344</v>
+        <v>1.162983417510986</v>
       </c>
       <c r="F18" t="n">
-        <v>1.926417469978332</v>
+        <v>2.981697559356689</v>
       </c>
       <c r="G18" t="n">
-        <v>12.94834899902344</v>
+        <v>18.35435676574707</v>
       </c>
       <c r="H18" t="n">
         <v>44894</v>
@@ -1014,22 +1014,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0147029450163245</v>
+        <v>0.0048515456728637</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004976381896995</v>
+        <v>4.882229040958919e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>1.55318558216095</v>
+        <v>0.5204764604568481</v>
       </c>
       <c r="E19" t="n">
-        <v>7.76402473449707</v>
+        <v>0.7226479053497314</v>
       </c>
       <c r="F19" t="n">
-        <v>1.55318546295166</v>
+        <v>2.388697147369385</v>
       </c>
       <c r="G19" t="n">
-        <v>7.76402473449707</v>
+        <v>11.79684638977051</v>
       </c>
       <c r="H19" t="n">
         <v>2000</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0165967922657728</v>
+        <v>0.0045220702886581</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005718642496503001</v>
+        <v>4.276708568795584e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>1.736029505729675</v>
+        <v>0.5089065432548523</v>
       </c>
       <c r="E20" t="n">
-        <v>7.962385177612305</v>
+        <v>0.686587393283844</v>
       </c>
       <c r="F20" t="n">
-        <v>1.736029505729675</v>
+        <v>2.376572370529175</v>
       </c>
       <c r="G20" t="n">
-        <v>7.962385654449463</v>
+        <v>12.19766426086426</v>
       </c>
       <c r="H20" t="n">
         <v>16000</v>
@@ -1076,22 +1076,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.020158939063549</v>
+        <v>0.0056095710024237</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0007561576203443</v>
+        <v>6.255471089389175e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>2.25114631652832</v>
+        <v>0.6320787668228149</v>
       </c>
       <c r="E21" t="n">
-        <v>12.04868698120117</v>
+        <v>1.028810501098633</v>
       </c>
       <c r="F21" t="n">
-        <v>2.25114631652832</v>
+        <v>2.877392768859864</v>
       </c>
       <c r="G21" t="n">
-        <v>12.04868698120117</v>
+        <v>17.34338760375977</v>
       </c>
       <c r="H21" t="n">
         <v>44894</v>
@@ -1107,22 +1107,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0167094990611076</v>
+        <v>0.0046518216840922</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005840038065798</v>
+        <v>4.503820673562586e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>1.701961874961853</v>
+        <v>0.5077057480812073</v>
       </c>
       <c r="E22" t="n">
-        <v>7.469913959503174</v>
+        <v>0.662564218044281</v>
       </c>
       <c r="F22" t="n">
-        <v>1.701961874961853</v>
+        <v>2.296344041824341</v>
       </c>
       <c r="G22" t="n">
-        <v>7.469913959503174</v>
+        <v>11.2038745880127</v>
       </c>
       <c r="H22" t="n">
         <v>2000</v>
@@ -1138,22 +1138,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.014915688894689</v>
+        <v>0.0047772238031029</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004969832953065</v>
+        <v>4.579632513923571e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>1.64173424243927</v>
+        <v>0.536068856716156</v>
       </c>
       <c r="E23" t="n">
-        <v>8.595767021179199</v>
+        <v>0.6704354882240295</v>
       </c>
       <c r="F23" t="n">
-        <v>1.64173436164856</v>
+        <v>2.411971092224121</v>
       </c>
       <c r="G23" t="n">
-        <v>8.595767974853516</v>
+        <v>11.96689796447754</v>
       </c>
       <c r="H23" t="n">
         <v>16000</v>
@@ -1169,22 +1169,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0172940474003553</v>
+        <v>0.0058419359847903</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0006852457881905</v>
+        <v>6.371829658746719e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>2.003086805343628</v>
+        <v>0.6563898921012878</v>
       </c>
       <c r="E24" t="n">
-        <v>12.91837024688721</v>
+        <v>0.967426300048828</v>
       </c>
       <c r="F24" t="n">
-        <v>2.003086805343628</v>
+        <v>2.877271413803101</v>
       </c>
       <c r="G24" t="n">
-        <v>12.91837024688721</v>
+        <v>16.84311676025391</v>
       </c>
       <c r="H24" t="n">
         <v>44894</v>
@@ -1200,22 +1200,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0148911504074931</v>
+        <v>0.0049321809783577</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004991465248167</v>
+        <v>4.872794306720607e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>1.570449352264404</v>
+        <v>0.5416152477264404</v>
       </c>
       <c r="E25" t="n">
-        <v>7.658961772918701</v>
+        <v>0.6748620867729187</v>
       </c>
       <c r="F25" t="n">
-        <v>1.570449352264404</v>
+        <v>2.352133750915528</v>
       </c>
       <c r="G25" t="n">
-        <v>7.658961772918701</v>
+        <v>11.18013095855713</v>
       </c>
       <c r="H25" t="n">
         <v>2000</v>
@@ -1231,22 +1231,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0203141849488019</v>
+        <v>0.0047358879819512</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0007291454239748</v>
+        <v>4.597049337462522e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>2.106961250305176</v>
+        <v>0.5357887148857117</v>
       </c>
       <c r="E26" t="n">
-        <v>9.329057693481444</v>
+        <v>0.6960091590881348</v>
       </c>
       <c r="F26" t="n">
-        <v>2.106961250305176</v>
+        <v>2.392681121826172</v>
       </c>
       <c r="G26" t="n">
-        <v>9.329058647155762</v>
+        <v>12.04651927947998</v>
       </c>
       <c r="H26" t="n">
         <v>16000</v>
@@ -1262,22 +1262,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0247708074748516</v>
+        <v>0.0058017182163894</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0010271513601765</v>
+        <v>6.595958984689787e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>2.59501576423645</v>
+        <v>0.6508971452713013</v>
       </c>
       <c r="E27" t="n">
-        <v>13.69738006591797</v>
+        <v>1.011336326599121</v>
       </c>
       <c r="F27" t="n">
-        <v>2.59501576423645</v>
+        <v>2.848861694335937</v>
       </c>
       <c r="G27" t="n">
-        <v>13.69737911224365</v>
+        <v>16.94002723693848</v>
       </c>
       <c r="H27" t="n">
         <v>44894</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0202836357057094</v>
+        <v>0.0048447800800204</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0007287031621671999</v>
+        <v>4.839958637603559e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>2.07237982749939</v>
+        <v>0.5357789993286133</v>
       </c>
       <c r="E28" t="n">
-        <v>8.844165802001953</v>
+        <v>0.6911410689353943</v>
       </c>
       <c r="F28" t="n">
-        <v>2.07237982749939</v>
+        <v>2.332473993301392</v>
       </c>
       <c r="G28" t="n">
-        <v>8.844165802001953</v>
+        <v>11.2268009185791</v>
       </c>
       <c r="H28" t="n">
         <v>2000</v>
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0182776600122451</v>
+        <v>0.0048293662257492</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0006116139702498</v>
+        <v>5.346602119971067e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>1.942932486534119</v>
+        <v>0.4962308406829834</v>
       </c>
       <c r="E29" t="n">
-        <v>8.780843734741211</v>
+        <v>0.6603363156318665</v>
       </c>
       <c r="F29" t="n">
-        <v>1.942932605743408</v>
+        <v>2.227823972702026</v>
       </c>
       <c r="G29" t="n">
-        <v>8.780843734741211</v>
+        <v>11.25248432159424</v>
       </c>
       <c r="H29" t="n">
         <v>16000</v>
@@ -1355,22 +1355,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.022166546434164</v>
+        <v>0.0056902980431914</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0008695979486218999</v>
+        <v>6.891303200973198e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>2.393179416656494</v>
+        <v>0.6146153807640076</v>
       </c>
       <c r="E30" t="n">
-        <v>13.05644226074219</v>
+        <v>0.9778445959091188</v>
       </c>
       <c r="F30" t="n">
-        <v>2.393179416656494</v>
+        <v>2.738676071166992</v>
       </c>
       <c r="G30" t="n">
-        <v>13.05644416809082</v>
+        <v>16.28893661499023</v>
       </c>
       <c r="H30" t="n">
         <v>44894</v>
@@ -1386,22 +1386,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0183443054556846</v>
+        <v>0.0048654032871127</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0006152833229862</v>
+        <v>5.503904321813025e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>1.913423299789429</v>
+        <v>0.4896079003810882</v>
       </c>
       <c r="E31" t="n">
-        <v>8.31301212310791</v>
+        <v>0.6528631448745728</v>
       </c>
       <c r="F31" t="n">
-        <v>1.913423299789429</v>
+        <v>2.167565107345581</v>
       </c>
       <c r="G31" t="n">
-        <v>8.313011169433594</v>
+        <v>10.41254425048828</v>
       </c>
       <c r="H31" t="n">
         <v>2000</v>
@@ -1417,22 +1417,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0225109793245792</v>
+        <v>0.0062186052091419</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0009328842861577</v>
+        <v>7.010083936620504e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>2.327461957931519</v>
+        <v>0.66245436668396</v>
       </c>
       <c r="E32" t="n">
-        <v>10.89090061187744</v>
+        <v>0.8797615766525269</v>
       </c>
       <c r="F32" t="n">
-        <v>2.32746148109436</v>
+        <v>2.587992668151855</v>
       </c>
       <c r="G32" t="n">
-        <v>10.89090061187744</v>
+        <v>13.13516426086426</v>
       </c>
       <c r="H32" t="n">
         <v>16000</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0258714370429515</v>
+        <v>0.0076169297099113</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0011328790569677</v>
+        <v>9.856709948508068e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>2.746712923049927</v>
+        <v>0.8021766543388367</v>
       </c>
       <c r="E33" t="n">
-        <v>15.11287975311279</v>
+        <v>1.239435434341431</v>
       </c>
       <c r="F33" t="n">
-        <v>2.746713161468506</v>
+        <v>3.087761163711548</v>
       </c>
       <c r="G33" t="n">
-        <v>15.11287975311279</v>
+        <v>18.36186981201172</v>
       </c>
       <c r="H33" t="n">
         <v>44894</v>
@@ -1479,22 +1479,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0225642416626214</v>
+        <v>0.0063368617556989</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0009598925244063</v>
+        <v>7.271410868270323e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>2.266091108322144</v>
+        <v>0.6641107797622681</v>
       </c>
       <c r="E34" t="n">
-        <v>10.11482620239258</v>
+        <v>0.8703715205192566</v>
       </c>
       <c r="F34" t="n">
-        <v>2.266091108322144</v>
+        <v>2.520047903060913</v>
       </c>
       <c r="G34" t="n">
-        <v>10.11482620239258</v>
+        <v>12.25295639038086</v>
       </c>
       <c r="H34" t="n">
         <v>2000</v>
@@ -1510,22 +1510,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0217288788408041</v>
+        <v>0.0064819641411304</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0008595500257797</v>
+        <v>7.628394814673811e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>2.335524797439575</v>
+        <v>0.6680328249931335</v>
       </c>
       <c r="E35" t="n">
-        <v>11.78749370574951</v>
+        <v>0.8806203603744507</v>
       </c>
       <c r="F35" t="n">
-        <v>2.335524797439575</v>
+        <v>2.605973243713379</v>
       </c>
       <c r="G35" t="n">
-        <v>11.7874927520752</v>
+        <v>13.26181602478027</v>
       </c>
       <c r="H35" t="n">
         <v>16000</v>
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0253193527460098</v>
+        <v>0.008004679344594401</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0011243030894547</v>
+        <v>0.0001079808862414</v>
       </c>
       <c r="D36" t="n">
-        <v>2.731910467147827</v>
+        <v>0.8198487162590027</v>
       </c>
       <c r="E36" t="n">
-        <v>16.32113456726074</v>
+        <v>1.26586127281189</v>
       </c>
       <c r="F36" t="n">
-        <v>2.731910467147827</v>
+        <v>3.132907152175904</v>
       </c>
       <c r="G36" t="n">
-        <v>16.32113647460938</v>
+        <v>18.66226577758789</v>
       </c>
       <c r="H36" t="n">
         <v>44894</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0222002118825912</v>
+        <v>0.0065580578520894</v>
       </c>
       <c r="C37" t="n">
-        <v>0.000884456152562</v>
+        <v>7.843899948056787e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>2.311164617538452</v>
+        <v>0.6657331585884094</v>
       </c>
       <c r="E37" t="n">
-        <v>10.8085470199585</v>
+        <v>0.8621116876602173</v>
       </c>
       <c r="F37" t="n">
-        <v>2.311164379119873</v>
+        <v>2.534609794616699</v>
       </c>
       <c r="G37" t="n">
-        <v>10.80854606628418</v>
+        <v>12.32778167724609</v>
       </c>
       <c r="H37" t="n">
         <v>2000</v>
@@ -1603,22 +1603,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0188846439123153</v>
+        <v>0.0059230872429907</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0006771960179321</v>
+        <v>7.549159636255354e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>1.991473913192749</v>
+        <v>0.6012057662010193</v>
       </c>
       <c r="E38" t="n">
-        <v>9.580754280090332</v>
+        <v>0.7597752809524536</v>
       </c>
       <c r="F38" t="n">
-        <v>1.991473913192749</v>
+        <v>2.151407957077026</v>
       </c>
       <c r="G38" t="n">
-        <v>9.580754280090332</v>
+        <v>10.64896297454834</v>
       </c>
       <c r="H38" t="n">
         <v>16000</v>
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0238367207348346</v>
+        <v>0.0064906701445579</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0009661435033194</v>
+        <v>8.351090946234763e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>2.60804557800293</v>
+        <v>0.6827683448791504</v>
       </c>
       <c r="E39" t="n">
-        <v>14.71629047393799</v>
+        <v>0.9984276294708252</v>
       </c>
       <c r="F39" t="n">
-        <v>2.608045101165771</v>
+        <v>2.618021011352539</v>
       </c>
       <c r="G39" t="n">
-        <v>14.71629047393799</v>
+        <v>15.22291088104248</v>
       </c>
       <c r="H39" t="n">
         <v>44894</v>
@@ -1665,22 +1665,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0193301048129796</v>
+        <v>0.0059338645078241</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0007096171611918999</v>
+        <v>7.702263974351808e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>2.010858535766602</v>
+        <v>0.5942337512969971</v>
       </c>
       <c r="E40" t="n">
-        <v>9.482086181640623</v>
+        <v>0.7575873136520386</v>
       </c>
       <c r="F40" t="n">
-        <v>2.010858774185181</v>
+        <v>2.108754873275757</v>
       </c>
       <c r="G40" t="n">
-        <v>9.482086181640623</v>
+        <v>9.91812229156494</v>
       </c>
       <c r="H40" t="n">
         <v>2000</v>
@@ -1696,22 +1696,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0189722646027803</v>
+        <v>0.0067215417511761</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0006633859593421</v>
+        <v>8.379798964597285e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>1.94847822189331</v>
+        <v>0.7155646085739136</v>
       </c>
       <c r="E41" t="n">
-        <v>8.722674369812012</v>
+        <v>1.012130618095398</v>
       </c>
       <c r="F41" t="n">
-        <v>1.94847822189331</v>
+        <v>2.653106212615967</v>
       </c>
       <c r="G41" t="n">
-        <v>8.722673416137695</v>
+        <v>13.71730709075928</v>
       </c>
       <c r="H41" t="n">
         <v>16000</v>
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0223088935017585</v>
+        <v>0.008382407017052101</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0008830318110994</v>
+        <v>0.0001197850870084</v>
       </c>
       <c r="D42" t="n">
-        <v>2.408208847045898</v>
+        <v>0.8699228763580322</v>
       </c>
       <c r="E42" t="n">
-        <v>12.85666751861572</v>
+        <v>1.441100716590881</v>
       </c>
       <c r="F42" t="n">
-        <v>2.408208847045898</v>
+        <v>3.183293581008911</v>
       </c>
       <c r="G42" t="n">
-        <v>12.85666751861572</v>
+        <v>19.29375648498535</v>
       </c>
       <c r="H42" t="n">
         <v>44894</v>
@@ -1758,22 +1758,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0190986935049295</v>
+        <v>0.0068370923399925</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0006681505474261</v>
+        <v>8.724612416699529e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>1.907536387443542</v>
+        <v>0.7173745036125183</v>
       </c>
       <c r="E43" t="n">
-        <v>8.04875373840332</v>
+        <v>1.026872038841248</v>
       </c>
       <c r="F43" t="n">
-        <v>1.907536387443542</v>
+        <v>2.581706762313843</v>
       </c>
       <c r="G43" t="n">
-        <v>8.048755645751953</v>
+        <v>12.91054534912109</v>
       </c>
       <c r="H43" t="n">
         <v>2000</v>
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.019955376163125</v>
+        <v>0.0051016542129218</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0006891585653647</v>
+        <v>5.619034345727414e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>2.076058149337769</v>
+        <v>0.5514017343521118</v>
       </c>
       <c r="E44" t="n">
-        <v>8.860592842102051</v>
+        <v>0.7315919995307922</v>
       </c>
       <c r="F44" t="n">
-        <v>2.076058149337769</v>
+        <v>2.393514156341553</v>
       </c>
       <c r="G44" t="n">
-        <v>8.860592842102051</v>
+        <v>12.11942481994629</v>
       </c>
       <c r="H44" t="n">
         <v>16000</v>
@@ -1820,22 +1820,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0244319215416908</v>
+        <v>0.0062176585197448</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0009785840520635</v>
+        <v>7.914983871160075e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>2.554284572601318</v>
+        <v>0.667255163192749</v>
       </c>
       <c r="E45" t="n">
-        <v>13.00126266479492</v>
+        <v>1.045013785362244</v>
       </c>
       <c r="F45" t="n">
-        <v>2.554284572601318</v>
+        <v>2.889164924621582</v>
       </c>
       <c r="G45" t="n">
-        <v>13.00126266479492</v>
+        <v>17.17477798461914</v>
       </c>
       <c r="H45" t="n">
         <v>44894</v>
@@ -1851,22 +1851,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0198914557695388</v>
+        <v>0.0052674817852675</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0006841566646471001</v>
+        <v>5.876271825400181e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>2.033744812011719</v>
+        <v>0.5495235323905945</v>
       </c>
       <c r="E46" t="n">
-        <v>8.339378356933594</v>
+        <v>0.7009583711624146</v>
       </c>
       <c r="F46" t="n">
-        <v>2.033744812011719</v>
+        <v>2.332525491714477</v>
       </c>
       <c r="G46" t="n">
-        <v>8.33937931060791</v>
+        <v>11.22936916351318</v>
       </c>
       <c r="H46" t="n">
         <v>2000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0176511816680431</v>
+        <v>0.0045631839893758</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0006064573535695</v>
+        <v>4.383502164273523e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>1.883121132850647</v>
+        <v>0.5280603170394897</v>
       </c>
       <c r="E47" t="n">
-        <v>8.156822204589844</v>
+        <v>0.6953187584877014</v>
       </c>
       <c r="F47" t="n">
-        <v>1.883121132850647</v>
+        <v>2.364761590957642</v>
       </c>
       <c r="G47" t="n">
-        <v>8.156822204589844</v>
+        <v>12.03184509277344</v>
       </c>
       <c r="H47" t="n">
         <v>16000</v>
@@ -1913,22 +1913,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0208447873592376</v>
+        <v>0.0057334164157509</v>
       </c>
       <c r="C48" t="n">
-        <v>0.000808683456853</v>
+        <v>6.384425068972632e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>2.25285792350769</v>
+        <v>0.6556167602539062</v>
       </c>
       <c r="E48" t="n">
-        <v>11.60152912139893</v>
+        <v>1.014589190483093</v>
       </c>
       <c r="F48" t="n">
-        <v>2.25285792350769</v>
+        <v>2.853371381759644</v>
       </c>
       <c r="G48" t="n">
-        <v>11.60152912139893</v>
+        <v>17.0053825378418</v>
       </c>
       <c r="H48" t="n">
         <v>44894</v>
@@ -1944,22 +1944,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0178582239896059</v>
+        <v>0.0047447523102164</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0006185065722091999</v>
+        <v>4.620252002496272e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>1.874433755874634</v>
+        <v>0.5332136750221252</v>
       </c>
       <c r="E49" t="n">
-        <v>7.89211893081665</v>
+        <v>0.6828485131263733</v>
       </c>
       <c r="F49" t="n">
-        <v>1.874433875083924</v>
+        <v>2.301535129547119</v>
       </c>
       <c r="G49" t="n">
-        <v>7.892117977142334</v>
+        <v>11.18948268890381</v>
       </c>
       <c r="H49" t="n">
         <v>2000</v>
@@ -1975,22 +1975,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0275414120405912</v>
+        <v>0.0064853061921894</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0012191124260425</v>
+        <v>7.489065319532529e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>2.733969211578369</v>
+        <v>0.68000727891922</v>
       </c>
       <c r="E50" t="n">
-        <v>12.19655704498291</v>
+        <v>0.9106882214546204</v>
       </c>
       <c r="F50" t="n">
-        <v>2.733969211578369</v>
+        <v>2.610460519790649</v>
       </c>
       <c r="G50" t="n">
-        <v>12.19655704498291</v>
+        <v>13.21435928344727</v>
       </c>
       <c r="H50" t="n">
         <v>16000</v>
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0318674854934215</v>
+        <v>0.0077103395015001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0015752577455714</v>
+        <v>0.0001018286347971</v>
       </c>
       <c r="D51" t="n">
-        <v>3.153211355209351</v>
+        <v>0.8094795346260071</v>
       </c>
       <c r="E51" t="n">
-        <v>16.64941787719727</v>
+        <v>1.286571264266968</v>
       </c>
       <c r="F51" t="n">
-        <v>3.15321159362793</v>
+        <v>3.097698926925659</v>
       </c>
       <c r="G51" t="n">
-        <v>16.64941787719727</v>
+        <v>18.54671669006348</v>
       </c>
       <c r="H51" t="n">
         <v>44894</v>
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0275511592626571</v>
+        <v>0.0066096326336264</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0012236860347911</v>
+        <v>7.719640416326001e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>2.683271646499634</v>
+        <v>0.6793964505195618</v>
       </c>
       <c r="E52" t="n">
-        <v>11.54124450683594</v>
+        <v>0.8899549841880798</v>
       </c>
       <c r="F52" t="n">
-        <v>2.683271408081055</v>
+        <v>2.53943657875061</v>
       </c>
       <c r="G52" t="n">
-        <v>11.54124641418457</v>
+        <v>12.28685665130615</v>
       </c>
       <c r="H52" t="n">
         <v>2000</v>
@@ -2068,22 +2068,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0202367659658193</v>
+        <v>0.0042415428906679</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0007736376719549</v>
+        <v>3.920641393051483e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>2.154981374740601</v>
+        <v>0.4852845966815948</v>
       </c>
       <c r="E53" t="n">
-        <v>9.805213928222656</v>
+        <v>0.6062625050544739</v>
       </c>
       <c r="F53" t="n">
-        <v>2.154981374740601</v>
+        <v>2.325809240341187</v>
       </c>
       <c r="G53" t="n">
-        <v>9.805213928222656</v>
+        <v>11.62525939941406</v>
       </c>
       <c r="H53" t="n">
         <v>16000</v>
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.024951422587037</v>
+        <v>0.0053382334299385</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0010401839390397</v>
+        <v>5.702365524484776e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>2.747279405593872</v>
+        <v>0.609119713306427</v>
       </c>
       <c r="E54" t="n">
-        <v>14.41607284545898</v>
+        <v>0.9030187726020812</v>
       </c>
       <c r="F54" t="n">
-        <v>2.747279405593872</v>
+        <v>2.808073759078979</v>
       </c>
       <c r="G54" t="n">
-        <v>14.41607475280762</v>
+        <v>16.528564453125</v>
       </c>
       <c r="H54" t="n">
         <v>44894</v>
@@ -2130,22 +2130,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0205002631992101</v>
+        <v>0.0043645133264362</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0007916316390037</v>
+        <v>4.13973793911282e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>2.122588396072388</v>
+        <v>0.4849853813648224</v>
       </c>
       <c r="E55" t="n">
-        <v>9.292707443237305</v>
+        <v>0.5991830825805664</v>
       </c>
       <c r="F55" t="n">
-        <v>2.122588634490967</v>
+        <v>2.255404710769653</v>
       </c>
       <c r="G55" t="n">
-        <v>9.292709350585938</v>
+        <v>10.7492265701294</v>
       </c>
       <c r="H55" t="n">
         <v>2000</v>
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0197284799069166</v>
+        <v>0.0046044667251408</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0006751382024958</v>
+        <v>4.49627623311244e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>2.087368726730347</v>
+        <v>0.5056923031806946</v>
       </c>
       <c r="E56" t="n">
-        <v>9.378627777099609</v>
+        <v>0.6594627499580383</v>
       </c>
       <c r="F56" t="n">
-        <v>2.087368726730347</v>
+        <v>2.386864423751831</v>
       </c>
       <c r="G56" t="n">
-        <v>9.378627777099609</v>
+        <v>12.06081581115723</v>
       </c>
       <c r="H56" t="n">
         <v>16000</v>
@@ -2192,22 +2192,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.022955946624279</v>
+        <v>0.0056889140978455</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0008989702910184</v>
+        <v>6.500849121948704e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>2.48447060585022</v>
+        <v>0.6298864483833313</v>
       </c>
       <c r="E57" t="n">
-        <v>13.33241367340088</v>
+        <v>0.9810271859169006</v>
       </c>
       <c r="F57" t="n">
-        <v>2.484470129013061</v>
+        <v>2.857835054397583</v>
       </c>
       <c r="G57" t="n">
-        <v>13.33241367340088</v>
+        <v>17.06112098693848</v>
       </c>
       <c r="H57" t="n">
         <v>44894</v>
@@ -2223,22 +2223,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0196784362196922</v>
+        <v>0.004718730226159</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0006731660105288001</v>
+        <v>4.68959151476156e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>2.04152250289917</v>
+        <v>0.5056621432304382</v>
       </c>
       <c r="E58" t="n">
-        <v>8.715729713439941</v>
+        <v>0.6412649154663086</v>
       </c>
       <c r="F58" t="n">
-        <v>2.041522264480591</v>
+        <v>2.318282127380371</v>
       </c>
       <c r="G58" t="n">
-        <v>8.715729713439941</v>
+        <v>11.13314914703369</v>
       </c>
       <c r="H58" t="n">
         <v>2000</v>
@@ -2254,22 +2254,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.022704416885972</v>
+        <v>0.0041766832582652</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0008721534977667</v>
+        <v>3.92303554690443e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>2.381011247634888</v>
+        <v>0.4569199681282043</v>
       </c>
       <c r="E59" t="n">
-        <v>11.29491996765137</v>
+        <v>0.5700071454048157</v>
       </c>
       <c r="F59" t="n">
-        <v>2.381011247634888</v>
+        <v>2.252077102661133</v>
       </c>
       <c r="G59" t="n">
-        <v>11.29491996765137</v>
+        <v>11.17536735534668</v>
       </c>
       <c r="H59" t="n">
         <v>16000</v>
@@ -2285,22 +2285,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0274662151932716</v>
+        <v>0.0052667064592242</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0011723978677764</v>
+        <v>5.75756530452054e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>2.887262105941772</v>
+        <v>0.5831004977226257</v>
       </c>
       <c r="E60" t="n">
-        <v>16.10396957397461</v>
+        <v>0.8639425039291382</v>
       </c>
       <c r="F60" t="n">
-        <v>2.887262105941772</v>
+        <v>2.742622375488281</v>
       </c>
       <c r="G60" t="n">
-        <v>16.10396957397461</v>
+        <v>16.01474189758301</v>
       </c>
       <c r="H60" t="n">
         <v>44894</v>
@@ -2316,22 +2316,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.022767124697566</v>
+        <v>0.0042710388079285</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0008795672911219</v>
+        <v>4.104870458832011e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>2.313219785690308</v>
+        <v>0.4543154239654541</v>
       </c>
       <c r="E61" t="n">
-        <v>10.32562351226807</v>
+        <v>0.5605669617652893</v>
       </c>
       <c r="F61" t="n">
-        <v>2.313219785690308</v>
+        <v>2.191275835037231</v>
       </c>
       <c r="G61" t="n">
-        <v>10.32562446594238</v>
+        <v>10.34757423400879</v>
       </c>
       <c r="H61" t="n">
         <v>2000</v>
@@ -2347,22 +2347,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0208611898124218</v>
+        <v>0.0049871755763888</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0007917345501482</v>
+        <v>4.949079811922275e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>2.191011190414429</v>
+        <v>0.5453118681907654</v>
       </c>
       <c r="E62" t="n">
-        <v>9.83158016204834</v>
+        <v>0.7272622585296631</v>
       </c>
       <c r="F62" t="n">
-        <v>2.191011190414429</v>
+        <v>2.404571533203125</v>
       </c>
       <c r="G62" t="n">
-        <v>9.831579208374023</v>
+        <v>12.27652931213379</v>
       </c>
       <c r="H62" t="n">
         <v>16000</v>
@@ -2378,22 +2378,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0256235282868146</v>
+        <v>0.0063893762417137</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0010760877048596</v>
+        <v>7.259579433593899e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>2.709247350692749</v>
+        <v>0.7024664282798767</v>
       </c>
       <c r="E63" t="n">
-        <v>14.390944480896</v>
+        <v>1.100448369979858</v>
       </c>
       <c r="F63" t="n">
-        <v>2.709247350692749</v>
+        <v>2.945055961608887</v>
       </c>
       <c r="G63" t="n">
-        <v>14.390944480896</v>
+        <v>17.60708045959473</v>
       </c>
       <c r="H63" t="n">
         <v>44894</v>
@@ -2409,22 +2409,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0211134646087884</v>
+        <v>0.005125128198415</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0008082939311861</v>
+        <v>5.179085565032437e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>2.168187618255615</v>
+        <v>0.5494436621665955</v>
       </c>
       <c r="E64" t="n">
-        <v>9.342706680297852</v>
+        <v>0.7248051166534424</v>
       </c>
       <c r="F64" t="n">
-        <v>2.168187618255615</v>
+        <v>2.339686870574951</v>
       </c>
       <c r="G64" t="n">
-        <v>9.342704772949221</v>
+        <v>11.45381832122803</v>
       </c>
       <c r="H64" t="n">
         <v>2000</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0171579737216234</v>
+        <v>0.0058313654735684</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0005775456083938</v>
+        <v>6.941010360606015e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>1.859990954399109</v>
+        <v>0.578026294708252</v>
       </c>
       <c r="E65" t="n">
-        <v>8.697819709777832</v>
+        <v>0.7357506155967712</v>
       </c>
       <c r="F65" t="n">
-        <v>1.859990954399109</v>
+        <v>2.311024904251098</v>
       </c>
       <c r="G65" t="n">
-        <v>8.697820663452148</v>
+        <v>11.71401691436768</v>
       </c>
       <c r="H65" t="n">
         <v>16000</v>
@@ -2471,22 +2471,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0209665726870298</v>
+        <v>0.0066171963699162</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0008261212497018</v>
+        <v>8.363816596101969e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>2.317353010177612</v>
+        <v>0.6875113844871521</v>
       </c>
       <c r="E66" t="n">
-        <v>13.01496410369873</v>
+        <v>1.03598940372467</v>
       </c>
       <c r="F66" t="n">
-        <v>2.317353010177612</v>
+        <v>2.847871065139771</v>
       </c>
       <c r="G66" t="n">
-        <v>13.01496410369873</v>
+        <v>16.85940551757812</v>
       </c>
       <c r="H66" t="n">
         <v>44894</v>
@@ -2502,22 +2502,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0172947887331247</v>
+        <v>0.0058510587550699</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0005849344888702</v>
+        <v>6.997571472311392e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>1.824129104614258</v>
+        <v>0.5754643678665161</v>
       </c>
       <c r="E67" t="n">
-        <v>8.087497711181641</v>
+        <v>0.7209529280662537</v>
       </c>
       <c r="F67" t="n">
-        <v>1.824129104614258</v>
+        <v>2.251328229904175</v>
       </c>
       <c r="G67" t="n">
-        <v>8.087497711181641</v>
+        <v>10.88393211364746</v>
       </c>
       <c r="H67" t="n">
         <v>2000</v>
@@ -2533,22 +2533,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0208140909671783</v>
+        <v>0.0041114729829132</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0007384219788946</v>
+        <v>4.086757326149382e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>2.325369834899902</v>
+        <v>0.4540599286556244</v>
       </c>
       <c r="E68" t="n">
-        <v>11.1105489730835</v>
+        <v>0.6044841408729553</v>
       </c>
       <c r="F68" t="n">
-        <v>2.325369596481323</v>
+        <v>2.200650215148926</v>
       </c>
       <c r="G68" t="n">
-        <v>11.11054992675781</v>
+        <v>11.17682266235352</v>
       </c>
       <c r="H68" t="n">
         <v>16000</v>
@@ -2564,22 +2564,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0241180937737226</v>
+        <v>0.0049791927449405</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0009532308322377</v>
+        <v>5.65887130505871e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>2.707286357879639</v>
+        <v>0.5659996271133423</v>
       </c>
       <c r="E69" t="n">
-        <v>15.07261276245117</v>
+        <v>0.9063257575035096</v>
       </c>
       <c r="F69" t="n">
-        <v>2.707286357879639</v>
+        <v>2.711412906646729</v>
       </c>
       <c r="G69" t="n">
-        <v>15.07261276245117</v>
+        <v>16.21502876281738</v>
       </c>
       <c r="H69" t="n">
         <v>44894</v>
@@ -2595,22 +2595,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0213001817464828</v>
+        <v>0.0042482996359467</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0007653395878151</v>
+        <v>4.330205774749629e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>2.341929912567139</v>
+        <v>0.4537886679172516</v>
       </c>
       <c r="E70" t="n">
-        <v>10.70666980743408</v>
+        <v>0.5917569994926453</v>
       </c>
       <c r="F70" t="n">
-        <v>2.341930150985718</v>
+        <v>2.137064456939697</v>
       </c>
       <c r="G70" t="n">
-        <v>10.70666980743408</v>
+        <v>10.32008743286133</v>
       </c>
       <c r="H70" t="n">
         <v>2000</v>
@@ -2626,22 +2626,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.022268820554018</v>
+        <v>0.0051234955899417</v>
       </c>
       <c r="C71" t="n">
-        <v>0.000946938060224</v>
+        <v>5.173022509552538e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>2.284158229827881</v>
+        <v>0.561280369758606</v>
       </c>
       <c r="E71" t="n">
-        <v>10.77916622161865</v>
+        <v>0.689702570438385</v>
       </c>
       <c r="F71" t="n">
-        <v>2.284158229827881</v>
+        <v>2.289588451385498</v>
       </c>
       <c r="G71" t="n">
-        <v>10.77916622161865</v>
+        <v>11.41299438476562</v>
       </c>
       <c r="H71" t="n">
         <v>16000</v>
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0251073241233825</v>
+        <v>0.0063401293009519</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0011144891614094</v>
+        <v>7.295292743947357e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>2.67805027961731</v>
+        <v>0.6890342235565186</v>
       </c>
       <c r="E72" t="n">
-        <v>14.86381912231445</v>
+        <v>0.987564742565155</v>
       </c>
       <c r="F72" t="n">
-        <v>2.67805027961731</v>
+        <v>2.833305358886719</v>
       </c>
       <c r="G72" t="n">
-        <v>14.86381816864014</v>
+        <v>16.5052547454834</v>
       </c>
       <c r="H72" t="n">
         <v>44894</v>
@@ -2688,22 +2688,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0224852710962295</v>
+        <v>0.0052101332694292</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0009505733614787</v>
+        <v>5.380313814384863e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>2.239624500274658</v>
+        <v>0.5573963522911072</v>
       </c>
       <c r="E73" t="n">
-        <v>9.913516998291016</v>
+        <v>0.6826717257499695</v>
       </c>
       <c r="F73" t="n">
-        <v>2.239624500274658</v>
+        <v>2.235074758529663</v>
       </c>
       <c r="G73" t="n">
-        <v>9.913516044616699</v>
+        <v>10.63590621948242</v>
       </c>
       <c r="H73" t="n">
         <v>2000</v>
@@ -2719,22 +2719,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0191845521330833</v>
+        <v>0.0049285478889942</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0007098890491761</v>
+        <v>5.245971624390222e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>2.057142496109009</v>
+        <v>0.5323207378387451</v>
       </c>
       <c r="E74" t="n">
-        <v>10.02753353118896</v>
+        <v>0.7254453897476196</v>
       </c>
       <c r="F74" t="n">
-        <v>2.057142496109009</v>
+        <v>2.424062967300415</v>
       </c>
       <c r="G74" t="n">
-        <v>10.02753353118896</v>
+        <v>12.33376216888428</v>
       </c>
       <c r="H74" t="n">
         <v>16000</v>
@@ -2750,22 +2750,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0230014417320489</v>
+        <v>0.0064696525223553</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0009518121951259</v>
+        <v>7.776276470394805e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>2.514447212219238</v>
+        <v>0.7036868929862976</v>
       </c>
       <c r="E75" t="n">
-        <v>14.50919342041016</v>
+        <v>1.11422073841095</v>
       </c>
       <c r="F75" t="n">
-        <v>2.514447212219238</v>
+        <v>2.975824356079102</v>
       </c>
       <c r="G75" t="n">
-        <v>14.50919342041016</v>
+        <v>17.79298400878906</v>
       </c>
       <c r="H75" t="n">
         <v>44894</v>
@@ -2781,22 +2781,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0196029152721166</v>
+        <v>0.0050128391012549</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0007283333688974</v>
+        <v>5.459649037220515e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>2.049237012863159</v>
+        <v>0.5257214307785034</v>
       </c>
       <c r="E76" t="n">
-        <v>9.52375602722168</v>
+        <v>0.7070105075836182</v>
       </c>
       <c r="F76" t="n">
-        <v>2.049237251281738</v>
+        <v>2.346675872802734</v>
       </c>
       <c r="G76" t="n">
-        <v>9.523755073547363</v>
+        <v>11.40981101989746</v>
       </c>
       <c r="H76" t="n">
         <v>2000</v>
@@ -2812,22 +2812,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0208537802100181</v>
+        <v>0.0044550788588821</v>
       </c>
       <c r="C77" t="n">
-        <v>0.000832277641166</v>
+        <v>4.392773553263396e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>2.079455852508545</v>
+        <v>0.4824755191802978</v>
       </c>
       <c r="E77" t="n">
-        <v>9.514355659484863</v>
+        <v>0.6184853315353394</v>
       </c>
       <c r="F77" t="n">
-        <v>2.079455614089966</v>
+        <v>2.320720195770264</v>
       </c>
       <c r="G77" t="n">
-        <v>9.514355659484863</v>
+        <v>11.7008867263794</v>
       </c>
       <c r="H77" t="n">
         <v>16000</v>
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0251134801656007</v>
+        <v>0.0057963184081017</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0010932383593171</v>
+        <v>6.574569124495611e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>2.605049848556519</v>
+        <v>0.6313576102256775</v>
       </c>
       <c r="E78" t="n">
-        <v>13.9396858215332</v>
+        <v>0.9509873390197754</v>
       </c>
       <c r="F78" t="n">
-        <v>2.605049848556519</v>
+        <v>2.865009546279907</v>
       </c>
       <c r="G78" t="n">
-        <v>13.9396858215332</v>
+        <v>16.98741722106934</v>
       </c>
       <c r="H78" t="n">
         <v>44894</v>
@@ -2874,22 +2874,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0212068203836679</v>
+        <v>0.004607324488461</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0008532549254596</v>
+        <v>4.644691944122314e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>2.052173852920532</v>
+        <v>0.4855970740318298</v>
       </c>
       <c r="E79" t="n">
-        <v>8.982878684997559</v>
+        <v>0.6082136631011963</v>
       </c>
       <c r="F79" t="n">
-        <v>2.052173852920532</v>
+        <v>2.25607967376709</v>
       </c>
       <c r="G79" t="n">
-        <v>8.982880592346191</v>
+        <v>10.85619640350342</v>
       </c>
       <c r="H79" t="n">
         <v>2000</v>
@@ -2905,22 +2905,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0209367517381906</v>
+        <v>0.0060406560078263</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0008600231958553</v>
+        <v>7.044906669761986e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>2.142112493515014</v>
+        <v>0.6608932018280029</v>
       </c>
       <c r="E80" t="n">
-        <v>9.807381629943848</v>
+        <v>0.9634631276130676</v>
       </c>
       <c r="F80" t="n">
-        <v>2.142112493515014</v>
+        <v>2.593159437179565</v>
       </c>
       <c r="G80" t="n">
-        <v>9.807381629943848</v>
+        <v>13.54578399658203</v>
       </c>
       <c r="H80" t="n">
         <v>16000</v>
@@ -2936,22 +2936,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.0244018379598855</v>
+        <v>0.0074269673787057</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0009976848959921999</v>
+        <v>9.938058065017684e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>2.584353446960449</v>
+        <v>0.8066795468330383</v>
       </c>
       <c r="E81" t="n">
-        <v>13.53396892547607</v>
+        <v>1.377618551254272</v>
       </c>
       <c r="F81" t="n">
-        <v>2.584353446960449</v>
+        <v>3.109127521514893</v>
       </c>
       <c r="G81" t="n">
-        <v>13.53396892547607</v>
+        <v>19.03205299377441</v>
       </c>
       <c r="H81" t="n">
         <v>44894</v>
@@ -2967,22 +2967,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0208641849458217</v>
+        <v>0.0061476719565689</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0008591704536229</v>
+        <v>7.278245902853087e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>2.076632022857666</v>
+        <v>0.6624962687492371</v>
       </c>
       <c r="E82" t="n">
-        <v>8.968350410461426</v>
+        <v>0.9533372521400452</v>
       </c>
       <c r="F82" t="n">
-        <v>2.076632261276245</v>
+        <v>2.525112628936768</v>
       </c>
       <c r="G82" t="n">
-        <v>8.968350410461426</v>
+        <v>12.63903331756592</v>
       </c>
       <c r="H82" t="n">
         <v>2000</v>
@@ -2998,22 +2998,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0236645061522722</v>
+        <v>0.0041781226173043</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0011157393455505</v>
+        <v>3.973929051426239e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>2.433357000350952</v>
+        <v>0.4703629314899444</v>
       </c>
       <c r="E83" t="n">
-        <v>11.6420373916626</v>
+        <v>0.6326634287834167</v>
       </c>
       <c r="F83" t="n">
-        <v>2.433357000350952</v>
+        <v>2.348127365112305</v>
       </c>
       <c r="G83" t="n">
-        <v>11.6420373916626</v>
+        <v>11.8831090927124</v>
       </c>
       <c r="H83" t="n">
         <v>16000</v>
@@ -3029,22 +3029,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0257612876594066</v>
+        <v>0.0052305958233773</v>
       </c>
       <c r="C84" t="n">
-        <v>0.001168493181467</v>
+        <v>5.734669321100228e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>2.704410552978516</v>
+        <v>0.5966424345970154</v>
       </c>
       <c r="E84" t="n">
-        <v>14.57663345336914</v>
+        <v>0.95035719871521</v>
       </c>
       <c r="F84" t="n">
-        <v>2.704410552978516</v>
+        <v>2.836935758590698</v>
       </c>
       <c r="G84" t="n">
-        <v>14.57663345336914</v>
+        <v>16.92991638183594</v>
       </c>
       <c r="H84" t="n">
         <v>44894</v>
@@ -3060,22 +3060,22 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0242042541503906</v>
+        <v>0.0043175229802727</v>
       </c>
       <c r="C85" t="n">
-        <v>0.001159569947049</v>
+        <v>4.245509990141727e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>2.434651613235474</v>
+        <v>0.4725202620029449</v>
       </c>
       <c r="E85" t="n">
-        <v>11.3038740158081</v>
+        <v>0.6255978941917419</v>
       </c>
       <c r="F85" t="n">
-        <v>2.434651613235474</v>
+        <v>2.28337550163269</v>
       </c>
       <c r="G85" t="n">
-        <v>11.30387592315674</v>
+        <v>11.00533103942871</v>
       </c>
       <c r="H85" t="n">
         <v>2000</v>
@@ -3091,22 +3091,22 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0224556196480989</v>
+        <v>0.007739673834294</v>
       </c>
       <c r="C86" t="n">
-        <v>0.000935478892643</v>
+        <v>9.58330711000599e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>2.267258405685425</v>
+        <v>0.8083625435829163</v>
       </c>
       <c r="E86" t="n">
-        <v>10.95696067810059</v>
+        <v>1.155614972114563</v>
       </c>
       <c r="F86" t="n">
-        <v>2.267258405685425</v>
+        <v>2.758504629135132</v>
       </c>
       <c r="G86" t="n">
-        <v>10.95696067810059</v>
+        <v>14.2629804611206</v>
       </c>
       <c r="H86" t="n">
         <v>16000</v>
@@ -3122,22 +3122,22 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0250002164393663</v>
+        <v>0.008980610407888801</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0011262412881478</v>
+        <v>0.0001263371523236</v>
       </c>
       <c r="D87" t="n">
-        <v>2.615543842315674</v>
+        <v>0.9392805099487304</v>
       </c>
       <c r="E87" t="n">
-        <v>15.3091230392456</v>
+        <v>1.584873199462891</v>
       </c>
       <c r="F87" t="n">
-        <v>2.615543842315674</v>
+        <v>3.257122278213501</v>
       </c>
       <c r="G87" t="n">
-        <v>15.3091230392456</v>
+        <v>19.82369995117188</v>
       </c>
       <c r="H87" t="n">
         <v>44894</v>
@@ -3153,22 +3153,22 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.022310709580779</v>
+        <v>0.007868890650570301</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0009217152837663</v>
+        <v>9.885245526675136e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>2.195033311843872</v>
+        <v>0.806814968585968</v>
       </c>
       <c r="E88" t="n">
-        <v>9.91981315612793</v>
+        <v>1.12323272228241</v>
       </c>
       <c r="F88" t="n">
-        <v>2.195033311843872</v>
+        <v>2.686450242996216</v>
       </c>
       <c r="G88" t="n">
-        <v>9.91981315612793</v>
+        <v>13.25427436828613</v>
       </c>
       <c r="H88" t="n">
         <v>2000</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0215908363461494</v>
+        <v>0.0050366325303912</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0009608544642105</v>
+        <v>5.838829019921832e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>2.127964496612549</v>
+        <v>0.5436732172966003</v>
       </c>
       <c r="E89" t="n">
-        <v>10.63678073883057</v>
+        <v>0.7516382932662964</v>
       </c>
       <c r="F89" t="n">
-        <v>2.127964496612549</v>
+        <v>2.28262734413147</v>
       </c>
       <c r="G89" t="n">
-        <v>10.63678073883057</v>
+        <v>11.68799209594727</v>
       </c>
       <c r="H89" t="n">
         <v>16000</v>
@@ -3215,22 +3215,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0237953886389732</v>
+        <v>0.0058253835886716</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0010741520673036</v>
+        <v>7.14460329618305e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>2.467414617538452</v>
+        <v>0.6515408158302307</v>
       </c>
       <c r="E90" t="n">
-        <v>14.64956092834473</v>
+        <v>1.064151406288147</v>
       </c>
       <c r="F90" t="n">
-        <v>2.467414617538452</v>
+        <v>2.77050518989563</v>
       </c>
       <c r="G90" t="n">
-        <v>14.64956092834473</v>
+        <v>16.70891189575195</v>
       </c>
       <c r="H90" t="n">
         <v>44894</v>
@@ -3246,22 +3246,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0220253206789493</v>
+        <v>0.005055755842477</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0009895476978272</v>
+        <v>5.988117845845409e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>2.104515314102173</v>
+        <v>0.5340373516082764</v>
       </c>
       <c r="E91" t="n">
-        <v>10.03066062927246</v>
+        <v>0.727486252784729</v>
       </c>
       <c r="F91" t="n">
-        <v>2.104515314102173</v>
+        <v>2.217990636825561</v>
       </c>
       <c r="G91" t="n">
-        <v>10.03065872192383</v>
+        <v>10.80960369110107</v>
       </c>
       <c r="H91" t="n">
         <v>2000</v>
@@ -3277,22 +3277,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.024633077904582</v>
+        <v>0.0057123145088553</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0010385654168203</v>
+        <v>6.180267519084737e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>2.452274084091187</v>
+        <v>0.5949139595031738</v>
       </c>
       <c r="E92" t="n">
-        <v>10.63815879821777</v>
+        <v>0.7800000905990601</v>
       </c>
       <c r="F92" t="n">
-        <v>2.452274084091187</v>
+        <v>2.511441469192505</v>
       </c>
       <c r="G92" t="n">
-        <v>10.63815879821777</v>
+        <v>12.67809009552002</v>
       </c>
       <c r="H92" t="n">
         <v>16000</v>
@@ -3308,22 +3308,22 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0288996770977973</v>
+        <v>0.0069912755861878</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0013860060134902</v>
+        <v>8.649473602417856e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>2.885761260986328</v>
+        <v>0.7375751733779907</v>
       </c>
       <c r="E93" t="n">
-        <v>14.88007736206055</v>
+        <v>1.146273255348206</v>
       </c>
       <c r="F93" t="n">
-        <v>2.885761260986328</v>
+        <v>3.013798475265503</v>
       </c>
       <c r="G93" t="n">
-        <v>14.88007545471191</v>
+        <v>17.96980476379395</v>
       </c>
       <c r="H93" t="n">
         <v>44894</v>
@@ -3339,22 +3339,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0248402040451765</v>
+        <v>0.0057480679824948</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0010621133260428</v>
+        <v>6.26465625828132e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>2.422495603561401</v>
+        <v>0.589877188205719</v>
       </c>
       <c r="E94" t="n">
-        <v>10.1902551651001</v>
+        <v>0.7605859637260437</v>
       </c>
       <c r="F94" t="n">
-        <v>2.422495603561401</v>
+        <v>2.437387228012085</v>
       </c>
       <c r="G94" t="n">
-        <v>10.1902551651001</v>
+        <v>11.75696754455566</v>
       </c>
       <c r="H94" t="n">
         <v>2000</v>
@@ -3370,22 +3370,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0215901341289281</v>
+        <v>0.004988107830286</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0008606809424236</v>
+        <v>5.39613829459995e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>2.30234956741333</v>
+        <v>0.5069761276245117</v>
       </c>
       <c r="E95" t="n">
-        <v>11.01119327545166</v>
+        <v>0.6046683788299561</v>
       </c>
       <c r="F95" t="n">
-        <v>2.30234956741333</v>
+        <v>2.243786573410034</v>
       </c>
       <c r="G95" t="n">
-        <v>11.01119327545166</v>
+        <v>11.0376148223877</v>
       </c>
       <c r="H95" t="n">
         <v>16000</v>
@@ -3401,22 +3401,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.025398863479495</v>
+        <v>0.0058525032363832</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0011116421082988</v>
+        <v>7.18844894436188e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>2.737302303314209</v>
+        <v>0.6165589094161987</v>
       </c>
       <c r="E96" t="n">
-        <v>15.33540439605713</v>
+        <v>0.8874626755714417</v>
       </c>
       <c r="F96" t="n">
-        <v>2.737302303314209</v>
+        <v>2.753277063369751</v>
       </c>
       <c r="G96" t="n">
-        <v>15.33540439605713</v>
+        <v>15.92226028442383</v>
       </c>
       <c r="H96" t="n">
         <v>44894</v>
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0212495271116495</v>
+        <v>0.0050418931059539</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0008386045810766</v>
+        <v>5.561988655244932e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>2.227780342102051</v>
+        <v>0.5026326179504395</v>
       </c>
       <c r="E97" t="n">
-        <v>10.17603969573975</v>
+        <v>0.5960954427719116</v>
       </c>
       <c r="F97" t="n">
-        <v>2.227780342102051</v>
+        <v>2.186113119125366</v>
       </c>
       <c r="G97" t="n">
-        <v>10.17604064941406</v>
+        <v>10.2541036605835</v>
       </c>
       <c r="H97" t="n">
         <v>2000</v>
@@ -3463,22 +3463,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0214881394058465</v>
+        <v>0.0045365002006292</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0010864939540624</v>
+        <v>4.692843504017219e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>2.068401336669922</v>
+        <v>0.4870161712169647</v>
       </c>
       <c r="E98" t="n">
-        <v>10.07746505737305</v>
+        <v>0.631865918636322</v>
       </c>
       <c r="F98" t="n">
-        <v>2.068401336669922</v>
+        <v>2.244365453720093</v>
       </c>
       <c r="G98" t="n">
-        <v>10.07746505737305</v>
+        <v>11.24301719665527</v>
       </c>
       <c r="H98" t="n">
         <v>16000</v>
@@ -3494,22 +3494,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0245998632162809</v>
+        <v>0.0055642975494265</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0011534241493791</v>
+        <v>6.462089368142188e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>2.534855365753174</v>
+        <v>0.6146602630615234</v>
       </c>
       <c r="E99" t="n">
-        <v>13.58112144470215</v>
+        <v>0.9433739185333252</v>
       </c>
       <c r="F99" t="n">
-        <v>2.534855365753174</v>
+        <v>2.753057479858398</v>
       </c>
       <c r="G99" t="n">
-        <v>13.58112144470215</v>
+        <v>16.24761962890625</v>
       </c>
       <c r="H99" t="n">
         <v>44894</v>
@@ -3525,22 +3525,22 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0217968486249446</v>
+        <v>0.0046760351397097</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0011019561206921</v>
+        <v>4.901603097096086e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>2.026792287826538</v>
+        <v>0.4892277717590332</v>
       </c>
       <c r="E100" t="n">
-        <v>9.334088325500488</v>
+        <v>0.6099979877471924</v>
       </c>
       <c r="F100" t="n">
-        <v>2.026792287826538</v>
+        <v>2.1828453540802</v>
       </c>
       <c r="G100" t="n">
-        <v>9.334088325500488</v>
+        <v>10.37249183654785</v>
       </c>
       <c r="H100" t="n">
         <v>2000</v>
@@ -3556,22 +3556,22 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.020495668053627</v>
+        <v>0.0043053063564002</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0008104710723273</v>
+        <v>4.381385588203557e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>2.112185478210449</v>
+        <v>0.4664990901947021</v>
       </c>
       <c r="E101" t="n">
-        <v>10.17303848266602</v>
+        <v>0.6135435700416565</v>
       </c>
       <c r="F101" t="n">
-        <v>2.112185716629028</v>
+        <v>2.129632949829102</v>
       </c>
       <c r="G101" t="n">
-        <v>10.17303943634033</v>
+        <v>10.58784484863281</v>
       </c>
       <c r="H101" t="n">
         <v>16000</v>
@@ -3587,22 +3587,22 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0239114686846733</v>
+        <v>0.0051919869147241</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0010445337975397</v>
+        <v>5.963816511211917e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>2.509502649307251</v>
+        <v>0.5830312967300415</v>
       </c>
       <c r="E102" t="n">
-        <v>14.42877388000488</v>
+        <v>0.9121661782264709</v>
       </c>
       <c r="F102" t="n">
-        <v>2.509502649307251</v>
+        <v>2.619409084320068</v>
       </c>
       <c r="G102" t="n">
-        <v>14.42877388000488</v>
+        <v>15.37698841094971</v>
       </c>
       <c r="H102" t="n">
         <v>44894</v>
@@ -3618,22 +3618,22 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.0203557852655649</v>
+        <v>0.0043671042658388</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0008100863196887</v>
+        <v>4.588729279930703e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>2.049709558486938</v>
+        <v>0.4595089554786682</v>
       </c>
       <c r="E103" t="n">
-        <v>9.443637847900391</v>
+        <v>0.6015313863754272</v>
       </c>
       <c r="F103" t="n">
-        <v>2.049709558486938</v>
+        <v>2.072792530059814</v>
       </c>
       <c r="G103" t="n">
-        <v>9.443636894226074</v>
+        <v>9.770524024963381</v>
       </c>
       <c r="H103" t="n">
         <v>2000</v>
@@ -3649,22 +3649,22 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.0201483462005853</v>
+        <v>0.0047942427918314</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0008396442863158</v>
+        <v>4.964224353898317e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>2.096902132034302</v>
+        <v>0.4965913593769073</v>
       </c>
       <c r="E104" t="n">
-        <v>9.905301094055176</v>
+        <v>0.6067221760749817</v>
       </c>
       <c r="F104" t="n">
-        <v>2.096902132034302</v>
+        <v>2.240809679031372</v>
       </c>
       <c r="G104" t="n">
-        <v>9.905301094055176</v>
+        <v>11.0741548538208</v>
       </c>
       <c r="H104" t="n">
         <v>16000</v>
@@ -3680,22 +3680,22 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0237298980355262</v>
+        <v>0.005730178207159</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0010489410487934</v>
+        <v>6.722577381879091e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>2.516133308410645</v>
+        <v>0.6126226186752319</v>
       </c>
       <c r="E105" t="n">
-        <v>13.92194271087646</v>
+        <v>0.8994289636611938</v>
       </c>
       <c r="F105" t="n">
-        <v>2.516133308410645</v>
+        <v>2.736695289611816</v>
       </c>
       <c r="G105" t="n">
-        <v>13.92194080352783</v>
+        <v>15.94628429412842</v>
       </c>
       <c r="H105" t="n">
         <v>44894</v>
@@ -3711,22 +3711,22 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.0202728789299726</v>
+        <v>0.0049542989581823</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0008512364584021</v>
+        <v>5.27186602994334e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>2.068755626678467</v>
+        <v>0.4995737373828888</v>
       </c>
       <c r="E106" t="n">
-        <v>9.496559143066406</v>
+        <v>0.6072508692741394</v>
       </c>
       <c r="F106" t="n">
-        <v>2.068755626678467</v>
+        <v>2.180691480636597</v>
       </c>
       <c r="G106" t="n">
-        <v>9.496560096740724</v>
+        <v>10.26729106903076</v>
       </c>
       <c r="H106" t="n">
         <v>2000</v>
@@ -3742,22 +3742,22 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0196612365543842</v>
+        <v>0.0065646762959659</v>
       </c>
       <c r="C107" t="n">
-        <v>0.000691641063895</v>
+        <v>8.271616388810799e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>2.106833457946777</v>
+        <v>0.7029722929000854</v>
       </c>
       <c r="E107" t="n">
-        <v>9.627007484436035</v>
+        <v>1.057875037193298</v>
       </c>
       <c r="F107" t="n">
-        <v>2.106833457946777</v>
+        <v>2.644295215606689</v>
       </c>
       <c r="G107" t="n">
-        <v>9.627008438110352</v>
+        <v>13.90920925140381</v>
       </c>
       <c r="H107" t="n">
         <v>16000</v>
@@ -3773,22 +3773,22 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0237921793013811</v>
+        <v>0.0083118584007024</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0009505073539912</v>
+        <v>0.0001199457765324</v>
       </c>
       <c r="D108" t="n">
-        <v>2.554853439331055</v>
+        <v>0.8806244730949402</v>
       </c>
       <c r="E108" t="n">
-        <v>13.8550500869751</v>
+        <v>1.55416214466095</v>
       </c>
       <c r="F108" t="n">
-        <v>2.554853677749634</v>
+        <v>3.199865579605103</v>
       </c>
       <c r="G108" t="n">
-        <v>13.85505199432373</v>
+        <v>19.74224472045898</v>
       </c>
       <c r="H108" t="n">
         <v>44894</v>
@@ -3804,22 +3804,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.0199592746794223</v>
+        <v>0.0066039036028087</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0007011757115833</v>
+        <v>8.43309608171694e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>2.084975004196167</v>
+        <v>0.6952641606330872</v>
       </c>
       <c r="E109" t="n">
-        <v>9.079599380493164</v>
+        <v>1.031029343605042</v>
       </c>
       <c r="F109" t="n">
-        <v>2.084975242614746</v>
+        <v>2.567333698272705</v>
       </c>
       <c r="G109" t="n">
-        <v>9.079599380493164</v>
+        <v>12.95166873931885</v>
       </c>
       <c r="H109" t="n">
         <v>2000</v>
@@ -3835,22 +3835,22 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.0220671314746141</v>
+        <v>0.0075576887466013</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0009704405092634</v>
+        <v>0.0001187539455713</v>
       </c>
       <c r="D110" t="n">
-        <v>2.308459520339966</v>
+        <v>0.7367059588432312</v>
       </c>
       <c r="E110" t="n">
-        <v>11.50994682312012</v>
+        <v>1.04566216468811</v>
       </c>
       <c r="F110" t="n">
-        <v>2.308459758758545</v>
+        <v>1.92997682094574</v>
       </c>
       <c r="G110" t="n">
-        <v>11.50994682312012</v>
+        <v>9.570435523986816</v>
       </c>
       <c r="H110" t="n">
         <v>16000</v>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0252225454896688</v>
+        <v>0.0076758111827075</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0011456806678324</v>
+        <v>0.0001145267087849</v>
       </c>
       <c r="D111" t="n">
-        <v>2.692268133163452</v>
+        <v>0.8046939373016357</v>
       </c>
       <c r="E111" t="n">
-        <v>15.59164237976074</v>
+        <v>1.293563604354858</v>
       </c>
       <c r="F111" t="n">
-        <v>2.692268133163452</v>
+        <v>2.404990673065185</v>
       </c>
       <c r="G111" t="n">
-        <v>15.59164237976074</v>
+        <v>14.14640426635742</v>
       </c>
       <c r="H111" t="n">
         <v>44894</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.022408852353692</v>
+        <v>0.0074554737657308</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0009914768161252</v>
+        <v>0.0001165268258773</v>
       </c>
       <c r="D112" t="n">
-        <v>2.282880306243896</v>
+        <v>0.7250146269798279</v>
       </c>
       <c r="E112" t="n">
-        <v>10.83199214935303</v>
+        <v>1.03498387336731</v>
       </c>
       <c r="F112" t="n">
-        <v>2.282880067825317</v>
+        <v>1.897209763526917</v>
       </c>
       <c r="G112" t="n">
-        <v>10.83199214935303</v>
+        <v>8.828060150146484</v>
       </c>
       <c r="H112" t="n">
         <v>2000</v>
@@ -3928,22 +3928,22 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.021606296300888</v>
+        <v>0.0056269913911819</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0008251314284279</v>
+        <v>6.158827454783022e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>2.35411548614502</v>
+        <v>0.5923864841461182</v>
       </c>
       <c r="E113" t="n">
-        <v>11.84948253631592</v>
+        <v>0.7349107265472412</v>
       </c>
       <c r="F113" t="n">
-        <v>2.35411548614502</v>
+        <v>2.452213287353516</v>
       </c>
       <c r="G113" t="n">
-        <v>11.84948253631592</v>
+        <v>12.1865062713623</v>
       </c>
       <c r="H113" t="n">
         <v>16000</v>
@@ -3959,22 +3959,22 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0253198780119419</v>
+        <v>0.0067025469616055</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0010832584230229</v>
+        <v>8.478653035126626e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>2.801223754882812</v>
+        <v>0.7043126821517944</v>
       </c>
       <c r="E114" t="n">
-        <v>16.87636375427246</v>
+        <v>1.038889646530151</v>
       </c>
       <c r="F114" t="n">
-        <v>2.801223754882812</v>
+        <v>2.908148288726806</v>
       </c>
       <c r="G114" t="n">
-        <v>16.87636375427246</v>
+        <v>17.03563117980957</v>
       </c>
       <c r="H114" t="n">
         <v>44894</v>
@@ -3990,22 +3990,22 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.0217226855456829</v>
+        <v>0.0056794066913425</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0008296110318042</v>
+        <v>6.324623245745897e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>2.305623054504395</v>
+        <v>0.5892195105552673</v>
       </c>
       <c r="E115" t="n">
-        <v>10.83712291717529</v>
+        <v>0.7271040081977844</v>
       </c>
       <c r="F115" t="n">
-        <v>2.305623054504395</v>
+        <v>2.382700204849243</v>
       </c>
       <c r="G115" t="n">
-        <v>10.83712291717529</v>
+        <v>11.35503101348877</v>
       </c>
       <c r="H115" t="n">
         <v>2000</v>
@@ -4021,22 +4021,22 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.022031208500266</v>
+        <v>0.0057335766032338</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0008822818635962</v>
+        <v>6.724255217704922e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>2.319449901580811</v>
+        <v>0.5997979044914246</v>
       </c>
       <c r="E116" t="n">
-        <v>11.70040893554688</v>
+        <v>0.8475034832954407</v>
       </c>
       <c r="F116" t="n">
-        <v>2.319449901580811</v>
+        <v>2.366286516189575</v>
       </c>
       <c r="G116" t="n">
-        <v>11.70040893554688</v>
+        <v>12.3494873046875</v>
       </c>
       <c r="H116" t="n">
         <v>16000</v>
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.0263532977551221</v>
+        <v>0.0068874056451022</v>
       </c>
       <c r="C117" t="n">
-        <v>0.001215478638187</v>
+        <v>9.051527740666644e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>2.776998281478882</v>
+        <v>0.7442522644996643</v>
       </c>
       <c r="E117" t="n">
-        <v>16.83111381530762</v>
+        <v>1.253308176994324</v>
       </c>
       <c r="F117" t="n">
-        <v>2.776998281478882</v>
+        <v>2.921793937683105</v>
       </c>
       <c r="G117" t="n">
-        <v>16.83111381530762</v>
+        <v>17.8893985748291</v>
       </c>
       <c r="H117" t="n">
         <v>44894</v>
@@ -4083,22 +4083,22 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.0220128465443849</v>
+        <v>0.0059813624247908</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0008788993582129</v>
+        <v>7.203661516541615e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>2.260610818862915</v>
+        <v>0.6140092611312866</v>
       </c>
       <c r="E118" t="n">
-        <v>10.76191711425781</v>
+        <v>0.8609813451766968</v>
       </c>
       <c r="F118" t="n">
-        <v>2.260610818862915</v>
+        <v>2.308728694915771</v>
       </c>
       <c r="G118" t="n">
-        <v>10.76191711425781</v>
+        <v>11.52591419219971</v>
       </c>
       <c r="H118" t="n">
         <v>2000</v>
@@ -4114,22 +4114,22 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.0196605864912271</v>
+        <v>0.0058354586362838</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0007245837477967</v>
+        <v>6.621531792916358e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>2.096561193466187</v>
+        <v>0.6201679706573486</v>
       </c>
       <c r="E119" t="n">
-        <v>9.109574317932127</v>
+        <v>0.8656885027885437</v>
       </c>
       <c r="F119" t="n">
-        <v>2.096561431884766</v>
+        <v>2.419612407684326</v>
       </c>
       <c r="G119" t="n">
-        <v>9.109574317932127</v>
+        <v>12.47582244873047</v>
       </c>
       <c r="H119" t="n">
         <v>16000</v>
@@ -4145,22 +4145,22 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.0233942940831184</v>
+        <v>0.0070435223169624</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0009528149967081</v>
+        <v>8.880821405909956e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>2.506785869598389</v>
+        <v>0.7542610764503479</v>
       </c>
       <c r="E120" t="n">
-        <v>12.75926113128662</v>
+        <v>1.236501216888428</v>
       </c>
       <c r="F120" t="n">
-        <v>2.50678563117981</v>
+        <v>2.930644512176514</v>
       </c>
       <c r="G120" t="n">
-        <v>12.75926113128662</v>
+        <v>17.7076416015625</v>
       </c>
       <c r="H120" t="n">
         <v>44894</v>
@@ -4176,22 +4176,22 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.0199085734784603</v>
+        <v>0.0060045584104955</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0007335301488637</v>
+        <v>6.97448558639735e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>2.082273006439209</v>
+        <v>0.6263673901557922</v>
       </c>
       <c r="E121" t="n">
-        <v>8.681055068969727</v>
+        <v>0.8662545084953308</v>
       </c>
       <c r="F121" t="n">
-        <v>2.082273006439209</v>
+        <v>2.359711647033691</v>
       </c>
       <c r="G121" t="n">
-        <v>8.681055068969727</v>
+        <v>11.66317939758301</v>
       </c>
       <c r="H121" t="n">
         <v>2000</v>
@@ -4207,22 +4207,22 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.0214609261602163</v>
+        <v>0.0060807093977928</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0007854930590838</v>
+        <v>6.782291166018695e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>2.204802274703979</v>
+        <v>0.6837242245674133</v>
       </c>
       <c r="E122" t="n">
-        <v>8.947699546813965</v>
+        <v>0.9678365588188172</v>
       </c>
       <c r="F122" t="n">
-        <v>2.204802274703979</v>
+        <v>2.603927135467529</v>
       </c>
       <c r="G122" t="n">
-        <v>8.947699546813965</v>
+        <v>13.52601718902588</v>
       </c>
       <c r="H122" t="n">
         <v>16000</v>
@@ -4238,22 +4238,22 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.0260448027402162</v>
+        <v>0.0073783081024885</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0010759544093161</v>
+        <v>9.56977455643937e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>2.693262815475464</v>
+        <v>0.8167831897735596</v>
       </c>
       <c r="E123" t="n">
-        <v>12.80533313751221</v>
+        <v>1.347494602203369</v>
       </c>
       <c r="F123" t="n">
-        <v>2.693262815475464</v>
+        <v>3.108944177627563</v>
       </c>
       <c r="G123" t="n">
-        <v>12.80533313751221</v>
+        <v>18.90174674987793</v>
       </c>
       <c r="H123" t="n">
         <v>44894</v>
@@ -4269,22 +4269,22 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.0216748900711536</v>
+        <v>0.0062046777456998</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0008046231232583</v>
+        <v>7.100022048689425e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>2.190839529037476</v>
+        <v>0.6854391098022461</v>
       </c>
       <c r="E124" t="n">
-        <v>8.542166709899902</v>
+        <v>0.9628407955169678</v>
       </c>
       <c r="F124" t="n">
-        <v>2.190839529037476</v>
+        <v>2.53037977218628</v>
       </c>
       <c r="G124" t="n">
-        <v>8.542165756225586</v>
+        <v>12.63609504699707</v>
       </c>
       <c r="H124" t="n">
         <v>2000</v>
@@ -4300,22 +4300,22 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.0224923864006996</v>
+        <v>0.0057085258886218</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0008651654352433</v>
+        <v>6.997449236223474e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>2.364001274108887</v>
+        <v>0.5821123123168945</v>
       </c>
       <c r="E125" t="n">
-        <v>11.92291831970215</v>
+        <v>0.7345313429832458</v>
       </c>
       <c r="F125" t="n">
-        <v>2.364001274108887</v>
+        <v>2.054481983184814</v>
       </c>
       <c r="G125" t="n">
-        <v>11.92291831970215</v>
+        <v>9.944494247436523</v>
       </c>
       <c r="H125" t="n">
         <v>16000</v>
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.0256650727242231</v>
+        <v>0.0064165000803768</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0011055098148062</v>
+        <v>8.335015445481986e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>2.757287979125977</v>
+        <v>0.6882926821708679</v>
       </c>
       <c r="E126" t="n">
-        <v>16.81831932067871</v>
+        <v>1.018038868904114</v>
       </c>
       <c r="F126" t="n">
-        <v>2.757287979125977</v>
+        <v>2.55098819732666</v>
       </c>
       <c r="G126" t="n">
-        <v>16.81831741333008</v>
+        <v>14.59091663360596</v>
       </c>
       <c r="H126" t="n">
         <v>44894</v>
@@ -4362,22 +4362,22 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.0224074758589267</v>
+        <v>0.0057793208397924</v>
       </c>
       <c r="C127" t="n">
-        <v>0.000861017848365</v>
+        <v>7.297409320017323e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>2.295427322387696</v>
+        <v>0.5819301605224609</v>
       </c>
       <c r="E127" t="n">
-        <v>10.90069198608398</v>
+        <v>0.7642663717269897</v>
       </c>
       <c r="F127" t="n">
-        <v>2.295427322387696</v>
+        <v>2.018497705459595</v>
       </c>
       <c r="G127" t="n">
-        <v>10.9006929397583</v>
+        <v>9.373208999633787</v>
       </c>
       <c r="H127" t="n">
         <v>2000</v>
@@ -4393,22 +4393,22 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.0213838052004575</v>
+        <v>0.0048011606559157</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0010141868842765</v>
+        <v>4.861927664023824e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>2.113394021987915</v>
+        <v>0.5226621031761169</v>
       </c>
       <c r="E128" t="n">
-        <v>10.66163635253906</v>
+        <v>0.6648512482643127</v>
       </c>
       <c r="F128" t="n">
-        <v>2.113394021987915</v>
+        <v>2.149667024612427</v>
       </c>
       <c r="G128" t="n">
-        <v>10.66163635253906</v>
+        <v>10.75617790222168</v>
       </c>
       <c r="H128" t="n">
         <v>16000</v>
@@ -4424,22 +4424,22 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.0258256960660219</v>
+        <v>0.0056624105200171</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0012659117346629</v>
+        <v>6.493018008768559e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>2.650116205215454</v>
+        <v>0.6229826211929321</v>
       </c>
       <c r="E129" t="n">
-        <v>15.39541435241699</v>
+        <v>0.9554938673973083</v>
       </c>
       <c r="F129" t="n">
-        <v>2.650116205215454</v>
+        <v>2.602458238601685</v>
       </c>
       <c r="G129" t="n">
-        <v>15.39541339874268</v>
+        <v>15.40098857879639</v>
       </c>
       <c r="H129" t="n">
         <v>44894</v>
@@ -4455,22 +4455,22 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.0217689108103513</v>
+        <v>0.0049294042401015</v>
       </c>
       <c r="C130" t="n">
-        <v>0.001049083773978</v>
+        <v>5.237094956100918e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>2.079771041870117</v>
+        <v>0.5274387001991272</v>
       </c>
       <c r="E130" t="n">
-        <v>10.04851245880127</v>
+        <v>0.6840605735778809</v>
       </c>
       <c r="F130" t="n">
-        <v>2.079770565032959</v>
+        <v>2.109147548675537</v>
       </c>
       <c r="G130" t="n">
-        <v>10.04851055145264</v>
+        <v>10.09296035766602</v>
       </c>
       <c r="H130" t="n">
         <v>2000</v>
@@ -4486,22 +4486,22 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.0256220884621143</v>
+        <v>0.0046936096623539</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0010611596517264</v>
+        <v>4.767215432366356e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>2.54547643661499</v>
+        <v>0.5075809955596924</v>
       </c>
       <c r="E131" t="n">
-        <v>11.03521060943604</v>
+        <v>0.6331173181533813</v>
       </c>
       <c r="F131" t="n">
-        <v>2.54547643661499</v>
+        <v>2.349653244018555</v>
       </c>
       <c r="G131" t="n">
-        <v>11.03521251678467</v>
+        <v>11.6723747253418</v>
       </c>
       <c r="H131" t="n">
         <v>16000</v>
@@ -4517,22 +4517,22 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.0303062833845615</v>
+        <v>0.0059564081020653</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0014094506623223</v>
+        <v>6.974232383072376e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>3.051384210586548</v>
+        <v>0.642672598361969</v>
       </c>
       <c r="E132" t="n">
-        <v>15.51271057128906</v>
+        <v>0.9459275603294371</v>
       </c>
       <c r="F132" t="n">
-        <v>3.051384210586548</v>
+        <v>2.853484630584717</v>
       </c>
       <c r="G132" t="n">
-        <v>15.51271057128906</v>
+        <v>16.66747665405273</v>
       </c>
       <c r="H132" t="n">
         <v>44894</v>
@@ -4548,22 +4548,22 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.0255750436335802</v>
+        <v>0.0047927480190992</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0010555748594924</v>
+        <v>4.971444650436752e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>2.487562894821167</v>
+        <v>0.5109322667121887</v>
       </c>
       <c r="E133" t="n">
-        <v>10.15468215942383</v>
+        <v>0.6312153339385986</v>
       </c>
       <c r="F133" t="n">
-        <v>2.487562894821167</v>
+        <v>2.284764289855957</v>
       </c>
       <c r="G133" t="n">
-        <v>10.15468215942383</v>
+        <v>10.84172248840332</v>
       </c>
       <c r="H133" t="n">
         <v>2000</v>
@@ -4579,22 +4579,22 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.0240155607461929</v>
+        <v>0.006896577309817</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0009392218780703</v>
+        <v>9.498598956270143e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>2.481739521026612</v>
+        <v>0.6746977567672729</v>
       </c>
       <c r="E134" t="n">
-        <v>11.24647235870361</v>
+        <v>0.8426331281661987</v>
       </c>
       <c r="F134" t="n">
-        <v>2.481739521026612</v>
+        <v>2.023806810379028</v>
       </c>
       <c r="G134" t="n">
-        <v>11.24647235870361</v>
+        <v>10.01619052886963</v>
       </c>
       <c r="H134" t="n">
         <v>16000</v>
@@ -4610,22 +4610,22 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.0279955547302961</v>
+        <v>0.0072520840913057</v>
       </c>
       <c r="C135" t="n">
-        <v>0.00123232381884</v>
+        <v>9.910563676385208e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>2.891061544418335</v>
+        <v>0.7531493306159973</v>
       </c>
       <c r="E135" t="n">
-        <v>15.57295513153076</v>
+        <v>1.072685122489929</v>
       </c>
       <c r="F135" t="n">
-        <v>2.891061544418335</v>
+        <v>2.555352687835693</v>
       </c>
       <c r="G135" t="n">
-        <v>15.57295513153076</v>
+        <v>14.75192928314209</v>
       </c>
       <c r="H135" t="n">
         <v>44894</v>
@@ -4641,22 +4641,22 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.0242721624672412</v>
+        <v>0.0069419681094586</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0009568504756316001</v>
+        <v>9.42279730224982e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>2.448720932006836</v>
+        <v>0.6690754294395447</v>
       </c>
       <c r="E136" t="n">
-        <v>10.56298637390137</v>
+        <v>0.8276758790016174</v>
       </c>
       <c r="F136" t="n">
-        <v>2.448721170425415</v>
+        <v>1.991169810295105</v>
       </c>
       <c r="G136" t="n">
-        <v>10.56298637390137</v>
+        <v>9.405978202819824</v>
       </c>
       <c r="H136" t="n">
         <v>2000</v>
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.0206637997180223</v>
+        <v>0.0051993769593536</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0007493107113987</v>
+        <v>5.563647209783085e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>2.236316919326782</v>
+        <v>0.5207445025444031</v>
       </c>
       <c r="E137" t="n">
-        <v>10.35315132141113</v>
+        <v>0.6160025000572205</v>
       </c>
       <c r="F137" t="n">
-        <v>2.236317157745361</v>
+        <v>2.049531698226929</v>
       </c>
       <c r="G137" t="n">
-        <v>10.35315132141113</v>
+        <v>10.13197422027588</v>
       </c>
       <c r="H137" t="n">
         <v>16000</v>
@@ -4703,22 +4703,22 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.0260979123413562</v>
+        <v>0.0057671382091939</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0010749332141131</v>
+        <v>6.620923522859812e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>2.795006036758423</v>
+        <v>0.615271270275116</v>
       </c>
       <c r="E138" t="n">
-        <v>15.24674797058106</v>
+        <v>0.8753631114959717</v>
       </c>
       <c r="F138" t="n">
-        <v>2.795006275177002</v>
+        <v>2.559937953948975</v>
       </c>
       <c r="G138" t="n">
-        <v>15.24674797058106</v>
+        <v>14.82632541656494</v>
       </c>
       <c r="H138" t="n">
         <v>44894</v>
@@ -4734,22 +4734,22 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.0211426652967929</v>
+        <v>0.0052212849259376</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0007830024114809</v>
+        <v>5.631209933198989e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>2.223411321640014</v>
+        <v>0.5163450241088867</v>
       </c>
       <c r="E139" t="n">
-        <v>9.892414093017578</v>
+        <v>0.6171927452087402</v>
       </c>
       <c r="F139" t="n">
-        <v>2.223411321640014</v>
+        <v>2.005146265029907</v>
       </c>
       <c r="G139" t="n">
-        <v>9.892415046691896</v>
+        <v>9.429542541503906</v>
       </c>
       <c r="H139" t="n">
         <v>2000</v>
@@ -4765,22 +4765,22 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.0232714880257844</v>
+        <v>0.0052352710627019</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0009405668824911</v>
+        <v>5.101538772578351e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>2.389374017715454</v>
+        <v>0.5490085482597351</v>
       </c>
       <c r="E140" t="n">
-        <v>10.74610328674316</v>
+        <v>0.6166620850563049</v>
       </c>
       <c r="F140" t="n">
-        <v>2.389374017715454</v>
+        <v>1.951139211654663</v>
       </c>
       <c r="G140" t="n">
-        <v>10.74610328674316</v>
+        <v>9.548886299133301</v>
       </c>
       <c r="H140" t="n">
         <v>16000</v>
@@ -4796,22 +4796,22 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.0273382402956485</v>
+        <v>0.0056717162951827</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0011970752384513</v>
+        <v>6.112948904046789e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>2.848433494567871</v>
+        <v>0.6198183298110962</v>
       </c>
       <c r="E141" t="n">
-        <v>14.88919448852539</v>
+        <v>0.830322802066803</v>
       </c>
       <c r="F141" t="n">
-        <v>2.848433256149292</v>
+        <v>2.462585687637329</v>
       </c>
       <c r="G141" t="n">
-        <v>14.88919448852539</v>
+        <v>14.03399085998535</v>
       </c>
       <c r="H141" t="n">
         <v>44894</v>
@@ -4827,22 +4827,22 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.0234679635614156</v>
+        <v>0.0051842527464032</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0009509297087788</v>
+        <v>5.145551767782308e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>2.341723442077637</v>
+        <v>0.5345209836959839</v>
       </c>
       <c r="E142" t="n">
-        <v>9.931269645690918</v>
+        <v>0.6028463244438171</v>
       </c>
       <c r="F142" t="n">
-        <v>2.341723203659058</v>
+        <v>1.917894840240478</v>
       </c>
       <c r="G142" t="n">
-        <v>9.931269645690918</v>
+        <v>8.875081062316895</v>
       </c>
       <c r="H142" t="n">
         <v>2000</v>
@@ -4858,22 +4858,22 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.0198627207428216</v>
+        <v>0.0069413562305271</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0006929702940396</v>
+        <v>8.882879774319008e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>2.143335342407227</v>
+        <v>0.6993035078048706</v>
       </c>
       <c r="E143" t="n">
-        <v>10.37649917602539</v>
+        <v>0.9679990410804749</v>
       </c>
       <c r="F143" t="n">
-        <v>2.143335342407227</v>
+        <v>2.639045238494873</v>
       </c>
       <c r="G143" t="n">
-        <v>10.37649917602539</v>
+        <v>13.45432662963867</v>
       </c>
       <c r="H143" t="n">
         <v>16000</v>
@@ -4889,22 +4889,22 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.0239616930484771</v>
+        <v>0.008381213061511499</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0009570717229507</v>
+        <v>0.0001214121075463</v>
       </c>
       <c r="D144" t="n">
-        <v>2.598482608795166</v>
+        <v>0.8560994267463684</v>
       </c>
       <c r="E144" t="n">
-        <v>14.89429378509522</v>
+        <v>1.401036143302918</v>
       </c>
       <c r="F144" t="n">
-        <v>2.598482608795166</v>
+        <v>3.164337158203125</v>
       </c>
       <c r="G144" t="n">
-        <v>14.89429378509522</v>
+        <v>19.06514167785645</v>
       </c>
       <c r="H144" t="n">
         <v>44894</v>
@@ -4920,22 +4920,22 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.019798832014203</v>
+        <v>0.0069942804984748</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0006966965738683</v>
+        <v>9.081687312573196e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>2.06051778793335</v>
+        <v>0.6899836659431458</v>
       </c>
       <c r="E145" t="n">
-        <v>9.340611457824709</v>
+        <v>0.9328445196151732</v>
       </c>
       <c r="F145" t="n">
-        <v>2.060517549514771</v>
+        <v>2.55904507637024</v>
       </c>
       <c r="G145" t="n">
-        <v>9.340610504150391</v>
+        <v>12.45671844482422</v>
       </c>
       <c r="H145" t="n">
         <v>2000</v>
@@ -4951,22 +4951,22 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.023030960932374</v>
+        <v>0.0038035600446164</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0008873048936948</v>
+        <v>3.732239565579221e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>2.364373683929444</v>
+        <v>0.4217481017112732</v>
       </c>
       <c r="E146" t="n">
-        <v>10.76447868347168</v>
+        <v>0.5752951502799988</v>
       </c>
       <c r="F146" t="n">
-        <v>2.364373922348022</v>
+        <v>2.175665378570557</v>
       </c>
       <c r="G146" t="n">
-        <v>10.76447868347168</v>
+        <v>11.02688217163086</v>
       </c>
       <c r="H146" t="n">
         <v>16000</v>
@@ -4982,22 +4982,22 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0258787646889686</v>
+        <v>0.0046559544280171</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0010868608951568</v>
+        <v>5.292178320814856e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>2.763573169708252</v>
+        <v>0.5328354835510254</v>
       </c>
       <c r="E147" t="n">
-        <v>15.00704574584961</v>
+        <v>0.8814056515693665</v>
       </c>
       <c r="F147" t="n">
-        <v>2.763573169708252</v>
+        <v>2.653552055358887</v>
       </c>
       <c r="G147" t="n">
-        <v>15.00704574584961</v>
+        <v>15.90835762023926</v>
       </c>
       <c r="H147" t="n">
         <v>44894</v>
@@ -5013,22 +5013,22 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.0232206676155328</v>
+        <v>0.0039053449872881</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0009016785770654</v>
+        <v>3.935371933039278e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>2.32296109199524</v>
+        <v>0.4178295433521271</v>
       </c>
       <c r="E148" t="n">
-        <v>10.09292602539062</v>
+        <v>0.5619986653327942</v>
       </c>
       <c r="F148" t="n">
-        <v>2.32296109199524</v>
+        <v>2.108363389968872</v>
       </c>
       <c r="G148" t="n">
-        <v>10.09292602539062</v>
+        <v>10.1293420791626</v>
       </c>
       <c r="H148" t="n">
         <v>2000</v>
@@ -5044,22 +5044,22 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.0231074914336204</v>
+        <v>0.0046565402299165</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0009256927296519</v>
+        <v>4.953371899318881e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>2.378464937210083</v>
+        <v>0.4915380179882049</v>
       </c>
       <c r="E149" t="n">
-        <v>11.39928150177002</v>
+        <v>0.6405496597290039</v>
       </c>
       <c r="F149" t="n">
-        <v>2.378464937210083</v>
+        <v>2.29792308807373</v>
       </c>
       <c r="G149" t="n">
-        <v>11.39928150177002</v>
+        <v>11.42456436157227</v>
       </c>
       <c r="H149" t="n">
         <v>16000</v>
@@ -5075,22 +5075,22 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.0265551544725894</v>
+        <v>0.0056644007563591</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0011818991042673</v>
+        <v>6.97607101756148e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>2.798887014389038</v>
+        <v>0.6145660877227783</v>
       </c>
       <c r="E150" t="n">
-        <v>15.98525810241699</v>
+        <v>0.9591107964515686</v>
       </c>
       <c r="F150" t="n">
-        <v>2.798887014389038</v>
+        <v>2.759490489959717</v>
       </c>
       <c r="G150" t="n">
-        <v>15.98525810241699</v>
+        <v>16.26535224914551</v>
       </c>
       <c r="H150" t="n">
         <v>44894</v>
@@ -5106,22 +5106,22 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.0231726188212633</v>
+        <v>0.0047626364976167</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0009398823021911</v>
+        <v>5.190804222365841e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>2.309299230575561</v>
+        <v>0.4898053109645843</v>
       </c>
       <c r="E151" t="n">
-        <v>10.42710781097412</v>
+        <v>0.6341637372970581</v>
       </c>
       <c r="F151" t="n">
-        <v>2.309299230575561</v>
+        <v>2.236501693725586</v>
       </c>
       <c r="G151" t="n">
-        <v>10.4271068572998</v>
+        <v>10.57597732543945</v>
       </c>
       <c r="H151" t="n">
         <v>2000</v>
@@ -5137,22 +5137,22 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.0224528685212135</v>
+        <v>0.008261049166321701</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0009117972222156</v>
+        <v>0.0001158318700618</v>
       </c>
       <c r="D152" t="n">
-        <v>2.250107049942017</v>
+        <v>0.8687927722930908</v>
       </c>
       <c r="E152" t="n">
-        <v>10.85474395751953</v>
+        <v>1.385396480560303</v>
       </c>
       <c r="F152" t="n">
-        <v>2.250107049942017</v>
+        <v>2.824380159378052</v>
       </c>
       <c r="G152" t="n">
-        <v>10.85474300384522</v>
+        <v>15.2537031173706</v>
       </c>
       <c r="H152" t="n">
         <v>16000</v>
@@ -5168,22 +5168,22 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.0265055894851684</v>
+        <v>0.0101419063284993</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0011863972758874</v>
+        <v>0.0001624184806132</v>
       </c>
       <c r="D153" t="n">
-        <v>2.748021841049194</v>
+        <v>1.061787366867065</v>
       </c>
       <c r="E153" t="n">
-        <v>15.84387016296387</v>
+        <v>1.973016977310181</v>
       </c>
       <c r="F153" t="n">
-        <v>2.748021841049194</v>
+        <v>3.399038553237915</v>
       </c>
       <c r="G153" t="n">
-        <v>15.84387016296387</v>
+        <v>21.43623924255371</v>
       </c>
       <c r="H153" t="n">
         <v>44894</v>
@@ -5199,22 +5199,22 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.0223664380609989</v>
+        <v>0.008231128565967</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0009155435836873</v>
+        <v>0.0001169916358776</v>
       </c>
       <c r="D154" t="n">
-        <v>2.165959119796753</v>
+        <v>0.8529388308525085</v>
       </c>
       <c r="E154" t="n">
-        <v>9.968244552612305</v>
+        <v>1.329720616340637</v>
       </c>
       <c r="F154" t="n">
-        <v>2.165958881378174</v>
+        <v>2.734831571578979</v>
       </c>
       <c r="G154" t="n">
-        <v>9.968242645263672</v>
+        <v>14.13709449768066</v>
       </c>
       <c r="H154" t="n">
         <v>2000</v>
@@ -5230,22 +5230,22 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.0227102059870958</v>
+        <v>0.0057023488916456</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0009648317354731</v>
+        <v>6.475595000665635e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>2.34144115447998</v>
+        <v>0.5668460726737976</v>
       </c>
       <c r="E155" t="n">
-        <v>11.14666557312012</v>
+        <v>0.6843435168266296</v>
       </c>
       <c r="F155" t="n">
-        <v>2.34144115447998</v>
+        <v>2.033361673355103</v>
       </c>
       <c r="G155" t="n">
-        <v>11.14666557312012</v>
+        <v>9.973539352416992</v>
       </c>
       <c r="H155" t="n">
         <v>16000</v>
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.0273394342511892</v>
+        <v>0.006156675517559</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0013020237674936</v>
+        <v>7.134537008823827e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>2.828447580337524</v>
+        <v>0.6528550386428833</v>
       </c>
       <c r="E156" t="n">
-        <v>15.84396553039551</v>
+        <v>0.927899181842804</v>
       </c>
       <c r="F156" t="n">
-        <v>2.828447341918945</v>
+        <v>2.490632057189941</v>
       </c>
       <c r="G156" t="n">
-        <v>15.84396553039551</v>
+        <v>14.43429374694824</v>
       </c>
       <c r="H156" t="n">
         <v>44894</v>
@@ -5292,22 +5292,22 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.022719208151102</v>
+        <v>0.0056866188533604</v>
       </c>
       <c r="C157" t="n">
-        <v>0.000967365631368</v>
+        <v>6.527078221552074e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>2.291640043258667</v>
+        <v>0.5556264519691467</v>
       </c>
       <c r="E157" t="n">
-        <v>10.35799694061279</v>
+        <v>0.6734917163848877</v>
       </c>
       <c r="F157" t="n">
-        <v>2.291640043258667</v>
+        <v>1.991308093070984</v>
       </c>
       <c r="G157" t="n">
-        <v>10.35799598693848</v>
+        <v>9.253876686096191</v>
       </c>
       <c r="H157" t="n">
         <v>2000</v>
@@ -5323,22 +5323,22 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.0220013819634914</v>
+        <v>0.005303265992552</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0009567850502207</v>
+        <v>6.143243808764964e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>2.208908796310425</v>
+        <v>0.5670997500419617</v>
       </c>
       <c r="E158" t="n">
-        <v>9.98310375213623</v>
+        <v>0.8030425906181335</v>
       </c>
       <c r="F158" t="n">
-        <v>2.208908796310425</v>
+        <v>2.458783864974976</v>
       </c>
       <c r="G158" t="n">
-        <v>9.983104705810549</v>
+        <v>12.56885147094727</v>
       </c>
       <c r="H158" t="n">
         <v>16000</v>
@@ -5354,22 +5354,22 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.0244503114372491</v>
+        <v>0.0067188469693064</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0010604894487187</v>
+        <v>8.827497367747128e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>2.55367636680603</v>
+        <v>0.7225565314292908</v>
       </c>
       <c r="E159" t="n">
-        <v>13.23699951171875</v>
+        <v>1.194334387779236</v>
       </c>
       <c r="F159" t="n">
-        <v>2.55367636680603</v>
+        <v>2.990893363952637</v>
       </c>
       <c r="G159" t="n">
-        <v>13.23699951171875</v>
+        <v>17.96784019470215</v>
       </c>
       <c r="H159" t="n">
         <v>44894</v>
@@ -5385,22 +5385,22 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.0222466960549354</v>
+        <v>0.0054503111168742</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0009757272200658</v>
+        <v>6.387936446117237e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>2.18595552444458</v>
+        <v>0.5672076344490051</v>
       </c>
       <c r="E160" t="n">
-        <v>9.341411590576172</v>
+        <v>0.7762312889099121</v>
       </c>
       <c r="F160" t="n">
-        <v>2.18595552444458</v>
+        <v>2.389194250106812</v>
       </c>
       <c r="G160" t="n">
-        <v>9.341412544250488</v>
+        <v>11.66389465332031</v>
       </c>
       <c r="H160" t="n">
         <v>2000</v>
@@ -5416,22 +5416,22 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.0220167282968759</v>
+        <v>0.0074704429134726</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0008845931733958</v>
+        <v>9.771175973583011e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>2.286460876464844</v>
+        <v>0.7932531833648682</v>
       </c>
       <c r="E161" t="n">
-        <v>10.28499412536621</v>
+        <v>1.194952487945557</v>
       </c>
       <c r="F161" t="n">
-        <v>2.286460876464844</v>
+        <v>2.734218120574951</v>
       </c>
       <c r="G161" t="n">
-        <v>10.28499412536621</v>
+        <v>14.4657735824585</v>
       </c>
       <c r="H161" t="n">
         <v>16000</v>
@@ -5447,22 +5447,22 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.0247456133365631</v>
+        <v>0.009248287416994501</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0010284555610269</v>
+        <v>0.0001383231574436</v>
       </c>
       <c r="D162" t="n">
-        <v>2.628952741622925</v>
+        <v>0.9630289673805236</v>
       </c>
       <c r="E162" t="n">
-        <v>13.71197700500488</v>
+        <v>1.679368734359741</v>
       </c>
       <c r="F162" t="n">
-        <v>2.628952741622925</v>
+        <v>3.28676986694336</v>
       </c>
       <c r="G162" t="n">
-        <v>13.71197700500488</v>
+        <v>20.24517822265625</v>
       </c>
       <c r="H162" t="n">
         <v>44894</v>
@@ -5478,22 +5478,22 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.0223527494817972</v>
+        <v>0.0075365328229963</v>
       </c>
       <c r="C163" t="n">
-        <v>0.000913975003641</v>
+        <v>9.994063293561339e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>2.259126901626587</v>
+        <v>0.7846057415008545</v>
       </c>
       <c r="E163" t="n">
-        <v>9.752912521362305</v>
+        <v>1.147003173828125</v>
       </c>
       <c r="F163" t="n">
-        <v>2.259126901626587</v>
+        <v>2.654000043869019</v>
       </c>
       <c r="G163" t="n">
-        <v>9.752910614013672</v>
+        <v>13.39981174468994</v>
       </c>
       <c r="H163" t="n">
         <v>2000</v>
@@ -5509,22 +5509,22 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.0191938746720552</v>
+        <v>0.0057046082802116</v>
       </c>
       <c r="C164" t="n">
-        <v>0.000780907459557</v>
+        <v>6.317466613836586e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>1.953672289848328</v>
+        <v>0.5986654758453369</v>
       </c>
       <c r="E164" t="n">
-        <v>9.229179382324221</v>
+        <v>0.7470515370368958</v>
       </c>
       <c r="F164" t="n">
-        <v>1.953672409057617</v>
+        <v>2.49581265449524</v>
       </c>
       <c r="G164" t="n">
-        <v>9.229179382324221</v>
+        <v>12.4797887802124</v>
       </c>
       <c r="H164" t="n">
         <v>16000</v>
@@ -5540,22 +5540,22 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0235052071511745</v>
+        <v>0.0070129479281604</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0010171554749831</v>
+        <v>8.910723408916965e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>2.484260082244873</v>
+        <v>0.7281502485275269</v>
       </c>
       <c r="E165" t="n">
-        <v>13.66376399993896</v>
+        <v>1.072451710700989</v>
       </c>
       <c r="F165" t="n">
-        <v>2.484260082244873</v>
+        <v>2.99275803565979</v>
       </c>
       <c r="G165" t="n">
-        <v>13.66376399993896</v>
+        <v>17.54062652587891</v>
       </c>
       <c r="H165" t="n">
         <v>44894</v>
@@ -5571,22 +5571,22 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.0193438082933425</v>
+        <v>0.0058452016673982</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0007889654370956</v>
+        <v>6.603807560168207e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>1.913422107696533</v>
+        <v>0.6028715968132019</v>
       </c>
       <c r="E166" t="n">
-        <v>8.569421768188477</v>
+        <v>0.7493243217468262</v>
       </c>
       <c r="F166" t="n">
-        <v>1.913422107696533</v>
+        <v>2.430353164672852</v>
       </c>
       <c r="G166" t="n">
-        <v>8.569421768188477</v>
+        <v>11.66717910766602</v>
       </c>
       <c r="H166" t="n">
         <v>2000</v>
@@ -5602,22 +5602,22 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.0202229879796504</v>
+        <v>0.0063734236173331</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0009136949665844</v>
+        <v>7.994512270670384e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>1.990946888923645</v>
+        <v>0.6342843174934387</v>
       </c>
       <c r="E167" t="n">
-        <v>10.4905481338501</v>
+        <v>0.8053340911865234</v>
       </c>
       <c r="F167" t="n">
-        <v>1.990947008132934</v>
+        <v>2.153666019439697</v>
       </c>
       <c r="G167" t="n">
-        <v>10.4905481338501</v>
+        <v>10.70921516418457</v>
       </c>
       <c r="H167" t="n">
         <v>16000</v>
@@ -5633,22 +5633,22 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.0218412112444639</v>
+        <v>0.0069043231196701</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0009992291452362999</v>
+        <v>9.043276077136396e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>2.359885454177856</v>
+        <v>0.7163532376289368</v>
       </c>
       <c r="E168" t="n">
-        <v>14.87338638305664</v>
+        <v>1.064590454101562</v>
       </c>
       <c r="F168" t="n">
-        <v>2.359885215759277</v>
+        <v>2.680344104766846</v>
       </c>
       <c r="G168" t="n">
-        <v>14.87338638305664</v>
+        <v>15.71714210510254</v>
       </c>
       <c r="H168" t="n">
         <v>44894</v>
@@ -5664,22 +5664,22 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.0204040165990591</v>
+        <v>0.0063100438565015</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0009298189543187</v>
+        <v>7.949758582981303e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>1.93333351612091</v>
+        <v>0.6183619499206543</v>
       </c>
       <c r="E169" t="n">
-        <v>9.760380744934082</v>
+        <v>0.7736198306083679</v>
       </c>
       <c r="F169" t="n">
-        <v>1.93333351612091</v>
+        <v>2.099170923233032</v>
       </c>
       <c r="G169" t="n">
-        <v>9.760379791259766</v>
+        <v>9.832799911499023</v>
       </c>
       <c r="H169" t="n">
         <v>2000</v>
@@ -5695,22 +5695,22 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.0208375975489616</v>
+        <v>0.0044443910010159</v>
       </c>
       <c r="C170" t="n">
-        <v>0.000840054010041</v>
+        <v>4.204427750664763e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>2.146427392959595</v>
+        <v>0.4905218183994293</v>
       </c>
       <c r="E170" t="n">
-        <v>10.41417980194092</v>
+        <v>0.6404182314872742</v>
       </c>
       <c r="F170" t="n">
-        <v>2.146427392959595</v>
+        <v>2.327677965164185</v>
       </c>
       <c r="G170" t="n">
-        <v>10.41417980194092</v>
+        <v>11.81910705566406</v>
       </c>
       <c r="H170" t="n">
         <v>16000</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0246130861341953</v>
+        <v>0.0054692840203642</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0010735897812992</v>
+        <v>6.056735219317488e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>2.630421161651612</v>
+        <v>0.6126725077629089</v>
       </c>
       <c r="E171" t="n">
-        <v>14.96038722991943</v>
+        <v>0.9643016457557678</v>
       </c>
       <c r="F171" t="n">
-        <v>2.630421161651612</v>
+        <v>2.828973293304444</v>
       </c>
       <c r="G171" t="n">
-        <v>14.96038722991943</v>
+        <v>16.92792129516602</v>
       </c>
       <c r="H171" t="n">
         <v>44894</v>
@@ -5757,22 +5757,22 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.0208916831761598</v>
+        <v>0.0045736543834209</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0008492509368807</v>
+        <v>4.416535739437677e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>2.091188907623291</v>
+        <v>0.4880034625530243</v>
       </c>
       <c r="E172" t="n">
-        <v>9.649404525756836</v>
+        <v>0.6108585000038147</v>
       </c>
       <c r="F172" t="n">
-        <v>2.091188907623291</v>
+        <v>2.252637147903442</v>
       </c>
       <c r="G172" t="n">
-        <v>9.649404525756836</v>
+        <v>10.82723999023438</v>
       </c>
       <c r="H172" t="n">
         <v>2000</v>
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.0210727807134389</v>
+        <v>0.0049049798399209</v>
       </c>
       <c r="C173" t="n">
-        <v>0.000841183878947</v>
+        <v>5.281783523969352e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>2.236065864562988</v>
+        <v>0.5092926621437073</v>
       </c>
       <c r="E173" t="n">
-        <v>10.925537109375</v>
+        <v>0.6363328695297241</v>
       </c>
       <c r="F173" t="n">
-        <v>2.236065864562988</v>
+        <v>2.269700288772583</v>
       </c>
       <c r="G173" t="n">
-        <v>10.925537109375</v>
+        <v>11.32754898071289</v>
       </c>
       <c r="H173" t="n">
         <v>16000</v>
@@ -5819,22 +5819,22 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.0244923643767833</v>
+        <v>0.0058497134596109</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0010367578361183</v>
+        <v>7.11239263182506e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>2.662177085876465</v>
+        <v>0.6254433393478394</v>
       </c>
       <c r="E174" t="n">
-        <v>15.44708633422852</v>
+        <v>0.9346731305122375</v>
       </c>
       <c r="F174" t="n">
-        <v>2.662177085876465</v>
+        <v>2.77247428894043</v>
       </c>
       <c r="G174" t="n">
-        <v>15.44708633422852</v>
+        <v>16.30754661560059</v>
       </c>
       <c r="H174" t="n">
         <v>44894</v>
@@ -5850,22 +5850,22 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.0215921327471733</v>
+        <v>0.0048826104030013</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0008720938349142</v>
+        <v>5.33034690306522e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>2.205553770065308</v>
+        <v>0.500427782535553</v>
       </c>
       <c r="E175" t="n">
-        <v>10.13449668884277</v>
+        <v>0.629528820514679</v>
       </c>
       <c r="F175" t="n">
-        <v>2.205553293228149</v>
+        <v>2.214925765991211</v>
       </c>
       <c r="G175" t="n">
-        <v>10.13449668884277</v>
+        <v>10.56439685821533</v>
       </c>
       <c r="H175" t="n">
         <v>2000</v>
@@ -5881,22 +5881,22 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.0235201641917228</v>
+        <v>0.0060630072839558</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0009595867013558001</v>
+        <v>7.072300650179386e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>2.373427629470825</v>
+        <v>0.6370788812637329</v>
       </c>
       <c r="E176" t="n">
-        <v>10.88028907775879</v>
+        <v>0.8595651984214783</v>
       </c>
       <c r="F176" t="n">
-        <v>2.373428106307983</v>
+        <v>2.552492141723633</v>
       </c>
       <c r="G176" t="n">
-        <v>10.88028812408447</v>
+        <v>12.95560359954834</v>
       </c>
       <c r="H176" t="n">
         <v>16000</v>
@@ -5912,22 +5912,22 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.0287598948925733</v>
+        <v>0.0074708969332277</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0013251400087028</v>
+        <v>9.912598761729896e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>2.960338115692139</v>
+        <v>0.7832699418067932</v>
       </c>
       <c r="E177" t="n">
-        <v>15.96487426757812</v>
+        <v>1.219097137451172</v>
       </c>
       <c r="F177" t="n">
-        <v>2.960338115692139</v>
+        <v>3.066545009613037</v>
       </c>
       <c r="G177" t="n">
-        <v>15.96487426757812</v>
+        <v>18.2068977355957</v>
       </c>
       <c r="H177" t="n">
         <v>44894</v>
@@ -5943,22 +5943,22 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.0236583650112152</v>
+        <v>0.0061786202713847</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0009724172996357</v>
+        <v>7.379379530902952e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>2.32944917678833</v>
+        <v>0.6365293264389038</v>
       </c>
       <c r="E178" t="n">
-        <v>10.20498847961426</v>
+        <v>0.853735089302063</v>
       </c>
       <c r="F178" t="n">
-        <v>2.329449415206909</v>
+        <v>2.488211154937744</v>
       </c>
       <c r="G178" t="n">
-        <v>10.20498847961426</v>
+        <v>12.12743377685547</v>
       </c>
       <c r="H178" t="n">
         <v>2000</v>
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.0229190830141305</v>
+        <v>0.0064852694049477</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0009838750120252</v>
+        <v>9.109606617130341e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>2.351969003677368</v>
+        <v>0.6422272920608521</v>
       </c>
       <c r="E179" t="n">
-        <v>11.73037338256836</v>
+        <v>0.8401967883110046</v>
       </c>
       <c r="F179" t="n">
-        <v>2.351969003677368</v>
+        <v>2.07350492477417</v>
       </c>
       <c r="G179" t="n">
-        <v>11.73037147521973</v>
+        <v>10.26415824890137</v>
       </c>
       <c r="H179" t="n">
         <v>16000</v>
@@ -6005,22 +6005,22 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.0283973515033721</v>
+        <v>0.0068208770826458</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0013698985567316</v>
+        <v>9.288973524235188e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>2.930134773254395</v>
+        <v>0.7175793647766113</v>
       </c>
       <c r="E180" t="n">
-        <v>17.04692459106445</v>
+        <v>1.077590942382812</v>
       </c>
       <c r="F180" t="n">
-        <v>2.930134773254395</v>
+        <v>2.517840147018433</v>
       </c>
       <c r="G180" t="n">
-        <v>17.04692649841309</v>
+        <v>14.65531539916992</v>
       </c>
       <c r="H180" t="n">
         <v>44894</v>
@@ -6036,22 +6036,22 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.0233184788376092</v>
+        <v>0.006455929018557</v>
       </c>
       <c r="C181" t="n">
-        <v>0.001013824949041</v>
+        <v>9.235930338036268e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>2.338612794876098</v>
+        <v>0.6353419423103333</v>
       </c>
       <c r="E181" t="n">
-        <v>11.1732988357544</v>
+        <v>0.8515934944152832</v>
       </c>
       <c r="F181" t="n">
-        <v>2.338612794876098</v>
+        <v>2.044564008712769</v>
       </c>
       <c r="G181" t="n">
-        <v>11.17329692840576</v>
+        <v>9.672513961791992</v>
       </c>
       <c r="H181" t="n">
         <v>2000</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.0212490838021039</v>
+        <v>0.0067634368315339</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0008263527415692</v>
+        <v>9.059112198883668e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>2.164965867996216</v>
+        <v>0.6560166478157043</v>
       </c>
       <c r="E182" t="n">
-        <v>9.301416397094728</v>
+        <v>0.7838844060897827</v>
       </c>
       <c r="F182" t="n">
-        <v>2.164965867996216</v>
+        <v>2.217008352279663</v>
       </c>
       <c r="G182" t="n">
-        <v>9.301416397094728</v>
+        <v>10.73336124420166</v>
       </c>
       <c r="H182" t="n">
         <v>16000</v>
@@ -6098,22 +6098,22 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.0261728949844837</v>
+        <v>0.007352149579674</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0011210247175768</v>
+        <v>0.0001013508153846</v>
       </c>
       <c r="D183" t="n">
-        <v>2.696900606155396</v>
+        <v>0.7400230169296265</v>
       </c>
       <c r="E183" t="n">
-        <v>13.5462589263916</v>
+        <v>1.012128353118896</v>
       </c>
       <c r="F183" t="n">
-        <v>2.696900606155396</v>
+        <v>2.710287094116211</v>
       </c>
       <c r="G183" t="n">
-        <v>13.5462589263916</v>
+        <v>15.31283092498779</v>
       </c>
       <c r="H183" t="n">
         <v>44894</v>
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.0213398672640323</v>
+        <v>0.0068383524194359</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0008351972792297</v>
+        <v>9.239830251317473e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>2.14300799369812</v>
+        <v>0.6559813618659973</v>
       </c>
       <c r="E184" t="n">
-        <v>8.893003463745117</v>
+        <v>0.7776790857315063</v>
       </c>
       <c r="F184" t="n">
-        <v>2.143007755279541</v>
+        <v>2.18047308921814</v>
       </c>
       <c r="G184" t="n">
-        <v>8.893003463745117</v>
+        <v>10.03985500335693</v>
       </c>
       <c r="H184" t="n">
         <v>2000</v>
@@ -6160,22 +6160,22 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.0187196005135774</v>
+        <v>0.0057010580785572</v>
       </c>
       <c r="C185" t="n">
-        <v>0.000676212250255</v>
+        <v>6.814352673245594e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>1.912421464920044</v>
+        <v>0.5926319360733032</v>
       </c>
       <c r="E185" t="n">
-        <v>8.332620620727539</v>
+        <v>0.7966863512992859</v>
       </c>
       <c r="F185" t="n">
-        <v>1.912421584129333</v>
+        <v>2.430933237075806</v>
       </c>
       <c r="G185" t="n">
-        <v>8.332620620727539</v>
+        <v>12.32745933532715</v>
       </c>
       <c r="H185" t="n">
         <v>16000</v>
@@ -6191,22 +6191,22 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0232067313045263</v>
+        <v>0.0070505556650459</v>
       </c>
       <c r="C186" t="n">
-        <v>0.000936749856919</v>
+        <v>9.653152665123343e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>2.458450078964233</v>
+        <v>0.7311475872993469</v>
       </c>
       <c r="E186" t="n">
-        <v>12.54037570953369</v>
+        <v>1.158953547477722</v>
       </c>
       <c r="F186" t="n">
-        <v>2.458450078964233</v>
+        <v>2.93791127204895</v>
       </c>
       <c r="G186" t="n">
-        <v>12.54037570953369</v>
+        <v>17.46692085266113</v>
       </c>
       <c r="H186" t="n">
         <v>44894</v>
@@ -6222,22 +6222,22 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.0190694388002157</v>
+        <v>0.0058052367530763</v>
       </c>
       <c r="C187" t="n">
-        <v>0.000699795782566</v>
+        <v>6.984253559494391e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>1.900234699249268</v>
+        <v>0.5925520658493042</v>
       </c>
       <c r="E187" t="n">
-        <v>7.931480884552002</v>
+        <v>0.7730204463005066</v>
       </c>
       <c r="F187" t="n">
-        <v>1.900234818458557</v>
+        <v>2.365435123443604</v>
       </c>
       <c r="G187" t="n">
-        <v>7.93148136138916</v>
+        <v>11.41695308685303</v>
       </c>
       <c r="H187" t="n">
         <v>2000</v>
@@ -6253,22 +6253,22 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.0191758088767528</v>
+        <v>0.0045686210505664</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0007094283355399</v>
+        <v>4.588669253280386e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>2.073562145233154</v>
+        <v>0.5166975855827332</v>
       </c>
       <c r="E188" t="n">
-        <v>9.778212547302246</v>
+        <v>0.6638756394386292</v>
       </c>
       <c r="F188" t="n">
-        <v>2.073562145233154</v>
+        <v>2.361894369125366</v>
       </c>
       <c r="G188" t="n">
-        <v>9.778212547302246</v>
+        <v>11.80656433105469</v>
       </c>
       <c r="H188" t="n">
         <v>16000</v>
@@ -6284,22 +6284,22 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.0224959664046764</v>
+        <v>0.0056520123034715</v>
       </c>
       <c r="C189" t="n">
-        <v>0.00092140189372</v>
+        <v>6.594511069124565e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>2.48453688621521</v>
+        <v>0.6367856860160828</v>
       </c>
       <c r="E189" t="n">
-        <v>13.9955997467041</v>
+        <v>0.9789573550224304</v>
       </c>
       <c r="F189" t="n">
-        <v>2.484537124633789</v>
+        <v>2.837833881378174</v>
       </c>
       <c r="G189" t="n">
-        <v>13.9955997467041</v>
+        <v>16.72942733764648</v>
       </c>
       <c r="H189" t="n">
         <v>44894</v>
@@ -6315,22 +6315,22 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.0194940138608217</v>
+        <v>0.0047242706641554</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0007199250394478</v>
+        <v>4.903813896817155e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>2.043380498886108</v>
+        <v>0.5223322510719299</v>
       </c>
       <c r="E190" t="n">
-        <v>8.964480400085449</v>
+        <v>0.6752423048019409</v>
       </c>
       <c r="F190" t="n">
-        <v>2.043380498886108</v>
+        <v>2.299555063247681</v>
       </c>
       <c r="G190" t="n">
-        <v>8.964481353759766</v>
+        <v>10.99861907958984</v>
       </c>
       <c r="H190" t="n">
         <v>2000</v>
@@ -6346,22 +6346,22 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.0246249735355377</v>
+        <v>0.0059028100222349</v>
       </c>
       <c r="C191" t="n">
-        <v>0.001093486091122</v>
+        <v>6.760355609003454e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>2.459103345870972</v>
+        <v>0.6130889654159546</v>
       </c>
       <c r="E191" t="n">
-        <v>11.45199966430664</v>
+        <v>0.8140667676925659</v>
       </c>
       <c r="F191" t="n">
-        <v>2.459103345870972</v>
+        <v>2.524378776550293</v>
       </c>
       <c r="G191" t="n">
-        <v>11.45199966430664</v>
+        <v>12.67579936981201</v>
       </c>
       <c r="H191" t="n">
         <v>16000</v>
@@ -6377,22 +6377,22 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.0286328997462987</v>
+        <v>0.0073977317661046</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0013062256621196</v>
+        <v>9.670315921539439e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>2.930692195892334</v>
+        <v>0.7708799242973328</v>
       </c>
       <c r="E192" t="n">
-        <v>15.65612888336182</v>
+        <v>1.200859189033508</v>
       </c>
       <c r="F192" t="n">
-        <v>2.930692195892334</v>
+        <v>3.047055244445801</v>
       </c>
       <c r="G192" t="n">
-        <v>15.65612888336182</v>
+        <v>18.0549259185791</v>
       </c>
       <c r="H192" t="n">
         <v>44894</v>
@@ -6408,22 +6408,22 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.024985758587718</v>
+        <v>0.0060280915349721</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0011066432343795</v>
+        <v>7.048805127851665e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>2.44485092163086</v>
+        <v>0.612859308719635</v>
       </c>
       <c r="E193" t="n">
-        <v>10.64090061187744</v>
+        <v>0.8176742792129517</v>
       </c>
       <c r="F193" t="n">
-        <v>2.44485092163086</v>
+        <v>2.458580493927002</v>
       </c>
       <c r="G193" t="n">
-        <v>10.64090156555176</v>
+        <v>11.86880493164062</v>
       </c>
       <c r="H193" t="n">
         <v>2000</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.0226150937378406</v>
+        <v>0.0071095465682446</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0009782913839444</v>
+        <v>9.981612674891947e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>2.330266952514648</v>
+        <v>0.6829139590263367</v>
       </c>
       <c r="E194" t="n">
-        <v>11.40310573577881</v>
+        <v>0.9099248051643372</v>
       </c>
       <c r="F194" t="n">
-        <v>2.330266952514648</v>
+        <v>1.966194868087769</v>
       </c>
       <c r="G194" t="n">
-        <v>11.40310573577881</v>
+        <v>10.15480327606201</v>
       </c>
       <c r="H194" t="n">
         <v>16000</v>
@@ -6470,22 +6470,22 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.0261484570801258</v>
+        <v>0.0073675913736224</v>
       </c>
       <c r="C195" t="n">
-        <v>0.001199634396471</v>
+        <v>0.000104146398371</v>
       </c>
       <c r="D195" t="n">
-        <v>2.737798690795898</v>
+        <v>0.7511261105537415</v>
       </c>
       <c r="E195" t="n">
-        <v>15.63612079620361</v>
+        <v>1.165171384811401</v>
       </c>
       <c r="F195" t="n">
-        <v>2.73779845237732</v>
+        <v>2.438598394393921</v>
       </c>
       <c r="G195" t="n">
-        <v>15.63611888885498</v>
+        <v>14.76707363128662</v>
       </c>
       <c r="H195" t="n">
         <v>44894</v>
@@ -6501,22 +6501,22 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.0228927265852689</v>
+        <v>0.0070681599900126</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0010054368758574</v>
+        <v>9.904089529300109e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>2.310264587402344</v>
+        <v>0.6727996468544006</v>
       </c>
       <c r="E196" t="n">
-        <v>10.76941013336182</v>
+        <v>0.8934352993965149</v>
       </c>
       <c r="F196" t="n">
-        <v>2.310264587402344</v>
+        <v>1.926350474357605</v>
       </c>
       <c r="G196" t="n">
-        <v>10.76941013336182</v>
+        <v>9.360198974609377</v>
       </c>
       <c r="H196" t="n">
         <v>2000</v>
@@ -6532,22 +6532,22 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.0205955505371093</v>
+        <v>0.0075565241277217</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0007965110708028</v>
+        <v>0.0001043358643073</v>
       </c>
       <c r="D197" t="n">
-        <v>2.232735395431519</v>
+        <v>0.7648620009422302</v>
       </c>
       <c r="E197" t="n">
-        <v>11.08597469329834</v>
+        <v>1.075243830680847</v>
       </c>
       <c r="F197" t="n">
-        <v>2.232735395431519</v>
+        <v>2.709825038909912</v>
       </c>
       <c r="G197" t="n">
-        <v>11.08597469329834</v>
+        <v>13.87892150878906</v>
       </c>
       <c r="H197" t="n">
         <v>16000</v>
@@ -6563,22 +6563,22 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.0249021667987108</v>
+        <v>0.0093500036746263</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0010990697192028</v>
+        <v>0.0001476235192967</v>
       </c>
       <c r="D198" t="n">
-        <v>2.693413734436035</v>
+        <v>0.936777651309967</v>
       </c>
       <c r="E198" t="n">
-        <v>15.873122215271</v>
+        <v>1.532236218452454</v>
       </c>
       <c r="F198" t="n">
-        <v>2.693413734436035</v>
+        <v>3.257374286651612</v>
       </c>
       <c r="G198" t="n">
-        <v>15.873122215271</v>
+        <v>19.54115676879883</v>
       </c>
       <c r="H198" t="n">
         <v>44894</v>
@@ -6594,22 +6594,22 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.0205776002258062</v>
+        <v>0.0075768744572997</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0007961914525367</v>
+        <v>0.0001056488181347</v>
       </c>
       <c r="D199" t="n">
-        <v>2.163952350616455</v>
+        <v>0.7575222253799438</v>
       </c>
       <c r="E199" t="n">
-        <v>9.965298652648926</v>
+        <v>1.057337045669556</v>
       </c>
       <c r="F199" t="n">
-        <v>2.163952350616455</v>
+        <v>2.635250568389893</v>
       </c>
       <c r="G199" t="n">
-        <v>9.965298652648926</v>
+        <v>12.97639751434326</v>
       </c>
       <c r="H199" t="n">
         <v>2000</v>
@@ -6625,22 +6625,22 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.0215779729187488</v>
+        <v>0.0050795846618711</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0007782279280944999</v>
+        <v>5.264816354610957e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>2.30973482131958</v>
+        <v>0.5335168242454529</v>
       </c>
       <c r="E200" t="n">
-        <v>10.11251831054688</v>
+        <v>0.6279179453849792</v>
       </c>
       <c r="F200" t="n">
-        <v>2.30973482131958</v>
+        <v>2.292309045791626</v>
       </c>
       <c r="G200" t="n">
-        <v>10.11251735687256</v>
+        <v>11.1067476272583</v>
       </c>
       <c r="H200" t="n">
         <v>16000</v>
@@ -6656,22 +6656,22 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.024990439414978</v>
+        <v>0.0064039146527647</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0009597966563887</v>
+        <v>7.582687976537272e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>2.688344240188598</v>
+        <v>0.6772367358207703</v>
       </c>
       <c r="E201" t="n">
-        <v>13.37877941131592</v>
+        <v>0.9311489462852478</v>
       </c>
       <c r="F201" t="n">
-        <v>2.688344240188598</v>
+        <v>2.824397563934326</v>
       </c>
       <c r="G201" t="n">
-        <v>13.37877941131592</v>
+        <v>16.08465766906738</v>
       </c>
       <c r="H201" t="n">
         <v>44894</v>
@@ -6687,22 +6687,22 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.0219500754028558</v>
+        <v>0.0052301469258964</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0007856501033529</v>
+        <v>5.504723594640382e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>2.29396653175354</v>
+        <v>0.5388057827949524</v>
       </c>
       <c r="E202" t="n">
-        <v>9.431840896606444</v>
+        <v>0.6350218653678894</v>
       </c>
       <c r="F202" t="n">
-        <v>2.293966293334961</v>
+        <v>2.23658299446106</v>
       </c>
       <c r="G202" t="n">
-        <v>9.431838035583496</v>
+        <v>10.3605375289917</v>
       </c>
       <c r="H202" t="n">
         <v>2000</v>
@@ -6718,22 +6718,22 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.0239674635231494</v>
+        <v>0.0052894400432705</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0009954485576598999</v>
+        <v>5.649744707625359e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>2.458249568939209</v>
+        <v>0.5736506581306458</v>
       </c>
       <c r="E203" t="n">
-        <v>11.87637615203857</v>
+        <v>0.7625004053115845</v>
       </c>
       <c r="F203" t="n">
-        <v>2.458249568939209</v>
+        <v>2.457746028900146</v>
       </c>
       <c r="G203" t="n">
-        <v>11.87637519836426</v>
+        <v>12.3882303237915</v>
       </c>
       <c r="H203" t="n">
         <v>16000</v>
@@ -6749,22 +6749,22 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.0286866426467895</v>
+        <v>0.0066500958055257</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0013615008210763</v>
+        <v>8.154100942192599e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>2.949934482574463</v>
+        <v>0.7161971926689148</v>
       </c>
       <c r="E204" t="n">
-        <v>17.15440940856934</v>
+        <v>1.120890021324157</v>
       </c>
       <c r="F204" t="n">
-        <v>2.949934482574463</v>
+        <v>2.964825391769409</v>
       </c>
       <c r="G204" t="n">
-        <v>17.15440940856934</v>
+        <v>17.58641242980957</v>
       </c>
       <c r="H204" t="n">
         <v>44894</v>
@@ -6780,22 +6780,22 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.0241134986281394</v>
+        <v>0.0054179565049707</v>
       </c>
       <c r="C205" t="n">
-        <v>0.0010075059253722</v>
+        <v>5.860770033905283e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>2.410519123077393</v>
+        <v>0.5793211460113525</v>
       </c>
       <c r="E205" t="n">
-        <v>11.09398365020752</v>
+        <v>0.7584524154663086</v>
       </c>
       <c r="F205" t="n">
-        <v>2.410519123077393</v>
+        <v>2.395404815673828</v>
       </c>
       <c r="G205" t="n">
-        <v>11.0939826965332</v>
+        <v>11.55930233001709</v>
       </c>
       <c r="H205" t="n">
         <v>2000</v>
@@ -6811,22 +6811,22 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.0242887251079082</v>
+        <v>0.0061048679053783</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0009798706742003001</v>
+        <v>7.456423190888017e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>2.612300395965576</v>
+        <v>0.6113530397415161</v>
       </c>
       <c r="E206" t="n">
-        <v>12.5830602645874</v>
+        <v>0.8028340935707092</v>
       </c>
       <c r="F206" t="n">
-        <v>2.612300395965576</v>
+        <v>2.518493175506592</v>
       </c>
       <c r="G206" t="n">
-        <v>12.58305931091309</v>
+        <v>12.60962295532227</v>
       </c>
       <c r="H206" t="n">
         <v>16000</v>
@@ -6842,22 +6842,22 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.0285343397408723</v>
+        <v>0.0077339052222669</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0012921664165332</v>
+        <v>0.0001072749801096</v>
       </c>
       <c r="D207" t="n">
-        <v>3.051161766052246</v>
+        <v>0.7843143939971924</v>
       </c>
       <c r="E207" t="n">
-        <v>17.35006523132324</v>
+        <v>1.203483700752258</v>
       </c>
       <c r="F207" t="n">
-        <v>3.051161766052246</v>
+        <v>3.071331977844238</v>
       </c>
       <c r="G207" t="n">
-        <v>17.35006332397461</v>
+        <v>18.12671279907227</v>
       </c>
       <c r="H207" t="n">
         <v>44894</v>
@@ -6873,22 +6873,22 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.0245633162558078</v>
+        <v>0.0061718984507024</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0010058750631287</v>
+        <v>7.592856127303094e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>2.575077533721924</v>
+        <v>0.6067221760749817</v>
       </c>
       <c r="E208" t="n">
-        <v>11.93740177154541</v>
+        <v>0.7905192375183105</v>
       </c>
       <c r="F208" t="n">
-        <v>2.575077533721924</v>
+        <v>2.44257116317749</v>
       </c>
       <c r="G208" t="n">
-        <v>11.93740081787109</v>
+        <v>11.73833847045898</v>
       </c>
       <c r="H208" t="n">
         <v>2000</v>
@@ -6904,22 +6904,22 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.0213299915194511</v>
+        <v>0.0042982217855751</v>
       </c>
       <c r="C209" t="n">
-        <v>0.0010066134855151</v>
+        <v>4.220804476062767e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>2.06507682800293</v>
+        <v>0.4691353738307953</v>
       </c>
       <c r="E209" t="n">
-        <v>10.07777976989746</v>
+        <v>0.6060671210289001</v>
       </c>
       <c r="F209" t="n">
-        <v>2.06507682800293</v>
+        <v>2.286539316177368</v>
       </c>
       <c r="G209" t="n">
-        <v>10.07777976989746</v>
+        <v>11.46613502502441</v>
       </c>
       <c r="H209" t="n">
         <v>16000</v>
@@ -6935,22 +6935,22 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.0240998864173889</v>
+        <v>0.0052807936444878</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0010906052775681</v>
+        <v>5.87100294069387e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>2.488704919815063</v>
+        <v>0.5881780982017517</v>
       </c>
       <c r="E210" t="n">
-        <v>13.78979110717773</v>
+        <v>0.9065307974815368</v>
       </c>
       <c r="F210" t="n">
-        <v>2.488704919815063</v>
+        <v>2.786171674728394</v>
       </c>
       <c r="G210" t="n">
-        <v>13.78979110717773</v>
+        <v>16.48977661132812</v>
       </c>
       <c r="H210" t="n">
         <v>44894</v>
@@ -6966,22 +6966,22 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.0216360297054052</v>
+        <v>0.0044381506741046</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0010376874124631</v>
+        <v>4.427708699950017e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>2.023030519485474</v>
+        <v>0.4681973159313202</v>
       </c>
       <c r="E211" t="n">
-        <v>9.118309020996094</v>
+        <v>0.5814822316169739</v>
       </c>
       <c r="F211" t="n">
-        <v>2.023030519485474</v>
+        <v>2.220367670059204</v>
       </c>
       <c r="G211" t="n">
-        <v>9.118309020996094</v>
+        <v>10.56886386871338</v>
       </c>
       <c r="H211" t="n">
         <v>2000</v>
@@ -6997,22 +6997,22 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.0204697307199239</v>
+        <v>0.0053670383058488</v>
       </c>
       <c r="C212" t="n">
-        <v>0.0008551169885321999</v>
+        <v>5.696044900105335e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>2.144546031951904</v>
+        <v>0.5658379197120667</v>
       </c>
       <c r="E212" t="n">
-        <v>10.59393215179443</v>
+        <v>0.7120729684829712</v>
       </c>
       <c r="F212" t="n">
-        <v>2.144546270370483</v>
+        <v>2.423250198364258</v>
       </c>
       <c r="G212" t="n">
-        <v>10.59393215179443</v>
+        <v>11.99233150482178</v>
       </c>
       <c r="H212" t="n">
         <v>16000</v>
@@ -7028,22 +7028,22 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.0230456534773111</v>
+        <v>0.0064267292618751</v>
       </c>
       <c r="C213" t="n">
-        <v>0.0009783110581338</v>
+        <v>7.912309229141101e-05</v>
       </c>
       <c r="D213" t="n">
-        <v>2.545296907424927</v>
+        <v>0.6766088008880615</v>
       </c>
       <c r="E213" t="n">
-        <v>14.56892108917236</v>
+        <v>1.01680326461792</v>
       </c>
       <c r="F213" t="n">
-        <v>2.545296907424927</v>
+        <v>2.872466325759888</v>
       </c>
       <c r="G213" t="n">
-        <v>14.56892108917236</v>
+        <v>16.81684875488281</v>
       </c>
       <c r="H213" t="n">
         <v>44894</v>
@@ -7059,22 +7059,22 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.0209126267582178</v>
+        <v>0.0054467171430587</v>
       </c>
       <c r="C214" t="n">
-        <v>0.0008939659455791</v>
+        <v>5.892079934710637e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>2.129445552825928</v>
+        <v>0.5654853582382202</v>
       </c>
       <c r="E214" t="n">
-        <v>10.20321846008301</v>
+        <v>0.7093221545219421</v>
       </c>
       <c r="F214" t="n">
-        <v>2.129445791244507</v>
+        <v>2.358099699020386</v>
       </c>
       <c r="G214" t="n">
-        <v>10.20321846008301</v>
+        <v>11.17151927947998</v>
       </c>
       <c r="H214" t="n">
         <v>2000</v>
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.0220174826681613</v>
+        <v>0.004955256357789</v>
       </c>
       <c r="C215" t="n">
-        <v>0.000887946342118</v>
+        <v>4.808628727914765e-05</v>
       </c>
       <c r="D215" t="n">
-        <v>2.34241795539856</v>
+        <v>0.5268300175666809</v>
       </c>
       <c r="E215" t="n">
-        <v>11.0059700012207</v>
+        <v>0.6921091079711914</v>
       </c>
       <c r="F215" t="n">
-        <v>2.342418193817139</v>
+        <v>2.4320068359375</v>
       </c>
       <c r="G215" t="n">
-        <v>11.0059700012207</v>
+        <v>12.32761192321777</v>
       </c>
       <c r="H215" t="n">
         <v>16000</v>
@@ -7121,22 +7121,22 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.0241904146969318</v>
+        <v>0.0060119065456092</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0009655829635448</v>
+        <v>6.77426578477025e-05</v>
       </c>
       <c r="D216" t="n">
-        <v>2.607273578643799</v>
+        <v>0.6538562774658203</v>
       </c>
       <c r="E216" t="n">
-        <v>13.94069194793701</v>
+        <v>1.031466722488403</v>
       </c>
       <c r="F216" t="n">
-        <v>2.607273817062378</v>
+        <v>2.910017013549805</v>
       </c>
       <c r="G216" t="n">
-        <v>13.94069385528564</v>
+        <v>17.45128059387207</v>
       </c>
       <c r="H216" t="n">
         <v>44894</v>
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.022344322875142</v>
+        <v>0.0050392937846481</v>
       </c>
       <c r="C217" t="n">
-        <v>0.0008909263415262</v>
+        <v>4.985757186659612e-05</v>
       </c>
       <c r="D217" t="n">
-        <v>2.329446077346802</v>
+        <v>0.5227725505828857</v>
       </c>
       <c r="E217" t="n">
-        <v>10.33939743041992</v>
+        <v>0.6675630211830139</v>
       </c>
       <c r="F217" t="n">
-        <v>2.329446315765381</v>
+        <v>2.359326601028442</v>
       </c>
       <c r="G217" t="n">
-        <v>10.33939838409424</v>
+        <v>11.3681173324585</v>
       </c>
       <c r="H217" t="n">
         <v>2000</v>
@@ -7183,22 +7183,22 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.0219877362251281</v>
+        <v>0.0053254412487149</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0011498322710394</v>
+        <v>6.16876786807552e-05</v>
       </c>
       <c r="D218" t="n">
-        <v>2.12768292427063</v>
+        <v>0.5901116728782654</v>
       </c>
       <c r="E218" t="n">
-        <v>10.30392837524414</v>
+        <v>0.8295114636421204</v>
       </c>
       <c r="F218" t="n">
-        <v>2.12768292427063</v>
+        <v>2.456211566925049</v>
       </c>
       <c r="G218" t="n">
-        <v>10.30392837524414</v>
+        <v>12.76757907867432</v>
       </c>
       <c r="H218" t="n">
         <v>16000</v>
@@ -7214,22 +7214,22 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.0236163884401321</v>
+        <v>0.0067973849363625</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0010816572466865</v>
+        <v>9.01616585906595e-05</v>
       </c>
       <c r="D219" t="n">
-        <v>2.474490404129028</v>
+        <v>0.7476633191108704</v>
       </c>
       <c r="E219" t="n">
-        <v>13.41650581359863</v>
+        <v>1.222957611083984</v>
       </c>
       <c r="F219" t="n">
-        <v>2.474490404129028</v>
+        <v>3.013987064361572</v>
       </c>
       <c r="G219" t="n">
-        <v>13.41650581359863</v>
+        <v>18.28013229370117</v>
       </c>
       <c r="H219" t="n">
         <v>44894</v>
@@ -7245,22 +7245,22 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.0224054679274559</v>
+        <v>0.0054558431729674</v>
       </c>
       <c r="C220" t="n">
-        <v>0.0011692398693412</v>
+        <v>6.40591824776493e-05</v>
       </c>
       <c r="D220" t="n">
-        <v>2.096178293228149</v>
+        <v>0.5891175270080566</v>
       </c>
       <c r="E220" t="n">
-        <v>9.531007766723633</v>
+        <v>0.8049967885017395</v>
       </c>
       <c r="F220" t="n">
-        <v>2.09617805480957</v>
+        <v>2.389585494995117</v>
       </c>
       <c r="G220" t="n">
-        <v>9.531006813049316</v>
+        <v>11.86911773681641</v>
       </c>
       <c r="H220" t="n">
         <v>2000</v>
@@ -7276,22 +7276,22 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.0183152426034212</v>
+        <v>0.0052835959941148</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0007645995938219</v>
+        <v>5.852589674759656e-05</v>
       </c>
       <c r="D221" t="n">
-        <v>1.91849160194397</v>
+        <v>0.5578233599662781</v>
       </c>
       <c r="E221" t="n">
-        <v>9.527488708496094</v>
+        <v>0.7222630381584167</v>
       </c>
       <c r="F221" t="n">
-        <v>1.918491721153259</v>
+        <v>2.395348310470581</v>
       </c>
       <c r="G221" t="n">
-        <v>9.527488708496094</v>
+        <v>12.16060256958008</v>
       </c>
       <c r="H221" t="n">
         <v>16000</v>
@@ -7307,22 +7307,22 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.0222441423684358</v>
+        <v>0.0066248220391571</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0009977740701287</v>
+        <v>8.401297236559913e-05</v>
       </c>
       <c r="D222" t="n">
-        <v>2.439808368682861</v>
+        <v>0.6989522576332092</v>
       </c>
       <c r="E222" t="n">
-        <v>14.10614204406738</v>
+        <v>1.062176942825317</v>
       </c>
       <c r="F222" t="n">
-        <v>2.439808130264282</v>
+        <v>2.927788496017456</v>
       </c>
       <c r="G222" t="n">
-        <v>14.10614204406738</v>
+        <v>17.42483329772949</v>
       </c>
       <c r="H222" t="n">
         <v>44894</v>
@@ -7338,22 +7338,22 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.0189276207238435</v>
+        <v>0.0053735510446131</v>
       </c>
       <c r="C223" t="n">
-        <v>0.0007961665396578</v>
+        <v>6.040206426405348e-05</v>
       </c>
       <c r="D223" t="n">
-        <v>1.94029152393341</v>
+        <v>0.55227130651474</v>
       </c>
       <c r="E223" t="n">
-        <v>9.349447250366213</v>
+        <v>0.7019556760787964</v>
       </c>
       <c r="F223" t="n">
-        <v>1.940291404724121</v>
+        <v>2.325027227401733</v>
       </c>
       <c r="G223" t="n">
-        <v>9.349447250366213</v>
+        <v>11.29002380371094</v>
       </c>
       <c r="H223" t="n">
         <v>2000</v>
@@ -7369,22 +7369,22 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.0215146951377391</v>
+        <v>0.0045038782991468</v>
       </c>
       <c r="C224" t="n">
-        <v>0.0008323532529175</v>
+        <v>4.449798143468797e-05</v>
       </c>
       <c r="D224" t="n">
-        <v>2.267724514007568</v>
+        <v>0.4901774227619171</v>
       </c>
       <c r="E224" t="n">
-        <v>10.87444496154785</v>
+        <v>0.6181883215904236</v>
       </c>
       <c r="F224" t="n">
-        <v>2.267724514007568</v>
+        <v>2.260950088500977</v>
       </c>
       <c r="G224" t="n">
-        <v>10.87444496154785</v>
+        <v>11.34771251678467</v>
       </c>
       <c r="H224" t="n">
         <v>16000</v>
@@ -7400,22 +7400,22 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.0246280208230018</v>
+        <v>0.0055735940113663</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0009958685841411001</v>
+        <v>6.276652129599825e-05</v>
       </c>
       <c r="D225" t="n">
-        <v>2.670832872390747</v>
+        <v>0.6121573448181152</v>
       </c>
       <c r="E225" t="n">
-        <v>15.04030990600586</v>
+        <v>0.9128945469856262</v>
       </c>
       <c r="F225" t="n">
-        <v>2.670833349227905</v>
+        <v>2.777162551879883</v>
       </c>
       <c r="G225" t="n">
-        <v>15.04030990600586</v>
+        <v>16.37990570068359</v>
       </c>
       <c r="H225" t="n">
         <v>44894</v>
@@ -7431,22 +7431,22 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.0219644866883754</v>
+        <v>0.004632631316781</v>
       </c>
       <c r="C226" t="n">
-        <v>0.0008537725661881</v>
+        <v>4.659639307647012e-05</v>
       </c>
       <c r="D226" t="n">
-        <v>2.250191450119019</v>
+        <v>0.4843361675739288</v>
       </c>
       <c r="E226" t="n">
-        <v>10.20508193969727</v>
+        <v>0.5890761613845825</v>
       </c>
       <c r="F226" t="n">
-        <v>2.250191450119019</v>
+        <v>2.199601650238037</v>
       </c>
       <c r="G226" t="n">
-        <v>10.20508193969727</v>
+        <v>10.47050380706787</v>
       </c>
       <c r="H226" t="n">
         <v>2000</v>
@@ -7462,22 +7462,22 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.0194762572646141</v>
+        <v>0.0065600806847214</v>
       </c>
       <c r="C227" t="n">
-        <v>0.0007575047202408</v>
+        <v>8.323483780259266e-05</v>
       </c>
       <c r="D227" t="n">
-        <v>2.090323209762573</v>
+        <v>0.644205629825592</v>
       </c>
       <c r="E227" t="n">
-        <v>10.18222999572754</v>
+        <v>0.8584485054016113</v>
       </c>
       <c r="F227" t="n">
-        <v>2.090323209762573</v>
+        <v>2.48518180847168</v>
       </c>
       <c r="G227" t="n">
-        <v>10.18222999572754</v>
+        <v>12.40704250335693</v>
       </c>
       <c r="H227" t="n">
         <v>16000</v>
@@ -7493,22 +7493,22 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.0238125417381525</v>
+        <v>0.0078058061189949</v>
       </c>
       <c r="C228" t="n">
-        <v>0.0010010953992605</v>
+        <v>0.0001118289437727</v>
       </c>
       <c r="D228" t="n">
-        <v>2.594727754592896</v>
+        <v>0.7895151376724243</v>
       </c>
       <c r="E228" t="n">
-        <v>14.63056564331055</v>
+        <v>1.251901030540466</v>
       </c>
       <c r="F228" t="n">
-        <v>2.594727754592896</v>
+        <v>3.00531530380249</v>
       </c>
       <c r="G228" t="n">
-        <v>14.63056564331055</v>
+        <v>17.80294609069824</v>
       </c>
       <c r="H228" t="n">
         <v>44894</v>
@@ -7524,22 +7524,22 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.0199568215757608</v>
+        <v>0.0066960491240024</v>
       </c>
       <c r="C229" t="n">
-        <v>0.0007804748602211</v>
+        <v>8.60703585203737e-05</v>
       </c>
       <c r="D229" t="n">
-        <v>2.08381199836731</v>
+        <v>0.642839252948761</v>
       </c>
       <c r="E229" t="n">
-        <v>9.62888240814209</v>
+        <v>0.8450199961662292</v>
       </c>
       <c r="F229" t="n">
-        <v>2.08381199836731</v>
+        <v>2.420472621917725</v>
       </c>
       <c r="G229" t="n">
-        <v>9.628883361816406</v>
+        <v>11.58828544616699</v>
       </c>
       <c r="H229" t="n">
         <v>2000</v>
@@ -7555,22 +7555,22 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.0203423630446195</v>
+        <v>0.0055924137122929</v>
       </c>
       <c r="C230" t="n">
-        <v>0.00076577818254</v>
+        <v>6.148898683022708e-05</v>
       </c>
       <c r="D230" t="n">
-        <v>2.108080148696899</v>
+        <v>0.6082624793052673</v>
       </c>
       <c r="E230" t="n">
-        <v>10.44126796722412</v>
+        <v>0.8005827665328979</v>
       </c>
       <c r="F230" t="n">
-        <v>2.108080148696899</v>
+        <v>2.481115102767944</v>
       </c>
       <c r="G230" t="n">
-        <v>10.4412670135498</v>
+        <v>12.56455230712891</v>
       </c>
       <c r="H230" t="n">
         <v>16000</v>
@@ -7586,22 +7586,22 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.0242883432656526</v>
+        <v>0.0068083927035331</v>
       </c>
       <c r="C231" t="n">
-        <v>0.001048193895258</v>
+        <v>8.718469325685874e-05</v>
       </c>
       <c r="D231" t="n">
-        <v>2.582317590713501</v>
+        <v>0.735981822013855</v>
       </c>
       <c r="E231" t="n">
-        <v>15.47890186309814</v>
+        <v>1.149963021278381</v>
       </c>
       <c r="F231" t="n">
-        <v>2.582317590713501</v>
+        <v>2.982815504074097</v>
       </c>
       <c r="G231" t="n">
-        <v>15.47890281677246</v>
+        <v>17.74748611450195</v>
       </c>
       <c r="H231" t="n">
         <v>44894</v>
@@ -7617,22 +7617,22 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.0207094773650169</v>
+        <v>0.0057824184186756</v>
       </c>
       <c r="C232" t="n">
-        <v>0.0007965269614942</v>
+        <v>6.518902227981016e-05</v>
       </c>
       <c r="D232" t="n">
-        <v>2.087459802627563</v>
+        <v>0.613002598285675</v>
       </c>
       <c r="E232" t="n">
-        <v>10.14925575256348</v>
+        <v>0.7889733910560608</v>
       </c>
       <c r="F232" t="n">
-        <v>2.087459564208984</v>
+        <v>2.418565511703491</v>
       </c>
       <c r="G232" t="n">
-        <v>10.14925575256348</v>
+        <v>11.7309160232544</v>
       </c>
       <c r="H232" t="n">
         <v>2000</v>
@@ -7648,22 +7648,22 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.0189655423164367</v>
+        <v>0.0048639699816703</v>
       </c>
       <c r="C233" t="n">
-        <v>0.0006683260435238</v>
+        <v>4.806720971828327e-05</v>
       </c>
       <c r="D233" t="n">
-        <v>2.039023637771606</v>
+        <v>0.5391557812690735</v>
       </c>
       <c r="E233" t="n">
-        <v>9.373571395874023</v>
+        <v>0.6525537967681885</v>
       </c>
       <c r="F233" t="n">
-        <v>2.039023637771606</v>
+        <v>2.326196193695068</v>
       </c>
       <c r="G233" t="n">
-        <v>9.373570442199709</v>
+        <v>11.50931453704834</v>
       </c>
       <c r="H233" t="n">
         <v>16000</v>
@@ -7679,22 +7679,22 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.0230927485972642</v>
+        <v>0.0060530779883265</v>
       </c>
       <c r="C234" t="n">
-        <v>0.0008920511463657</v>
+        <v>6.899556319694966e-05</v>
       </c>
       <c r="D234" t="n">
-        <v>2.536349773406982</v>
+        <v>0.6589290499687195</v>
       </c>
       <c r="E234" t="n">
-        <v>13.307373046875</v>
+        <v>0.9339311122894288</v>
       </c>
       <c r="F234" t="n">
-        <v>2.536349773406982</v>
+        <v>2.822160959243774</v>
       </c>
       <c r="G234" t="n">
-        <v>13.307373046875</v>
+        <v>16.37640571594238</v>
       </c>
       <c r="H234" t="n">
         <v>44894</v>
@@ -7710,22 +7710,22 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.0190327912569046</v>
+        <v>0.0049364911392331</v>
       </c>
       <c r="C235" t="n">
-        <v>0.0006838885601609</v>
+        <v>4.966373671777546e-05</v>
       </c>
       <c r="D235" t="n">
-        <v>1.988219738006592</v>
+        <v>0.5380480289459229</v>
       </c>
       <c r="E235" t="n">
-        <v>8.654752731323242</v>
+        <v>0.6511845588684082</v>
       </c>
       <c r="F235" t="n">
-        <v>1.988219499588013</v>
+        <v>2.278217315673828</v>
       </c>
       <c r="G235" t="n">
-        <v>8.654750823974609</v>
+        <v>10.81417560577393</v>
       </c>
       <c r="H235" t="n">
         <v>2000</v>
@@ -7741,22 +7741,22 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.0231852643191814</v>
+        <v>0.0068396711722016</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0008796940091997</v>
+        <v>8.06622629170306e-05</v>
       </c>
       <c r="D236" t="n">
-        <v>2.327161312103271</v>
+        <v>0.709878146648407</v>
       </c>
       <c r="E236" t="n">
-        <v>10.3863582611084</v>
+        <v>0.9572671055793762</v>
       </c>
       <c r="F236" t="n">
-        <v>2.327161312103271</v>
+        <v>2.657793998718262</v>
       </c>
       <c r="G236" t="n">
-        <v>10.3863582611084</v>
+        <v>13.59591960906982</v>
       </c>
       <c r="H236" t="n">
         <v>16000</v>
@@ -7772,22 +7772,22 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.0260368362069129</v>
+        <v>0.008282136172056099</v>
       </c>
       <c r="C237" t="n">
-        <v>0.0010675989324226</v>
+        <v>0.0001113886246457</v>
       </c>
       <c r="D237" t="n">
-        <v>2.698646783828736</v>
+        <v>0.8651708364486694</v>
       </c>
       <c r="E237" t="n">
-        <v>14.32362365722656</v>
+        <v>1.377101421356201</v>
       </c>
       <c r="F237" t="n">
-        <v>2.698646783828736</v>
+        <v>3.18565845489502</v>
       </c>
       <c r="G237" t="n">
-        <v>14.32362365722656</v>
+        <v>19.16497421264648</v>
       </c>
       <c r="H237" t="n">
         <v>44894</v>
@@ -7803,22 +7803,22 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.0228314027190208</v>
+        <v>0.0069015491753816</v>
       </c>
       <c r="C238" t="n">
-        <v>0.0008564310264773</v>
+        <v>8.243904449045658e-05</v>
       </c>
       <c r="D238" t="n">
-        <v>2.2350013256073</v>
+        <v>0.7056426405906677</v>
       </c>
       <c r="E238" t="n">
-        <v>9.425554275512695</v>
+        <v>0.9329675436019896</v>
       </c>
       <c r="F238" t="n">
-        <v>2.2350013256073</v>
+        <v>2.581396102905273</v>
       </c>
       <c r="G238" t="n">
-        <v>9.425554275512695</v>
+        <v>12.62964248657227</v>
       </c>
       <c r="H238" t="n">
         <v>2000</v>
@@ -7834,22 +7834,22 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.0185006465762853</v>
+        <v>0.0049301567487418</v>
       </c>
       <c r="C239" t="n">
-        <v>0.0007295091054402</v>
+        <v>5.3522515372606e-05</v>
       </c>
       <c r="D239" t="n">
-        <v>1.904987215995789</v>
+        <v>0.5363851189613342</v>
       </c>
       <c r="E239" t="n">
-        <v>8.764037132263184</v>
+        <v>0.7296910285949707</v>
       </c>
       <c r="F239" t="n">
-        <v>1.904987215995789</v>
+        <v>2.373379230499268</v>
       </c>
       <c r="G239" t="n">
-        <v>8.764037132263184</v>
+        <v>12.06320667266846</v>
       </c>
       <c r="H239" t="n">
         <v>16000</v>
@@ -7865,22 +7865,22 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.0216043032705783</v>
+        <v>0.0064328741282224</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0008922189008444</v>
+        <v>7.982293755048886e-05</v>
       </c>
       <c r="D240" t="n">
-        <v>2.294738054275513</v>
+        <v>0.7004966139793396</v>
       </c>
       <c r="E240" t="n">
-        <v>12.42290878295898</v>
+        <v>1.106428861618042</v>
       </c>
       <c r="F240" t="n">
-        <v>2.294738054275513</v>
+        <v>2.93289041519165</v>
       </c>
       <c r="G240" t="n">
-        <v>12.42290878295898</v>
+        <v>17.50337982177734</v>
       </c>
       <c r="H240" t="n">
         <v>44894</v>
@@ -7896,22 +7896,22 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.0180768370628356</v>
+        <v>0.0050262021832168</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0007015344453975</v>
+        <v>5.590618093265221e-05</v>
       </c>
       <c r="D241" t="n">
-        <v>1.816229581832886</v>
+        <v>0.5320782661437988</v>
       </c>
       <c r="E241" t="n">
-        <v>7.759546756744385</v>
+        <v>0.7031959295272827</v>
       </c>
       <c r="F241" t="n">
-        <v>1.816229581832886</v>
+        <v>2.310806035995483</v>
       </c>
       <c r="G241" t="n">
-        <v>7.759545803070068</v>
+        <v>11.15937900543213</v>
       </c>
       <c r="H241" t="n">
         <v>2000</v>
@@ -7927,22 +7927,22 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.0215629767626523</v>
+        <v>0.0055129909887909</v>
       </c>
       <c r="C242" t="n">
-        <v>0.0009438695851713</v>
+        <v>6.286263669608161e-05</v>
       </c>
       <c r="D242" t="n">
-        <v>2.149893045425415</v>
+        <v>0.583840548992157</v>
       </c>
       <c r="E242" t="n">
-        <v>10.42688179016113</v>
+        <v>0.7808387875556946</v>
       </c>
       <c r="F242" t="n">
-        <v>2.149893045425415</v>
+        <v>2.26224422454834</v>
       </c>
       <c r="G242" t="n">
-        <v>10.42688179016113</v>
+        <v>11.64302158355713</v>
       </c>
       <c r="H242" t="n">
         <v>16000</v>
@@ -7958,22 +7958,22 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.0262647997587919</v>
+        <v>0.0063427733257412</v>
       </c>
       <c r="C243" t="n">
-        <v>0.0012844384182244</v>
+        <v>8.119605627143756e-05</v>
       </c>
       <c r="D243" t="n">
-        <v>2.64107632637024</v>
+        <v>0.687350332736969</v>
       </c>
       <c r="E243" t="n">
-        <v>15.20934772491455</v>
+        <v>1.105393648147583</v>
       </c>
       <c r="F243" t="n">
-        <v>2.64107632637024</v>
+        <v>2.769789457321167</v>
       </c>
       <c r="G243" t="n">
-        <v>15.20934772491455</v>
+        <v>16.67886734008789</v>
       </c>
       <c r="H243" t="n">
         <v>44894</v>
@@ -7989,22 +7989,22 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.0219276919960975</v>
+        <v>0.005760580766946</v>
       </c>
       <c r="C244" t="n">
-        <v>0.0009541456820443</v>
+        <v>6.729877350153401e-05</v>
       </c>
       <c r="D244" t="n">
-        <v>2.157596111297607</v>
+        <v>0.5931413769721985</v>
       </c>
       <c r="E244" t="n">
-        <v>10.09098243713379</v>
+        <v>0.7843345403671265</v>
       </c>
       <c r="F244" t="n">
-        <v>2.157596111297607</v>
+        <v>2.20429539680481</v>
       </c>
       <c r="G244" t="n">
-        <v>10.09098243713379</v>
+        <v>10.83519172668457</v>
       </c>
       <c r="H244" t="n">
         <v>2000</v>
@@ -8020,22 +8020,22 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.0240579824894666</v>
+        <v>0.0088560972362756</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0010253645014017</v>
+        <v>0.0001254503731615</v>
       </c>
       <c r="D245" t="n">
-        <v>2.528210639953613</v>
+        <v>0.9011832475662231</v>
       </c>
       <c r="E245" t="n">
-        <v>12.36305618286133</v>
+        <v>1.391646862030029</v>
       </c>
       <c r="F245" t="n">
-        <v>2.528210639953613</v>
+        <v>2.865488529205322</v>
       </c>
       <c r="G245" t="n">
-        <v>12.36305618286133</v>
+        <v>15.17075157165527</v>
       </c>
       <c r="H245" t="n">
         <v>16000</v>
@@ -8051,22 +8051,22 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.0274131465703248</v>
+        <v>0.0103660114109516</v>
       </c>
       <c r="C246" t="n">
-        <v>0.0012812095228582</v>
+        <v>0.0001665453601162</v>
       </c>
       <c r="D246" t="n">
-        <v>2.915798425674438</v>
+        <v>1.054827094078064</v>
       </c>
       <c r="E246" t="n">
-        <v>16.86187171936035</v>
+        <v>1.905027985572815</v>
       </c>
       <c r="F246" t="n">
-        <v>2.915798902511597</v>
+        <v>3.396476268768311</v>
       </c>
       <c r="G246" t="n">
-        <v>16.86187362670898</v>
+        <v>21.06253814697266</v>
       </c>
       <c r="H246" t="n">
         <v>44894</v>
@@ -8082,22 +8082,22 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.0239361841231584</v>
+        <v>0.008906228467822</v>
       </c>
       <c r="C247" t="n">
-        <v>0.0010211033513769</v>
+        <v>0.0001271434448426</v>
       </c>
       <c r="D247" t="n">
-        <v>2.461957931518555</v>
+        <v>0.8920280933380127</v>
       </c>
       <c r="E247" t="n">
-        <v>11.37728309631348</v>
+        <v>1.342084169387817</v>
       </c>
       <c r="F247" t="n">
-        <v>2.461957931518555</v>
+        <v>2.785540580749512</v>
       </c>
       <c r="G247" t="n">
-        <v>11.37728309631348</v>
+        <v>14.09790325164795</v>
       </c>
       <c r="H247" t="n">
         <v>2000</v>
@@ -8113,22 +8113,22 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.022038597613573</v>
+        <v>0.0056145898997783</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0010326396441087</v>
+        <v>6.062522152205929e-05</v>
       </c>
       <c r="D248" t="n">
-        <v>2.17817234992981</v>
+        <v>0.6021586656570435</v>
       </c>
       <c r="E248" t="n">
-        <v>10.53810977935791</v>
+        <v>0.8319438695907593</v>
       </c>
       <c r="F248" t="n">
-        <v>2.17817234992981</v>
+        <v>2.499831199645996</v>
       </c>
       <c r="G248" t="n">
-        <v>10.53810977935791</v>
+        <v>12.75114250183106</v>
       </c>
       <c r="H248" t="n">
         <v>16000</v>
@@ -8144,22 +8144,22 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.0239713639020919</v>
+        <v>0.0067823226563632</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0010612902697175</v>
+        <v>8.332425204571337e-05</v>
       </c>
       <c r="D249" t="n">
-        <v>2.48628568649292</v>
+        <v>0.735668420791626</v>
       </c>
       <c r="E249" t="n">
-        <v>13.92054653167725</v>
+        <v>1.199846982955933</v>
       </c>
       <c r="F249" t="n">
-        <v>2.48628568649292</v>
+        <v>2.991564750671387</v>
       </c>
       <c r="G249" t="n">
-        <v>13.92054653167725</v>
+        <v>17.99309158325195</v>
       </c>
       <c r="H249" t="n">
         <v>44894</v>
@@ -8175,22 +8175,22 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.0221500545740127</v>
+        <v>0.0056649264879524</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0010492992587387</v>
+        <v>6.139629113022238e-05</v>
       </c>
       <c r="D250" t="n">
-        <v>2.130484342575073</v>
+        <v>0.5958759784698486</v>
       </c>
       <c r="E250" t="n">
-        <v>9.765021324157717</v>
+        <v>0.7938497066497803</v>
       </c>
       <c r="F250" t="n">
-        <v>2.130484342575073</v>
+        <v>2.425877571105957</v>
       </c>
       <c r="G250" t="n">
-        <v>9.765021324157717</v>
+        <v>11.78122711181641</v>
       </c>
       <c r="H250" t="n">
         <v>2000</v>
@@ -8206,22 +8206,22 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.0212846975773572</v>
+        <v>0.006116225849837</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0008755555027164</v>
+        <v>6.731520261382684e-05</v>
       </c>
       <c r="D251" t="n">
-        <v>2.178758382797241</v>
+        <v>0.6214356422424316</v>
       </c>
       <c r="E251" t="n">
-        <v>10.37825965881348</v>
+        <v>0.8275651931762695</v>
       </c>
       <c r="F251" t="n">
-        <v>2.178758144378662</v>
+        <v>2.540819883346558</v>
       </c>
       <c r="G251" t="n">
-        <v>10.37825965881348</v>
+        <v>12.86064624786377</v>
       </c>
       <c r="H251" t="n">
         <v>16000</v>
@@ -8237,22 +8237,22 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.0246578194200992</v>
+        <v>0.007307197432965</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0010453549912199</v>
+        <v>9.007105109049007e-05</v>
       </c>
       <c r="D252" t="n">
-        <v>2.630147695541382</v>
+        <v>0.7606885433197021</v>
       </c>
       <c r="E252" t="n">
-        <v>14.6318359375</v>
+        <v>1.188812851905823</v>
       </c>
       <c r="F252" t="n">
-        <v>2.630147695541382</v>
+        <v>3.039633989334106</v>
       </c>
       <c r="G252" t="n">
-        <v>14.63183403015137</v>
+        <v>18.15670013427734</v>
       </c>
       <c r="H252" t="n">
         <v>44894</v>
@@ -8268,22 +8268,22 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.0216445922851562</v>
+        <v>0.0061514331027865</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0009055073023773</v>
+        <v>6.825260788900778e-05</v>
       </c>
       <c r="D253" t="n">
-        <v>2.159826755523682</v>
+        <v>0.6136013865470886</v>
       </c>
       <c r="E253" t="n">
-        <v>9.877557754516602</v>
+        <v>0.793865978717804</v>
       </c>
       <c r="F253" t="n">
-        <v>2.159826278686523</v>
+        <v>2.463323354721069</v>
       </c>
       <c r="G253" t="n">
-        <v>9.877556800842283</v>
+        <v>11.85616874694824</v>
       </c>
       <c r="H253" t="n">
         <v>2000</v>
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.0224029142409563</v>
+        <v>0.0055131767876446</v>
       </c>
       <c r="C254" t="n">
-        <v>0.000947844935581</v>
+        <v>5.913904897170141e-05</v>
       </c>
       <c r="D254" t="n">
-        <v>2.246428489685059</v>
+        <v>0.5954446792602539</v>
       </c>
       <c r="E254" t="n">
-        <v>10.67584800720215</v>
+        <v>0.7215056419372559</v>
       </c>
       <c r="F254" t="n">
-        <v>2.246428489685059</v>
+        <v>2.109573602676392</v>
       </c>
       <c r="G254" t="n">
-        <v>10.67584800720215</v>
+        <v>10.42908763885498</v>
       </c>
       <c r="H254" t="n">
         <v>16000</v>
@@ -8330,22 +8330,22 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.025765324011445</v>
+        <v>0.0063054137863218</v>
       </c>
       <c r="C255" t="n">
-        <v>0.0011449172161519</v>
+        <v>7.597479270771146e-05</v>
       </c>
       <c r="D255" t="n">
-        <v>2.727627515792847</v>
+        <v>0.6760303378105164</v>
       </c>
       <c r="E255" t="n">
-        <v>15.11278915405273</v>
+        <v>0.9339748620986938</v>
       </c>
       <c r="F255" t="n">
-        <v>2.727627515792847</v>
+        <v>2.663483619689941</v>
       </c>
       <c r="G255" t="n">
-        <v>15.11278915405273</v>
+        <v>15.36147499084473</v>
       </c>
       <c r="H255" t="n">
         <v>44894</v>
@@ -8361,22 +8361,22 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.0228723753243684</v>
+        <v>0.0055691907182335</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0009798641549423001</v>
+        <v>5.990126010146923e-05</v>
       </c>
       <c r="D256" t="n">
-        <v>2.210975646972656</v>
+        <v>0.5880333185195923</v>
       </c>
       <c r="E256" t="n">
-        <v>9.895917892456056</v>
+        <v>0.6969771981239319</v>
       </c>
       <c r="F256" t="n">
-        <v>2.210975646972656</v>
+        <v>2.059098243713379</v>
       </c>
       <c r="G256" t="n">
-        <v>9.895917892456056</v>
+        <v>9.62482738494873</v>
       </c>
       <c r="H256" t="n">
         <v>2000</v>
@@ -8392,22 +8392,22 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.0238884016871452</v>
+        <v>0.0063838874921202</v>
       </c>
       <c r="C257" t="n">
-        <v>0.0010694100055843</v>
+        <v>8.271763363154605e-05</v>
       </c>
       <c r="D257" t="n">
-        <v>2.482225179672241</v>
+        <v>0.6367789506912231</v>
       </c>
       <c r="E257" t="n">
-        <v>11.30166625976562</v>
+        <v>0.8196313381195068</v>
       </c>
       <c r="F257" t="n">
-        <v>2.482225179672241</v>
+        <v>2.09410834312439</v>
       </c>
       <c r="G257" t="n">
-        <v>11.30166435241699</v>
+        <v>10.67783069610596</v>
       </c>
       <c r="H257" t="n">
         <v>16000</v>
@@ -8423,22 +8423,22 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.0262445155531168</v>
+        <v>0.006928855087608</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0011484867427498</v>
+        <v>9.390411287313329e-05</v>
       </c>
       <c r="D258" t="n">
-        <v>2.741262674331665</v>
+        <v>0.7184596657752991</v>
       </c>
       <c r="E258" t="n">
-        <v>14.03819942474365</v>
+        <v>1.084662318229675</v>
       </c>
       <c r="F258" t="n">
-        <v>2.741262674331665</v>
+        <v>2.606725692749023</v>
       </c>
       <c r="G258" t="n">
-        <v>14.03819942474365</v>
+        <v>15.51230239868164</v>
       </c>
       <c r="H258" t="n">
         <v>44894</v>
@@ -8454,22 +8454,22 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.0240561943501234</v>
+        <v>0.0063992207869887</v>
       </c>
       <c r="C259" t="n">
-        <v>0.0010735847754403</v>
+        <v>8.172934030881152e-05</v>
       </c>
       <c r="D259" t="n">
-        <v>2.44106388092041</v>
+        <v>0.6346624493598938</v>
       </c>
       <c r="E259" t="n">
-        <v>10.51668643951416</v>
+        <v>0.8113272190093994</v>
       </c>
       <c r="F259" t="n">
-        <v>2.441064119338989</v>
+        <v>2.055997610092163</v>
       </c>
       <c r="G259" t="n">
-        <v>10.51668834686279</v>
+        <v>9.939183235168455</v>
       </c>
       <c r="H259" t="n">
         <v>2000</v>
@@ -8485,22 +8485,22 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.0239010620862245</v>
+        <v>0.0054704053327441</v>
       </c>
       <c r="C260" t="n">
-        <v>0.0009441120782867</v>
+        <v>6.152419518912211e-05</v>
       </c>
       <c r="D260" t="n">
-        <v>2.531529426574707</v>
+        <v>0.5803624391555786</v>
       </c>
       <c r="E260" t="n">
-        <v>12.39003753662109</v>
+        <v>0.7153986692428589</v>
       </c>
       <c r="F260" t="n">
-        <v>2.531529426574707</v>
+        <v>2.228353261947632</v>
       </c>
       <c r="G260" t="n">
-        <v>12.39003658294678</v>
+        <v>10.9075117111206</v>
       </c>
       <c r="H260" t="n">
         <v>16000</v>
@@ -8516,22 +8516,22 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.0286265518516302</v>
+        <v>0.0062200999818742</v>
       </c>
       <c r="C261" t="n">
-        <v>0.0012837344547733</v>
+        <v>7.667763566132635e-05</v>
       </c>
       <c r="D261" t="n">
-        <v>3.063807010650635</v>
+        <v>0.6715551018714905</v>
       </c>
       <c r="E261" t="n">
-        <v>17.65805053710938</v>
+        <v>0.96712726354599</v>
       </c>
       <c r="F261" t="n">
-        <v>3.063806533813477</v>
+        <v>2.692146301269531</v>
       </c>
       <c r="G261" t="n">
-        <v>17.65805053710938</v>
+        <v>15.42904281616211</v>
       </c>
       <c r="H261" t="n">
         <v>44894</v>
@@ -8547,22 +8547,22 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.0239199474453926</v>
+        <v>0.0054694861173629</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0009519109735265</v>
+        <v>6.201311771292239e-05</v>
       </c>
       <c r="D262" t="n">
-        <v>2.462214946746826</v>
+        <v>0.5716639757156372</v>
       </c>
       <c r="E262" t="n">
-        <v>11.32529258728027</v>
+        <v>0.6916435956954956</v>
       </c>
       <c r="F262" t="n">
-        <v>2.462214946746826</v>
+        <v>2.174672365188598</v>
       </c>
       <c r="G262" t="n">
-        <v>11.32529067993164</v>
+        <v>10.13474941253662</v>
       </c>
       <c r="H262" t="n">
         <v>2000</v>
@@ -8578,22 +8578,22 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.0203522574156522</v>
+        <v>0.0054582958109676</v>
       </c>
       <c r="C263" t="n">
-        <v>0.000855136255268</v>
+        <v>6.411316280718893e-05</v>
       </c>
       <c r="D263" t="n">
-        <v>2.02190089225769</v>
+        <v>0.5758758187294006</v>
       </c>
       <c r="E263" t="n">
-        <v>10.00486755371094</v>
+        <v>0.813603401184082</v>
       </c>
       <c r="F263" t="n">
-        <v>2.021900653839112</v>
+        <v>2.307003974914551</v>
       </c>
       <c r="G263" t="n">
-        <v>10.00486660003662</v>
+        <v>12.03616333007812</v>
       </c>
       <c r="H263" t="n">
         <v>16000</v>
@@ -8609,22 +8609,22 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.0231785215437412</v>
+        <v>0.0063353604637086</v>
       </c>
       <c r="C264" t="n">
-        <v>0.0010054818121716</v>
+        <v>8.127788896672428e-05</v>
       </c>
       <c r="D264" t="n">
-        <v>2.444800138473511</v>
+        <v>0.6898654103279114</v>
       </c>
       <c r="E264" t="n">
-        <v>14.22744369506836</v>
+        <v>1.155479788780212</v>
       </c>
       <c r="F264" t="n">
-        <v>2.444800138473511</v>
+        <v>2.83897876739502</v>
       </c>
       <c r="G264" t="n">
-        <v>14.22744560241699</v>
+        <v>17.39612770080566</v>
       </c>
       <c r="H264" t="n">
         <v>44894</v>
@@ -8640,22 +8640,22 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.0205794293433427</v>
+        <v>0.0054730041883885</v>
       </c>
       <c r="C265" t="n">
-        <v>0.0008631555829197</v>
+        <v>6.480878073489293e-05</v>
       </c>
       <c r="D265" t="n">
-        <v>1.980100750923157</v>
+        <v>0.5617483854293823</v>
       </c>
       <c r="E265" t="n">
-        <v>9.122316360473633</v>
+        <v>0.7678076028823853</v>
       </c>
       <c r="F265" t="n">
-        <v>1.980100870132446</v>
+        <v>2.2475266456604</v>
       </c>
       <c r="G265" t="n">
-        <v>9.122317314147949</v>
+        <v>11.10013675689697</v>
       </c>
       <c r="H265" t="n">
         <v>2000</v>
@@ -8671,22 +8671,22 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.0242519564926624</v>
+        <v>0.006216961890459</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0011316316667944</v>
+        <v>7.272607035702094e-05</v>
       </c>
       <c r="D266" t="n">
-        <v>2.565549373626709</v>
+        <v>0.6462956070899963</v>
       </c>
       <c r="E266" t="n">
-        <v>13.4667387008667</v>
+        <v>0.8195197582244873</v>
       </c>
       <c r="F266" t="n">
-        <v>2.565549373626709</v>
+        <v>2.245675802230835</v>
       </c>
       <c r="G266" t="n">
-        <v>13.46673965454102</v>
+        <v>11.07121658325195</v>
       </c>
       <c r="H266" t="n">
         <v>16000</v>
@@ -8702,22 +8702,22 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.0269704069942235</v>
+        <v>0.0072461939416825</v>
       </c>
       <c r="C267" t="n">
-        <v>0.0012492008972913</v>
+        <v>9.5590170531068e-05</v>
       </c>
       <c r="D267" t="n">
-        <v>2.965816736221313</v>
+        <v>0.7582814693450928</v>
       </c>
       <c r="E267" t="n">
-        <v>18.01741409301757</v>
+        <v>1.114569902420044</v>
       </c>
       <c r="F267" t="n">
-        <v>2.965816736221313</v>
+        <v>2.78251314163208</v>
       </c>
       <c r="G267" t="n">
-        <v>18.01741409301757</v>
+        <v>16.12318229675293</v>
       </c>
       <c r="H267" t="n">
         <v>44894</v>
@@ -8733,22 +8733,22 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.0246339347213506</v>
+        <v>0.0062051420100033</v>
       </c>
       <c r="C268" t="n">
-        <v>0.0011525106383487</v>
+        <v>7.359487062785774e-05</v>
       </c>
       <c r="D268" t="n">
-        <v>2.559544563293457</v>
+        <v>0.6352517008781433</v>
       </c>
       <c r="E268" t="n">
-        <v>13.05601215362549</v>
+        <v>0.8057335019111633</v>
       </c>
       <c r="F268" t="n">
-        <v>2.559544324874878</v>
+        <v>2.194976806640625</v>
       </c>
       <c r="G268" t="n">
-        <v>13.05600929260254</v>
+        <v>10.35933208465576</v>
       </c>
       <c r="H268" t="n">
         <v>2000</v>
@@ -8764,22 +8764,22 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.0206178352236747</v>
+        <v>0.005375447217375</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0007592233596369</v>
+        <v>6.056009806343354e-05</v>
       </c>
       <c r="D269" t="n">
-        <v>2.107876777648926</v>
+        <v>0.5740647912025452</v>
       </c>
       <c r="E269" t="n">
-        <v>9.390968322753906</v>
+        <v>0.7397803664207458</v>
       </c>
       <c r="F269" t="n">
-        <v>2.107877016067505</v>
+        <v>2.353809118270874</v>
       </c>
       <c r="G269" t="n">
-        <v>9.390968322753906</v>
+        <v>11.83282661437988</v>
       </c>
       <c r="H269" t="n">
         <v>16000</v>
@@ -8795,22 +8795,22 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.0240371543914079</v>
+        <v>0.0064533622935414</v>
       </c>
       <c r="C270" t="n">
-        <v>0.0009738223743624</v>
+        <v>8.121064456645399e-05</v>
       </c>
       <c r="D270" t="n">
-        <v>2.563241004943848</v>
+        <v>0.6970546245574951</v>
       </c>
       <c r="E270" t="n">
-        <v>13.5746898651123</v>
+        <v>1.058388590812683</v>
       </c>
       <c r="F270" t="n">
-        <v>2.563241004943848</v>
+        <v>2.87294340133667</v>
       </c>
       <c r="G270" t="n">
-        <v>13.57469081878662</v>
+        <v>16.9066162109375</v>
       </c>
       <c r="H270" t="n">
         <v>44894</v>
@@ -8826,22 +8826,22 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.0206010583788156</v>
+        <v>0.0055266693234443</v>
       </c>
       <c r="C271" t="n">
-        <v>0.0007628321764059001</v>
+        <v>6.369794573402032e-05</v>
       </c>
       <c r="D271" t="n">
-        <v>2.046005964279175</v>
+        <v>0.5787995457649231</v>
       </c>
       <c r="E271" t="n">
-        <v>8.599188804626465</v>
+        <v>0.7354685664176941</v>
       </c>
       <c r="F271" t="n">
-        <v>2.046005964279175</v>
+        <v>2.297842741012573</v>
       </c>
       <c r="G271" t="n">
-        <v>8.599189758300781</v>
+        <v>11.01376628875732</v>
       </c>
       <c r="H271" t="n">
         <v>2000</v>
@@ -8857,22 +8857,22 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.0193496663123369</v>
+        <v>0.0064177950844168</v>
       </c>
       <c r="C272" t="n">
-        <v>0.0007721523288637</v>
+        <v>8.248654921771958e-05</v>
       </c>
       <c r="D272" t="n">
-        <v>2.092990398406982</v>
+        <v>0.6410596966743469</v>
       </c>
       <c r="E272" t="n">
-        <v>10.63197040557861</v>
+        <v>0.814175009727478</v>
       </c>
       <c r="F272" t="n">
-        <v>2.092990636825561</v>
+        <v>1.952272415161133</v>
       </c>
       <c r="G272" t="n">
-        <v>10.63197040557861</v>
+        <v>9.671759605407717</v>
       </c>
       <c r="H272" t="n">
         <v>16000</v>
@@ -8888,22 +8888,22 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.0221093967556953</v>
+        <v>0.0065844417549669</v>
       </c>
       <c r="C273" t="n">
-        <v>0.0009181877830997</v>
+        <v>8.430350135313347e-05</v>
       </c>
       <c r="D273" t="n">
-        <v>2.44529676437378</v>
+        <v>0.7048232555389404</v>
       </c>
       <c r="E273" t="n">
-        <v>14.6926736831665</v>
+        <v>1.04107654094696</v>
       </c>
       <c r="F273" t="n">
-        <v>2.445297002792358</v>
+        <v>2.458130121231079</v>
       </c>
       <c r="G273" t="n">
-        <v>14.6926736831665</v>
+        <v>14.25324058532715</v>
       </c>
       <c r="H273" t="n">
         <v>44894</v>
@@ -8919,22 +8919,22 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.019471725448966</v>
+        <v>0.0063340757042169</v>
       </c>
       <c r="C274" t="n">
-        <v>0.0007815135759301</v>
+        <v>8.07355172582902e-05</v>
       </c>
       <c r="D274" t="n">
-        <v>2.051478862762451</v>
+        <v>0.6260184049606323</v>
       </c>
       <c r="E274" t="n">
-        <v>9.911242485046388</v>
+        <v>0.7961946725845337</v>
       </c>
       <c r="F274" t="n">
-        <v>2.051478862762451</v>
+        <v>1.904307126998901</v>
       </c>
       <c r="G274" t="n">
-        <v>9.911242485046388</v>
+        <v>8.947851181030273</v>
       </c>
       <c r="H274" t="n">
         <v>2000</v>
@@ -8950,22 +8950,22 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.0208466332405805</v>
+        <v>0.0074131595902144</v>
       </c>
       <c r="C275" t="n">
-        <v>0.0008026798604987</v>
+        <v>0.0001177374579128</v>
       </c>
       <c r="D275" t="n">
-        <v>2.172429800033569</v>
+        <v>0.6839150786399841</v>
       </c>
       <c r="E275" t="n">
-        <v>10.01331996917725</v>
+        <v>0.9455010890960692</v>
       </c>
       <c r="F275" t="n">
-        <v>2.172429800033569</v>
+        <v>2.047004699707031</v>
       </c>
       <c r="G275" t="n">
-        <v>10.01331996917725</v>
+        <v>10.79407978057861</v>
       </c>
       <c r="H275" t="n">
         <v>16000</v>
@@ -8981,22 +8981,22 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.0251102615147829</v>
+        <v>0.0073344730772078</v>
       </c>
       <c r="C276" t="n">
-        <v>0.0011053602211177</v>
+        <v>0.0001082758972188</v>
       </c>
       <c r="D276" t="n">
-        <v>2.62917685508728</v>
+        <v>0.7374837398529053</v>
       </c>
       <c r="E276" t="n">
-        <v>14.21979141235352</v>
+        <v>1.169122338294983</v>
       </c>
       <c r="F276" t="n">
-        <v>2.62917685508728</v>
+        <v>2.552571296691895</v>
       </c>
       <c r="G276" t="n">
-        <v>14.21979236602783</v>
+        <v>15.72565364837646</v>
       </c>
       <c r="H276" t="n">
         <v>44894</v>
@@ -9012,22 +9012,22 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.0208895523101091</v>
+        <v>0.0075474297627806</v>
       </c>
       <c r="C277" t="n">
-        <v>0.0008171812514774</v>
+        <v>0.0001214970034197</v>
       </c>
       <c r="D277" t="n">
-        <v>2.118144035339355</v>
+        <v>0.6838372945785522</v>
       </c>
       <c r="E277" t="n">
-        <v>9.268871307373049</v>
+        <v>0.9423708319664</v>
       </c>
       <c r="F277" t="n">
-        <v>2.118144035339355</v>
+        <v>2.00106167793274</v>
       </c>
       <c r="G277" t="n">
-        <v>9.268871307373049</v>
+        <v>10.03525352478027</v>
       </c>
       <c r="H277" t="n">
         <v>2000</v>
@@ -9043,22 +9043,22 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.0212441217154264</v>
+        <v>0.0079968841746449</v>
       </c>
       <c r="C278" t="n">
-        <v>0.0008590361103415</v>
+        <v>0.0001278285490116</v>
       </c>
       <c r="D278" t="n">
-        <v>2.174175977706909</v>
+        <v>0.7544185519218445</v>
       </c>
       <c r="E278" t="n">
-        <v>10.23202705383301</v>
+        <v>0.9949355125427246</v>
       </c>
       <c r="F278" t="n">
-        <v>2.174175977706909</v>
+        <v>1.90588116645813</v>
       </c>
       <c r="G278" t="n">
-        <v>10.23202610015869</v>
+        <v>9.174515724182127</v>
       </c>
       <c r="H278" t="n">
         <v>16000</v>
@@ -9074,22 +9074,22 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.024842545390129</v>
+        <v>0.007874202914535999</v>
       </c>
       <c r="C279" t="n">
-        <v>0.0011085928417742</v>
+        <v>0.0001170906616607</v>
       </c>
       <c r="D279" t="n">
-        <v>2.618257522583008</v>
+        <v>0.7991369962692261</v>
       </c>
       <c r="E279" t="n">
-        <v>14.65909671783447</v>
+        <v>1.164684176445007</v>
       </c>
       <c r="F279" t="n">
-        <v>2.618257761001587</v>
+        <v>2.379857063293457</v>
       </c>
       <c r="G279" t="n">
-        <v>14.65909671783447</v>
+        <v>13.46445274353027</v>
       </c>
       <c r="H279" t="n">
         <v>44894</v>
@@ -9105,22 +9105,22 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.0215671174228191</v>
+        <v>0.007843779399991001</v>
       </c>
       <c r="C280" t="n">
-        <v>0.000887184520252</v>
+        <v>0.0001268841297132</v>
       </c>
       <c r="D280" t="n">
-        <v>2.134812116622925</v>
+        <v>0.7383116483688354</v>
       </c>
       <c r="E280" t="n">
-        <v>9.512033462524414</v>
+        <v>0.9855905175209044</v>
       </c>
       <c r="F280" t="n">
-        <v>2.134811878204346</v>
+        <v>1.882001519203186</v>
       </c>
       <c r="G280" t="n">
-        <v>9.512033462524414</v>
+        <v>8.609097480773926</v>
       </c>
       <c r="H280" t="n">
         <v>2000</v>
@@ -9136,22 +9136,22 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.0204897206276655</v>
+        <v>0.0042210770770907</v>
       </c>
       <c r="C281" t="n">
-        <v>0.0008476621005684</v>
+        <v>3.826545435003936e-05</v>
       </c>
       <c r="D281" t="n">
-        <v>2.115452527999878</v>
+        <v>0.4787431061267853</v>
       </c>
       <c r="E281" t="n">
-        <v>9.972333908081056</v>
+        <v>0.5999546051025391</v>
       </c>
       <c r="F281" t="n">
-        <v>2.115452289581299</v>
+        <v>2.240059375762939</v>
       </c>
       <c r="G281" t="n">
-        <v>9.972333908081056</v>
+        <v>11.23217964172363</v>
       </c>
       <c r="H281" t="n">
         <v>16000</v>
@@ -9167,22 +9167,22 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.0243539065122604</v>
+        <v>0.0052176797762513</v>
       </c>
       <c r="C282" t="n">
-        <v>0.0011105251032859</v>
+        <v>5.507303649210371e-05</v>
       </c>
       <c r="D282" t="n">
-        <v>2.555825233459473</v>
+        <v>0.5883447527885437</v>
       </c>
       <c r="E282" t="n">
-        <v>14.13359546661377</v>
+        <v>0.8775403499603271</v>
       </c>
       <c r="F282" t="n">
-        <v>2.555825710296631</v>
+        <v>2.716469287872314</v>
       </c>
       <c r="G282" t="n">
-        <v>14.13359546661377</v>
+        <v>15.95577907562256</v>
       </c>
       <c r="H282" t="n">
         <v>44894</v>
@@ -9198,22 +9198,22 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.0204593352973461</v>
+        <v>0.0043291160836815</v>
       </c>
       <c r="C283" t="n">
-        <v>0.0008456680807285</v>
+        <v>4.003834328614175e-05</v>
       </c>
       <c r="D283" t="n">
-        <v>2.070761203765869</v>
+        <v>0.4773390591144562</v>
       </c>
       <c r="E283" t="n">
-        <v>9.23609733581543</v>
+        <v>0.5922365784645081</v>
       </c>
       <c r="F283" t="n">
-        <v>2.070761203765869</v>
+        <v>2.17496919631958</v>
       </c>
       <c r="G283" t="n">
-        <v>9.236098289489746</v>
+        <v>10.4152021408081</v>
       </c>
       <c r="H283" t="n">
         <v>2000</v>
@@ -9229,22 +9229,22 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.0228838734328746</v>
+        <v>0.0046386141330003</v>
       </c>
       <c r="C284" t="n">
-        <v>0.0010874733561649</v>
+        <v>4.571806493913755e-05</v>
       </c>
       <c r="D284" t="n">
-        <v>2.318451881408691</v>
+        <v>0.4957672953605652</v>
       </c>
       <c r="E284" t="n">
-        <v>11.93786525726318</v>
+        <v>0.6131716370582581</v>
       </c>
       <c r="F284" t="n">
-        <v>2.318451642990112</v>
+        <v>2.202125072479248</v>
       </c>
       <c r="G284" t="n">
-        <v>11.93786430358887</v>
+        <v>10.8648099899292</v>
       </c>
       <c r="H284" t="n">
         <v>16000</v>
@@ -9260,22 +9260,22 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.0258521810173988</v>
+        <v>0.0056285932660102</v>
       </c>
       <c r="C285" t="n">
-        <v>0.0012091614771634</v>
+        <v>6.324278365354985e-05</v>
       </c>
       <c r="D285" t="n">
-        <v>2.766740798950196</v>
+        <v>0.618039071559906</v>
       </c>
       <c r="E285" t="n">
-        <v>16.50252723693848</v>
+        <v>0.9143623113632202</v>
       </c>
       <c r="F285" t="n">
-        <v>2.766740798950196</v>
+        <v>2.700245141983032</v>
       </c>
       <c r="G285" t="n">
-        <v>16.50252914428711</v>
+        <v>15.69289779663086</v>
       </c>
       <c r="H285" t="n">
         <v>44894</v>
@@ -9291,22 +9291,22 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.0230971649289131</v>
+        <v>0.0046957759186625</v>
       </c>
       <c r="C286" t="n">
-        <v>0.001103164628148</v>
+        <v>4.770383020513691e-05</v>
       </c>
       <c r="D286" t="n">
-        <v>2.268559455871582</v>
+        <v>0.4912092983722687</v>
       </c>
       <c r="E286" t="n">
-        <v>11.04881381988525</v>
+        <v>0.6109735369682312</v>
       </c>
       <c r="F286" t="n">
-        <v>2.268559217453003</v>
+        <v>2.141768932342529</v>
       </c>
       <c r="G286" t="n">
-        <v>11.04881286621094</v>
+        <v>10.05945682525635</v>
       </c>
       <c r="H286" t="n">
         <v>2000</v>
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.0210302229970693</v>
+        <v>0.0047908187843859</v>
       </c>
       <c r="C287" t="n">
-        <v>0.0009963526390492001</v>
+        <v>4.838006134377792e-05</v>
       </c>
       <c r="D287" t="n">
-        <v>2.069725036621094</v>
+        <v>0.510866641998291</v>
       </c>
       <c r="E287" t="n">
-        <v>10.44804286956787</v>
+        <v>0.5829359292984009</v>
       </c>
       <c r="F287" t="n">
-        <v>2.069725036621094</v>
+        <v>2.088731527328491</v>
       </c>
       <c r="G287" t="n">
-        <v>10.4480447769165</v>
+        <v>9.997128486633301</v>
       </c>
       <c r="H287" t="n">
         <v>16000</v>
@@ -9353,22 +9353,22 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.023716052994132</v>
+        <v>0.0055521111935377</v>
       </c>
       <c r="C288" t="n">
-        <v>0.0010578206274658</v>
+        <v>6.222757656360045e-05</v>
       </c>
       <c r="D288" t="n">
-        <v>2.50407075881958</v>
+        <v>0.6065201163291931</v>
       </c>
       <c r="E288" t="n">
-        <v>14.49506092071533</v>
+        <v>0.82039874792099</v>
       </c>
       <c r="F288" t="n">
-        <v>2.50407075881958</v>
+        <v>2.59437894821167</v>
       </c>
       <c r="G288" t="n">
-        <v>14.49506092071533</v>
+        <v>14.74185562133789</v>
       </c>
       <c r="H288" t="n">
         <v>44894</v>
@@ -9384,22 +9384,22 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.021346541121602</v>
+        <v>0.0048533556982874</v>
       </c>
       <c r="C289" t="n">
-        <v>0.001017402857542</v>
+        <v>4.969730798620731e-05</v>
       </c>
       <c r="D289" t="n">
-        <v>2.053065538406372</v>
+        <v>0.5085976123809814</v>
       </c>
       <c r="E289" t="n">
-        <v>10.05360698699951</v>
+        <v>0.59175705909729</v>
       </c>
       <c r="F289" t="n">
-        <v>2.053065538406372</v>
+        <v>2.044025659561157</v>
       </c>
       <c r="G289" t="n">
-        <v>10.0536060333252</v>
+        <v>9.351933479309082</v>
       </c>
       <c r="H289" t="n">
         <v>2000</v>
@@ -9415,22 +9415,22 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.0175524987280368</v>
+        <v>0.0057396916672587</v>
       </c>
       <c r="C290" t="n">
-        <v>0.0006483388133347</v>
+        <v>6.454184767790139e-05</v>
       </c>
       <c r="D290" t="n">
-        <v>1.883503913879394</v>
+        <v>0.604741096496582</v>
       </c>
       <c r="E290" t="n">
-        <v>8.423232078552246</v>
+        <v>0.7861871719360352</v>
       </c>
       <c r="F290" t="n">
-        <v>1.883504033088684</v>
+        <v>2.269467830657959</v>
       </c>
       <c r="G290" t="n">
-        <v>8.423232078552246</v>
+        <v>11.5217170715332</v>
       </c>
       <c r="H290" t="n">
         <v>16000</v>
@@ -9446,22 +9446,22 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.021048741415143</v>
+        <v>0.0065474682487547</v>
       </c>
       <c r="C291" t="n">
-        <v>0.00080453872215</v>
+        <v>8.205691119655967e-05</v>
       </c>
       <c r="D291" t="n">
-        <v>2.364762544631958</v>
+        <v>0.6962286233901978</v>
       </c>
       <c r="E291" t="n">
-        <v>12.1680212020874</v>
+        <v>1.078559875488281</v>
       </c>
       <c r="F291" t="n">
-        <v>2.364762544631958</v>
+        <v>2.742654323577881</v>
       </c>
       <c r="G291" t="n">
-        <v>12.16801929473877</v>
+        <v>16.34658241271973</v>
       </c>
       <c r="H291" t="n">
         <v>44894</v>
@@ -9477,22 +9477,22 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.0180004313588142</v>
+        <v>0.0057504456490278</v>
       </c>
       <c r="C292" t="n">
-        <v>0.0006658063502982</v>
+        <v>6.492804823210463e-05</v>
       </c>
       <c r="D292" t="n">
-        <v>1.884870409965515</v>
+        <v>0.6002613306045532</v>
       </c>
       <c r="E292" t="n">
-        <v>7.921885967254639</v>
+        <v>0.7803054451942444</v>
       </c>
       <c r="F292" t="n">
-        <v>1.884870171546936</v>
+        <v>2.220611095428467</v>
       </c>
       <c r="G292" t="n">
-        <v>7.921884536743164</v>
+        <v>10.78112506866455</v>
       </c>
       <c r="H292" t="n">
         <v>2000</v>
@@ -9508,22 +9508,22 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.0217768512666225</v>
+        <v>0.0046347072347998</v>
       </c>
       <c r="C293" t="n">
-        <v>0.0010680155828595</v>
+        <v>4.758371869684197e-05</v>
       </c>
       <c r="D293" t="n">
-        <v>2.125617504119873</v>
+        <v>0.5200532674789429</v>
       </c>
       <c r="E293" t="n">
-        <v>10.36404514312744</v>
+        <v>0.6936829090118408</v>
       </c>
       <c r="F293" t="n">
-        <v>2.125617742538452</v>
+        <v>2.365867614746094</v>
       </c>
       <c r="G293" t="n">
-        <v>10.36404418945312</v>
+        <v>12.05570697784424</v>
       </c>
       <c r="H293" t="n">
         <v>16000</v>
@@ -9539,22 +9539,22 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.0235286820679903</v>
+        <v>0.005820223595947</v>
       </c>
       <c r="C294" t="n">
-        <v>0.0010483374353498</v>
+        <v>6.756822403986007e-05</v>
       </c>
       <c r="D294" t="n">
-        <v>2.47602105140686</v>
+        <v>0.653755247592926</v>
       </c>
       <c r="E294" t="n">
-        <v>13.72841262817383</v>
+        <v>1.017706394195557</v>
       </c>
       <c r="F294" t="n">
-        <v>2.47602105140686</v>
+        <v>2.890017032623291</v>
       </c>
       <c r="G294" t="n">
-        <v>13.72841262817383</v>
+        <v>17.24758529663086</v>
       </c>
       <c r="H294" t="n">
         <v>44894</v>
@@ -9570,28 +9570,214 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.0220121536403894</v>
+        <v>0.0047555197961628</v>
       </c>
       <c r="C295" t="n">
-        <v>0.0010977277997881</v>
+        <v>5.038576637161896e-05</v>
       </c>
       <c r="D295" t="n">
-        <v>2.079514265060425</v>
+        <v>0.5195775628089905</v>
       </c>
       <c r="E295" t="n">
-        <v>9.73902416229248</v>
+        <v>0.6867951154708862</v>
       </c>
       <c r="F295" t="n">
-        <v>2.079513788223267</v>
+        <v>2.306853532791138</v>
       </c>
       <c r="G295" t="n">
-        <v>9.739023208618164</v>
+        <v>11.24854278564453</v>
       </c>
       <c r="H295" t="n">
         <v>2000</v>
       </c>
       <c r="I295" t="n">
         <v>97</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>ADAPTION</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0.004520668182522</v>
+      </c>
+      <c r="C296" t="n">
+        <v>4.681891005020589e-05</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.48920738697052</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.6213437914848328</v>
+      </c>
+      <c r="F296" t="n">
+        <v>2.292357444763184</v>
+      </c>
+      <c r="G296" t="n">
+        <v>11.27434635162354</v>
+      </c>
+      <c r="H296" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I296" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>test_adaption</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>0.005803104955703</v>
+      </c>
+      <c r="C297" t="n">
+        <v>6.891339580761269e-05</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.6328111290931702</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.9421789050102234</v>
+      </c>
+      <c r="F297" t="n">
+        <v>2.790447235107422</v>
+      </c>
+      <c r="G297" t="n">
+        <v>16.15469360351562</v>
+      </c>
+      <c r="H297" t="n">
+        <v>44894</v>
+      </c>
+      <c r="I297" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0.0046845669858157</v>
+      </c>
+      <c r="C298" t="n">
+        <v>4.998498479835689e-05</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.4958395361900329</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.6293389201164246</v>
+      </c>
+      <c r="F298" t="n">
+        <v>2.24210786819458</v>
+      </c>
+      <c r="G298" t="n">
+        <v>10.56673049926758</v>
+      </c>
+      <c r="H298" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I298" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>ADAPTION</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0.0061830901540815</v>
+      </c>
+      <c r="C299" t="n">
+        <v>7.819267921149731e-05</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.6256611347198486</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.8513870239257812</v>
+      </c>
+      <c r="F299" t="n">
+        <v>2.530873537063598</v>
+      </c>
+      <c r="G299" t="n">
+        <v>12.76862239837646</v>
+      </c>
+      <c r="H299" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I299" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>test_adaption</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0.007928499020636</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.000114120717626</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.8034576773643494</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1.268369913101196</v>
+      </c>
+      <c r="F300" t="n">
+        <v>3.089080333709717</v>
+      </c>
+      <c r="G300" t="n">
+        <v>18.27635383605957</v>
+      </c>
+      <c r="H300" t="n">
+        <v>44894</v>
+      </c>
+      <c r="I300" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0.0062548727728426</v>
+      </c>
+      <c r="C301" t="n">
+        <v>8.000053639989346e-05</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.6210586428642273</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.8163007497787476</v>
+      </c>
+      <c r="F301" t="n">
+        <v>2.456290006637573</v>
+      </c>
+      <c r="G301" t="n">
+        <v>11.79141807556152</v>
+      </c>
+      <c r="H301" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I301" t="n">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
